--- a/Wazuh Logs.xlsx
+++ b/Wazuh Logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>{"predecoder": {"hostname": "lane-mail", "program_name": "dovecot", "timestamp": "Feb  3 05:07:23"}, "agent": {"ip": "192.168.226.198", "name": "wazuh-client", "id": "15"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 19, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  3 05:07:23 lane-mail dovecot: imap-login: Login: user=&lt;shelby.webster&gt;, method=PLAIN, rip=192.168.226.198, lip=192.168.226.198, mpid=6001, TLS, session=&lt;sRAUHBbXMN/AqOLG&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-03T05:07:23.000000Z", "location": "/var/log/mail.info", "id": "1689689731.24360"}</t>
   </si>
@@ -19,9 +19,6 @@
     <t>On Feb 3 at 05:07:23, a successful Dovecot IMAP login for user "shelby.webster" from IP 192.168.226.198 over TLS was recorded. The event was triggered 19 times.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  3 05:10:51"}, "agent": {"ip": "10.182.193.181", "name": "wazuh-client", "id": "32"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 29, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  3 05:10:51 mail dovecot: imap-login: Login: user=&lt;shirley.brooks&gt;, method=PLAIN, rip=10.182.193.181, lip=10.182.193.181, mpid=11255, TLS, session=&lt;+UdwKBbXWJAKtsG1&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-03T05:10:51.000000Z", "location": "/var/log/mail.info", "id": "1689689940.29371"}</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>{"predecoder": {"hostname": "collinsbecker-mail", "program_name": "HORDE", "timestamp": "Jan 25 12:25:47"}, "agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 1, "mail": false, "level": 5, "pci_dss": ["10.2.4", "10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "syslog: User authentication failure.", "groups": ["syslog", "access_control", "authentication_failed"], "id": "2501", "nist_800_53": ["AU.14", "AC.7"], "gpg13": ["7.8"], "gdpr": ["IV_35.7.d", "IV_32.2"]}, "decoder": {}, "full_log": "Jan 25 12:25:47 collinsbecker-mail HORDE: [horde] FAILED LOGIN for jamie.fuller to horde (10.70.35.55) [pid 5957 on line 198 of \"/usr/share/horde/login.php\"]", "input": {"type": "log"}, "@timestamp": "2022-01-25T12:25:47.000000Z", "location": "/var/log/syslog", "id": "1687807756.2509488"}</t>
   </si>
   <si>
-    <t>On Jan 25 at 12:25:47, a user authentication failure occurred for user &lt;jamie.fuller&gt; in HORDE from IP 10.70.35.55, triggered 1 time</t>
+    <t>On Jan 25 at 12:25:47, a user authentication failure occurred for user &lt;jamie.fuller&gt; in HORDE application from IP 10.70.35.55, triggered 1 time</t>
   </si>
   <si>
     <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "transandfiestas.ga", "id": 22642, "type": "query", "tx_id": 0, "rrtype": "AAAA"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "41731", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2025105", "rev": "4", "metadata": {"updated_at": ["2020_09_16"], "former_category": ["HUNTING"], "created_at": ["2017_12_03"]}, "gid": "1", "signature": "ET INFO DNS Query for Suspicious .ga Domain", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1747488640246624.000000", "dest_ip": "10.70.63.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-01-27T18:42:46.435040+0000", "bytes_toclient": "0", "bytes_toserver": "78", "pkts_toclient": "0"}, "timestamp": "2022-01-27T18:42:46.435040+0000"}, "rule": {"firedtimes": 521, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO DNS Query for Suspicious .ga Domain", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-27T18:42:46.435040Z", "location": "/var/log/suricata/eve.json", "id": "1688003175.2046491"}</t>
@@ -116,6 +113,204 @@
   </si>
   <si>
     <t>On Jan 29 at 14:39:23, a suspicious URL access was detected for /server-status from IP 172.24.249.224, triggered 11 times</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.17.130.196", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "172.17.130.196", "src_port": "37514", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1626549972498320.000000", "dest_ip": "151.101.194.110", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "fast.wistia.com"}, "dest_port": "443", "flow": {"pkts_toserver": "11", "start": "2022-01-18T12:06:41.784272+0000", "bytes_toclient": "794", "bytes_toserver": "1758", "pkts_toclient": "7"}, "timestamp": "2022-01-18T12:06:41.801781+0000"}, "rule": {"firedtimes": 64, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-18T12:06:41.801781Z", "location": "/var/log/suricata/eve.json", "id": "1686440842.6750041"}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:06:41, a Suricata alert was triggered for invalid TLS record traffic from IP 172.17.130.196 to IP 151.101.194.110 over TCP. Allowed, triggered 64 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "192.168.128.4", "src_port": "47968", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "681605627919807.000000", "dest_ip": "100.25.225.205", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "pipedream.wistia.com"}, "dest_port": "443", "flow": {"pkts_toserver": "18", "start": "2022-01-18T12:06:44.212415+0000", "bytes_toclient": "822", "bytes_toserver": "9822", "pkts_toclient": "7"}, "timestamp": "2022-01-18T12:06:44.573447+0000"}, "rule": {"firedtimes": 79, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-18T12:06:44.573447Z", "location": "/var/log/suricata/eve.json", "id": "1686440844.6784414"}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:06:44, a Suricata alert was triggered for invalid TLS handshake traffic from IP 192.168.128.4 to IP 100.25.225.205 over TCP. Allowed, triggered 79 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/blocks/more/dumpuser"}, "rule": {"firedtimes": 199818, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dumpuser HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:43:02.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026441.174739011"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:43:02, a web server 404 error was triggered for a GET request to /wp-includes/blocks/more/dumpuser from IP 10.237.1.238. Triggered 199,818 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "previous_output": "10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/e HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dyop_quan HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dyop_delete HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dyop_addtocart HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dynamic HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dyn HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dwr HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dvd HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dumpuser HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dumps HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/dumpenv HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/blocks/more/e107_admin"}, "rule": {"firedtimes": 15385, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:43:02 +0000] \"GET /wp-includes/blocks/more/e107_admin HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:43:02.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026441.174743876"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:43:02, multiple web server 404 errors were triggered from the same source IP for a GET request to /wp-includes/blocks/more/e107_admin from IP 10.237.1.238. Triggered 15,385 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.2.114", "name": "wazuh-client", "id": "32"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.38.243.125", "id": "404", "url": "/wp-includes/js/tinymce/skins/wordpress/element"}, "rule": {"firedtimes": 357087, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.38.243.125 - - [30/Jan/2022:07:54:49 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/element HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-30T07:54:49.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1689349127.276882005"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 07:54:49, a web server 404 error was triggered for a GET request to /wp-includes/js/tinymce/skins/wordpress/element from IP 10.38.243.125. Triggered 357,087 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/28/2022-13:00:17.278923"}, "agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "36"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.27.180.4", "dstip": "172.27.183.254:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 25, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/28/2022-13:00:17.278923  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.27.180.4:30906 -&gt; 172.27.183.254:53", "input": {"type": "log"}, "@timestamp": "2022-01-28T13:00:17.278923Z", "location": "/var/log/suricata/fast.log", "id": "1689194653.30200346"}</t>
+  </si>
+  <si>
+    <t>On Jan 28 at 13:00:17, an IDS event was triggered for a DNS query to the .biz TLD from IP 172.27.180.4 to IP 172.27.183.254:53 over UDP. Triggered 25 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.21.241.88", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.132.56.81", "id": "404", "url": "/server-status_"}, "rule": {"firedtimes": 12, "mail": false, "level": 6, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Suspicious URL access.", "groups": ["web", "appsec", "attack"], "mitre": {"technique": ["Process Injection"], "id": ["T1055"], "tactic": ["Defense Evasion", "Privilege Escalation"]}, "id": "31516", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.132.56.81 - - [23/Jan/2022:12:11:59 +0000] \"GET /server-status_ HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-23T12:11:59.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1688761363.9405044"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 12:11:59, a suspicious URL access was detected for /server-status_ from IP 10.132.56.81. Triggered 12 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "collinsbecker-mail", "program_name": "auth", "timestamp": "Jan 29 12:22:43"}, "agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "manager": {"name": "wazuh.manager"}, "data": {"srcuser": "michael.sutton", "uid": "0", "srcip": "10.70.34.215", "euid": "0", "dstuser": "michael.sutton", "tty": "dovecot"}, "rule": {"mail": false, "level": 5, "pci_dss": ["10.2.4", "10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "PAM: User login failed.", "groups": ["pam", "syslog", "authentication_failed"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_35.7.d", "IV_32.2"], "firedtimes": 2, "mitre": {"technique": ["Password Guessing"], "id": ["T1110.001"], "tactic": ["Credential Access"]}, "id": "5503", "gpg13": ["7.8"]}, "decoder": {"name": "pam"}, "full_log": "Jan 29 12:22:43 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton", "input": {"type": "log"}, "@timestamp": "2022-01-29T12:22:43.000000Z", "location": "/var/log/auth.log", "id": "1688153170.4478902"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 12:22:43, a PAM user login failure occurred for user "michael.sutton" from IP 10.70.34.215 on host "collinsbecker-mail" using Dovecot. Triggered 2 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.188.179", "name": "wazuh-client", "id": "21"}, "previous_output": "172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.php-bak HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.orig HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.org HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.maj HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.old HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.new HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.local HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.inc HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.dump HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.in HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"\n172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.html HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "HEAD", "srcip": "172.24.249.224", "id": "404", "url": "/wp-config.php.original"}, "rule": {"firedtimes": 36, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.24.249.224 - - [29/Jan/2022:14:38:59 +0000] \"HEAD /wp-config.php.original HTTP/1.1\" 404 146 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:38:59.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1688161348.6893365"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:38:59, multiple web server 404 errors were triggered from the same source IP 172.24.249.224 for HEAD requests to various /wp-config.php paths, including /wp-config.php.original. Triggered 36 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 30 09:46:21"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "31"}, "manager": {"name": "wazuh.manager"}, "data": {"srcuser": "&lt;mitchell.collins&gt;", "srcip": "10.38.242.195", "dstip": "10.38.242.195"}, "rule": {"firedtimes": 4, "mail": false, "level": 5, "pci_dss": ["10.2.4", "10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Invalid User Login Attempt.", "groups": ["dovecot", "invalid_login", "authentication_failed"], "id": "9705", "nist_800_53": ["AU.14", "AC.7"], "gpg13": ["7.1"], "gdpr": ["IV_35.7.d", "IV_32.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 09:46:21 mail dovecot: imap-login: Disconnected (auth failed, 1 attempts in 4 secs): user=&lt;mitchell.collins&gt;, method=PLAIN, rip=10.38.242.195, lip=10.38.242.195, TLS, session=&lt;mvcYisnWiugKJvLD&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T09:46:21.000000Z", "location": "/var/log/mail.info", "id": "1689355816.305504240"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 09:46:21, a Dovecot invalid user login attempt was made for user "mitchell.collins" from IP 10.38.242.195 on host "mail". Triggered 4 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.2.114", "name": "wazuh-client", "id": "32"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "POST", "srcip": "10.38.243.125", "id": "200", "url": "/wp-login.php"}, "rule": {"firedtimes": 5, "mail": false, "level": 3, "pci_dss": ["6.5", "11.4", "6.5.10", "10.2.4", "10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "CMS (WordPress or Joomla) login attempt.", "groups": ["web", "appsec", "attack"], "mitre": {"technique": ["Password Guessing"], "id": ["T1110.001"], "tactic": ["Credential Access"]}, "id": "31509", "nist_800_53": ["SA.11", "SI.4", "AU.14", "AC.7"], "gdpr": ["IV_35.7.d", "IV_32.2"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.38.243.125 - - [30/Jan/2022:07:56:37 +0000] \"POST /wp-login.php HTTP/1.1\" 200 2670 \"https://intranet.flores.wheeler.biz\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"", "input": {"type": "log"}, "@timestamp": "2022-01-30T07:56:37.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1689349231.300498489"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 07:56:37, a CMS login attempt was made via POST request to /wp-login.php from IP 10.38.243.125. Triggered 5 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.229.0.4", "name": "wazuh-client", "id": "30"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.112-.AIICsmD5oY3Z*RyNT6IFyP8wltFcve4lBq84pgJDzjdNLwiogChfeQ3i6dVG-.nSmngyVHBp*t4is9lnu2/26lOdgMYB7CduadGEuG4hJfY1th6gt54BD*swA0-.ro*aqOgLpYGVGJ/eEL00WmV3vguS8JZrEbSsUUXVC7*iEOWxzTUPNKPCOz0w-.Vaughn-mcdaniel.docx.kiirjekuimkpcrcioastvkeodpnimx.biz", "id": 58528, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "10.229.0.4", "src_port": "50542", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "60721058978981.000000", "dest_ip": "10.229.255.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-01-16T06:20:22.498853+0000", "bytes_toclient": "0", "bytes_toserver": "311", "pkts_toclient": "0"}, "timestamp": "2022-01-16T06:20:22.498853+0000"}, "rule": {"firedtimes": 91, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-16T06:20:22.498853Z", "location": "/var/log/suricata/eve.json", "id": "1687371009.32875567"}</t>
+  </si>
+  <si>
+    <t>On Jan 16 at 06:20:22, a Suricata alert was triggered for a DNS query to the .biz TLD from IP 10.229.0.4 to IP 10.229.255.254 over UDP. Triggered 91 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "taylorcruz-mail", "program_name": "dovecot", "timestamp": "Jan 15 08:43:20"}, "agent": {"ip": "192.168.128.170", "name": "wazuh-client", "id": "6"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 281, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 15 08:43:20 taylorcruz-mail dovecot: imap-login: Login: user=&lt;damian.jordan&gt;, method=PLAIN, rip=192.168.128.195, lip=192.168.128.195, mpid=6245, TLS, session=&lt;751a6ZrVuqbAqIDD&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-15T08:43:20.000000Z", "location": "/var/log/mail.log", "id": "1686169441.703796"}</t>
+  </si>
+  <si>
+    <t>On Jan 15 at 08:43:20, a Dovecot authentication success event was logged for user "damian.jordan" from IP 192.168.128.195 on host "taylorcruz-mail" using the PLAIN method with TLS, triggered 281 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "52.9.35.222", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1648174607264920.000000", "dest_ip": "192.168.128.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "com.com"}, "dest_port": "33744", "flow": {"pkts_toserver": "7", "start": "2022-01-15T09:03:58.421016+0000", "bytes_toclient": "464", "bytes_toserver": "1533", "pkts_toclient": "3"}, "timestamp": "2022-01-15T09:03:58.956531+0000"}, "rule": {"firedtimes": 54, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-15T09:03:58.956531Z", "location": "/var/log/suricata/eve.json", "id": "1686170679.915188"}</t>
+  </si>
+  <si>
+    <t>On Jan 15 at 09:03:58, a Suricata alert was triggered for a TLS invalid record/traffic event from source IP 52.9.35.222 to destination IP 192.168.128.4 over TCP, triggered 54 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.35.206", "name": "wazuh-client", "id": "27"}, "previous_output": "172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gif HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gid HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gg HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gfx HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gfen HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gettxt HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/getout HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/getjobid HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/getFile.cfm HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/get-file HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/getfile HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.17.130.196", "id": "404", "url": "/wp-includes/js/gifs"}, "rule": {"firedtimes": 6494, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.17.130.196 - - [18/Jan/2022:12:23:41 +0000] \"GET /wp-includes/js/gifs HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-18T12:23:41.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1686441862.60216672"}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:23:41, a Wazuh alert was triggered for multiple 404 errors during GET requests from IP 172.17.130.196 to a web server. Triggered 6,494 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.35.206", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.17.130.196", "id": "404", "url": "/wp-includes/js/jquery/ui/mailto"}, "rule": {"firedtimes": 270777, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.17.130.196 - - [18/Jan/2022:12:33:18 +0000] \"GET /wp-includes/js/jquery/ui/mailto HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-18T12:33:18.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1686442439.196399722"}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:33:18, a Wazuh alert was triggered for a 404 error during a GET request from IP 172.17.130.196 to a web server. Triggered 270,777 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/19/2022-03:43:51.165242"}, "agent": {"ip": "172.17.129.140", "name": "wazuh-client", "id": "23"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.17.129.140", "dstip": "91.189.95.85:80", "id": "1:2013504:6"}, "rule": {"firedtimes": 5, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/19/2022-03:43:51.165242  [**] [1:2013504:6] ET POLICY GNU/Linux APT User-Agent Outbound likely related to package management [**] [Classification: Not Suspicious Traffic] [Priority: 3] {TCP} 172.17.129.140:42542 -&gt; 91.189.95.85:80", "input": {"type": "log"}, "@timestamp": "2022-01-19T03:43:51.165242Z", "location": "/var/log/suricata/fast.log", "id": "1686497071.266555336"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 03:43:51, a Wazuh alert was triggered for an outbound connection from IP 172.17.129.140 to 91.189.95.85 over TCP, related to GNU/Linux APT User-Agent activity. Triggered 5 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/19/2022-06:31:06.005070"}, "agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.128.4", "dstip": "200.147.160.22:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 47, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/19/2022-06:31:06.005070  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 192.168.128.4:34684 -&gt; 200.147.160.22:443", "input": {"type": "log"}, "@timestamp": "2022-01-19T06:31:06.005070Z", "location": "/var/log/suricata/fast.log", "id": "1686507106.266979216"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 06:31:06, a Suricata alert was triggered for a TLS invalid handshake message from IP 192.168.128.4 to 200.147.160.22 over TCP. Triggered 47 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "morris-mail", "program_name": "dovecot", "timestamp": "Jan 21 07:22:18"}, "agent": {"ip": "192.168.231.164", "name": "wazuh-client", "id": "7"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 235, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 21 07:22:18 morris-mail dovecot: imap-login: Login: user=&lt;matthew.begum&gt;, method=PLAIN, rip=192.168.231.164, lip=192.168.231.164, mpid=4311, TLS, session=&lt;NsKcehLWltTAqOek&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-21T07:22:18.000000Z", "location": "/var/log/mail.info", "id": "1685741770.997392"}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 07:22:18, a Dovecot authentication success was logged for user "matthew.begum" from IP 192.168.231.164 on host "morris-mail" using the PLAIN method with TLS. Triggered 235 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/24/2022-03:57:01.535078"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.19.130.4", "dstip": "192.168.230.122:49974", "id": "1:2230010:1"}, "rule": {"firedtimes": 14, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/24/2022-03:57:01.535078  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 172.19.130.4:587 -&gt; 192.168.230.122:49974", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:01.535078Z", "location": "/var/log/suricata/fast.log", "id": "1685988653.6751705"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:01, a Suricata alert was triggered for a TLS invalid record/traffic event from IP 172.19.130.4 to 192.168.230.122 over TCP. Triggered 14 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "previous_output": "172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /antibot_image HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /answers HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /answer HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /ansi HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /anonymous HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /anon_ftp HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /anon HTTP/1.1\" 404 3383 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /annual HTTP/1.1\" 404 382 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /annuaire HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /announcements HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /announcement HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/antispam"}, "rule": {"firedtimes": 32, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /antispam HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:27.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988679.7131611"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:27, a Wazuh alert was triggered for multiple 404 errors during GET requests from IP 172.19.131.174 to a web server. Triggered 32 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/pam"}, "rule": {"firedtimes": 2600, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:34 +0000] \"GET /pam HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:34.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988686.8608667"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:34, a Wazuh alert was triggered for a 404 error during a GET request from IP 172.19.131.174 to a web server. Triggered 2,600 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "intranet-server", "program_name": "su", "timestamp": "Jan 24 04:37:40"}, "agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"uid": "33", "dstuser": "jhall"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "PAM: Login session opened.", "groups": ["pam", "syslog", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 1, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "5501", "gpg13": ["7.8", "7.9"]}, "decoder": {"parent": "pam", "name": "pam"}, "full_log": "Jan 24 04:37:40 intranet-server su[27950]: pam_unix(su:session): session opened for user jhall by (uid=33)", "input": {"type": "log"}, "@timestamp": "2022-01-24T04:37:40.000000Z", "location": "/var/log/auth.log", "id": "1685991091.12214371"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 04:37:40, a login session was successfully opened for user "jhall" on the "intranet-server" using PAM. Triggered 1 time.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "intranet-server", "program_name": "sudo", "timestamp": "Jan 24 04:38:06"}, "agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"dstuser": "root"}, "rule": {"firedtimes": 1, "mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "PAM: Login session closed.", "groups": ["pam", "syslog"], "id": "5502", "nist_800_53": ["AU.14", "AC.7"], "gpg13": ["7.8", "7.9"], "gdpr": ["IV_32.2"]}, "decoder": {"parent": "pam", "name": "pam"}, "full_log": "Jan 24 04:38:06 intranet-server sudo: pam_unix(sudo:session): session closed for user root", "input": {"type": "log"}, "@timestamp": "2022-01-24T04:38:06.000000Z", "location": "/var/log/auth.log", "id": "1685991117.12217047"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 04:38:06, a login session was closed for user "root" on the "intranet-server" using PAM. Triggered 1 time.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "HORDE", "timestamp": "Jan 24 08:30:25"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 1, "mail": false, "level": 5, "pci_dss": ["10.2.4", "10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "syslog: User authentication failure.", "groups": ["syslog", "access_control", "authentication_failed"], "id": "2501", "nist_800_53": ["AU.14", "AC.7"], "gpg13": ["7.8"], "gdpr": ["IV_35.7.d", "IV_32.2"]}, "decoder": {}, "full_log": "Jan 24 08:30:25 mail HORDE: [horde] FAILED LOGIN for alyssa.hayes to horde (172.19.130.68) [pid 5003 on line 198 of \"/usr/share/horde/login.php\"]", "input": {"type": "log"}, "@timestamp": "2022-01-24T08:30:25.000000Z", "location": "/var/log/syslog", "id": "1686005056.12845623"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 08:30:25, a syslog alert was triggered for a failed login attempt by user "alyssa.hayes" to HORDE on the "mail" server from IP 172.19.130.68. Triggered 1 time.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.0.103", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"tx_id": "0", "app_proto": "http", "in_iface": "ens3", "src_ip": "10.143.0.103", "src_port": "38402", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2013504", "rev": "6", "metadata": {"updated_at": ["2020_04_22"], "former_category": ["POLICY"], "created_at": ["2011_08_31"]}, "gid": "1", "signature": "ET POLICY GNU/Linux APT User-Agent Outbound likely related to package management", "action": "allowed", "category": "Not Suspicious Traffic"}, "flow_id": "1508065883212751.000000", "dest_ip": "91.189.88.142", "proto": "TCP", "http": {"hostname": "archive.ubuntu.com", "protocol": "HTTP/1.1", "http_method": "GET", "length": "0", "url": "/ubuntu/dists/bionic/InRelease", "http_user_agent": "Debian APT-HTTP/1.3 (1.6.12ubuntu0.2)", "status": "304"}, "dest_port": "80", "flow": {"pkts_toserver": "4", "start": "2022-01-24T09:37:08.936911+0000", "bytes_toclient": "417", "bytes_toserver": "488", "pkts_toclient": "3"}, "timestamp": "2022-01-24T09:37:08.990303+0000"}, "rule": {"firedtimes": 391, "mail": false, "level": 3, "description": "Suricata: Alert - ET POLICY GNU/Linux APT User-Agent Outbound likely related to package management", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-24T09:37:08.990303Z", "location": "/var/log/suricata/eve.json", "id": "1686009061.14116425"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 09:37:08, a Suricata alert was triggered for an outbound HTTP connection from IP 10.143.0.103 to 91.189.88.142 related to GNU/Linux APT User-Agent activity. Triggered 391 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/24/2022-09:37:08.990303"}, "agent": {"ip": "10.143.0.103", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.143.0.103", "dstip": "91.189.88.142:80", "id": "1:2013504:6"}, "rule": {"firedtimes": 355, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/24/2022-09:37:08.990303  [**] [1:2013504:6] ET POLICY GNU/Linux APT User-Agent Outbound likely related to package management [**] [Classification: Not Suspicious Traffic] [Priority: 3] {TCP} 10.143.0.103:38402 -&gt; 91.189.88.142:80", "input": {"type": "log"}, "@timestamp": "2022-01-24T09:37:08.990303Z", "location": "/var/log/suricata/fast.log", "id": "1686009061.14125169"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 09:37:08, an IDS event was triggered for an outbound TCP connection from IP 10.143.0.103 to 91.189.88.142:80, related to GNU/Linux APT User-Agent activity. Triggered 355 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.19.128.1", "name": "wazuh-client", "id": "22"}, "data": {"srcip": "18.209.200.15", "dstip": "192.168.230.4:47124", "id": "1:2230010:1"}, "rule": {"firedtimes": 172, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/21/2022-10:09:39.083548  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 18.209.200.15:443 -&gt; 192.168.230.4:47124", "id": "1685751811.492818", "predecoder": {"timestamp": "01/21/2022-10:09:39.083548"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-21T10:09:39.083548Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"city_name": "Ashburn", "country_name": "United States", "region_name": "Virginia", "location": {"lon": -77.4728, "lat": 39.0481}}}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 10:09:39, a Suricata alert was triggered for a TLS invalid record/traffic event from IP 18.209.200.15 (Ashburn, Virginia, United States) to 192.168.230.4 over TCP. Triggered 172 times. Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "POST", "srcip": "172.19.131.174", "id": "404", "url": "/sdk"}, "rule": {"firedtimes": 6, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:01 +0000] \"POST /sdk HTTP/1.1\" 404 3287 \"-\" \"Mozilla/5.0 (compatible; Nmap Scripting Engine; https://nmap.org/book/nse.html)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:01.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988653.6735662"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:01, a web server alert was triggered for a 404 error during a POST request from IP 172.19.131.174 to "/sdk," indicating potential attack or reconnaissance activity. Triggered 6 times.Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "POST", "srcip": "172.19.131.174", "id": "404", "url": "/sdk"}, "rule": {"firedtimes": 3, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:01 +0000] \"POST /sdk HTTP/1.1\" 404 360 \"-\" \"Mozilla/5.0 (compatible; Nmap Scripting Engine; https://nmap.org/book/nse.html)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:01.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988653.6733986"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:01, a web server alert was triggered for a 404 error during a POST request from IP 172.19.131.174 to "/sdk," indicating potential attack or reconnaissance activity. Triggered 3 times. Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/admin-console"}, "rule": {"firedtimes": 320, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /admin-console HTTP/1.1\" 404 3383 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:27.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988679.7060527"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:27, a web server alert was triggered for a 404 error during a GET request from IP 172.19.131.174 to "/admin-console," indicating potential attack or reconnaissance activity. Triggered 320 times. Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "previous_output": "172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boxes HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /box HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boutique HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bot-trap HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bottom HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bots HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bot HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boot HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boost_stats HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bookstore HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /books HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/br"}, "rule": {"firedtimes": 51, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /br HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:28.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988680.7298785"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:28, a web server alert was triggered for multiple 404 errors during GET requests from IP 172.19.131.174, indicating potential web scanning or reconnaissance activity. Triggered 51 times. Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 24 15:28:52"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 302, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 24 15:28:52 mail dovecot: imap-login: Login: user=&lt;toby.white&gt;, method=PLAIN, rip=172.19.130.4, lip=172.19.130.4, mpid=9731, TLS, session=&lt;+386oFXWFOKsE4IE&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-24T15:28:52.000000Z", "location": "/var/log/syslog", "id": "1686030164.3532436"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 15:28:52, a Dovecot authentication success was logged for user "toby.white" from IP 172.19.130.4 using the PLAIN method with TLS. Triggered 302 times. Not marked as suspicious.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="55.13"/>
+    <col customWidth="1" min="1" max="1" width="79.13"/>
     <col customWidth="1" min="2" max="2" width="43.88"/>
   </cols>
   <sheetData>
@@ -383,136 +578,397 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Wazuh Logs.xlsx
+++ b/Wazuh Logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="397">
   <si>
     <t>{"predecoder": {"hostname": "lane-mail", "program_name": "dovecot", "timestamp": "Feb  3 05:07:23"}, "agent": {"ip": "192.168.226.198", "name": "wazuh-client", "id": "15"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 19, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  3 05:07:23 lane-mail dovecot: imap-login: Login: user=&lt;shelby.webster&gt;, method=PLAIN, rip=192.168.226.198, lip=192.168.226.198, mpid=6001, TLS, session=&lt;sRAUHBbXMN/AqOLG&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-03T05:07:23.000000Z", "location": "/var/log/mail.info", "id": "1689689731.24360"}</t>
   </si>
@@ -289,28 +289,924 @@
     <t>On Jan 24 at 03:57:01, a web server alert was triggered for a 404 error during a POST request from IP 172.19.131.174 to "/sdk," indicating potential attack or reconnaissance activity. Triggered 6 times.Potentially Suspicious</t>
   </si>
   <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 24 15:28:52"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 302, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 24 15:28:52 mail dovecot: imap-login: Login: user=&lt;toby.white&gt;, method=PLAIN, rip=172.19.130.4, lip=172.19.130.4, mpid=9731, TLS, session=&lt;+386oFXWFOKsE4IE&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-24T15:28:52.000000Z", "location": "/var/log/syslog", "id": "1686030164.3532436"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 15:28:52, a Dovecot authentication success was logged for user "toby.white" from IP 172.19.130.4 using the PLAIN method with TLS. Triggered 302 times. Not marked as suspicious.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/admin-console"}, "rule": {"firedtimes": 320, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /admin-console HTTP/1.1\" 404 3383 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:27.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988679.7060527"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 03:57:27, a web server alert was triggered for a 404 error during a GET request from IP 172.19.131.174 to "/admin-console," indicating potential attack or reconnaissance activity. Triggered 320 times. Potentially Suspicious</t>
+  </si>
+  <si>
+    <t>{"message":"The start type of the Background Intelligent Transfer Service service was changed from auto start to demand start.","@timestamp":"2024-11-06T03:11:26.363Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"676.0","winlog.process.thread.id":"10712.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"demand start","winlog.event_data.param4":"BITS","winlog.event_data.param1":"Background Intelligent Transfer Service","winlog.event_data.param2":"auto start","winlog.opcode":"Info","winlog.record_id":"2571","winlog.task":"None","winlog.event_id":"7040","winlog.provider_guid":"{555908d1-a6d7-4695-8e1e-26931d2012f4}","winlog.api":"wineventlog","winlog.provider_name":"Service Control Manager","winlog.user.identifier":"S-1-5-18","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"SYSTEM","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T03:11:38.188540223Z","event.code":"7040","event.provider":"Service Control Manager","event.created":"2024-11-06T03:11:28.007Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 03:11:26, the start type of the 'Background Intelligent Transfer Service' (BITS) on computer 'DESKTOP-51LB8AD' was changed from 'auto start' to 'demand start' by user 'SYSTEM'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"An attempt was made to query the existence of a blank password for an account.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-21-174717498-889260282-490665403-1001\n\tAccount Name:\t\tChronos\n\tAccount Domain:\t\tDESKTOP-51LB8AD\n\tLogon ID:\t\t0x51114\n\nAdditional Information:\n\tCaller Workstation:\tDESKTOP-51LB8AD\n\tTarget Account Name:\tAdministrator\n\tTarget Account Domain:\tDESKTOP-51LB8AD","@timestamp":"2024-11-06T02:13:55.496Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"684.0","winlog.process.thread.id":"9488.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"26378","winlog.task":"User Account Management","winlog.event_id":"4797","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:14:07.003370083Z","event.code":"4797","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-06T02:13:56.686Z","event.kind":"event","event.action":"query-existence-of-blank-password","winlog.logon.id":"0x51114","winlog.event_data.Workstation":"DESKTOP-51LB8AD","winlog.event_data.SubjectUserName":"Chronos","winlog.event_data.SubjectDomainName":"DESKTOP-51LB8AD","winlog.event_data.TargetUserName":"Administrator","winlog.event_data.SubjectLogonId":"0x51114","winlog.event_data.TargetDomainName":"DESKTOP-51LB8AD","winlog.event_data.SubjectUserSid":"S-1-5-21-174717498-889260282-490665403-1001","winlog.activity_id":"{ecaf4de9-2833-0001-eb4e-afec3328db01}","event.module":"security","event.type":"['user', 'info']","event.category":"['iam']","event.outcome":"success","related.user":"['Chronos', 'Administrator']","user.domain":"DESKTOP-51LB8AD","user.name":"Chronos","user.id":"S-1-5-21-174717498-889260282-490665403-1001","user.target.domain":"DESKTOP-51LB8AD","user.target.name":"Administrator","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}
+</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:13:55, user 'Chronos' on computer 'DESKTOP-51LB8AD' attempted to query the existence of a blank password for account 'Administrator'.</t>
+  </si>
+  <si>
+    <t>{"message":"An account was successfully logged on.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\tDESKTOP-51LB8AD$\n\tAccount Domain:\t\tEDEN\n\tLogon ID:\t\t0x3E7\n\nLogon Information:\n\tLogon Type:\t\t5\n\tRestricted Admin Mode:\t-\n\tVirtual Account:\t\tNo\n\tElevated Token:\t\tYes\n\nImpersonation Level:\t\tImpersonation\n\nNew Logon:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\tSYSTEM\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E7\n\tLinked Logon ID:\t\t0x0\n\tNetwork Account Name:\t-\n\tNetwork Account Domain:\t-\n\tLogon GUID:\t\t{00000000-0000-0000-0000-000000000000}\n\nProcess Information:\n\tProcess ID:\t\t0x2a4\n\tProcess Name:\t\tC:\\Windows\\System32\\services.exe\n\nNetwork Information:\n\tWorkstation Name:\t-\n\tSource Network Address:\t-\n\tSource Port:\t\t-\n\nDetailed Authentication Information:\n\tLogon Process:\t\tAdvapi  \n\tAuthentication Package:\tNegotiate\n\tTransited Services:\t-\n\tPackage Name (NTLM only):\t-\n\tKey Length:\t\t0\n\nThis event is generated when a logon session is created. It is generated on the computer that was accessed.\n\nThe subject fields indicate the account on the local system which requested the logon. This is most commonly a service such as the Server service, or a local process such as Winlogon.exe or Services.exe.\n\nThe logon type field indicates the kind of logon that occurred. The most common types are 2 (interactive) and 3 (network).\n\nThe New Logon fields indicate the account for whom the new logon was created, i.e. the account that was logged on.\n\nThe network fields indicate where a remote logon request originated. Workstation name is not always available and may be left blank in some cases.\n\nThe impersonation level field indicates the extent to which a process in the logon session can impersonate.\n\nThe authentication information fields provide detailed information about this specific logon request.\n\t- Logon GUID is a unique identifier that can be used to correlate this event with a KDC event.\n\t- Transited services indicate which intermediate services have participated in this logon request.\n\t- Package name indicates which sub-protocol was used among the NTLM protocols.\n\t- Key length indicates the length of the generated session key. This will be 0 if no session key was requested.","@timestamp":"2024-11-06T02:25:51.126Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"684.0","winlog.process.thread.id":"8068.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"26421","winlog.task":"Logon","winlog.event_id":"4624","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:26:02.266593590Z","event.code":"4624","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-06T02:25:52.995Z","event.kind":"event","event.action":"logged-in","winlog.logon.id":"0x3e7","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"DESKTOP-51LB8AD$","winlog.event_data.SubjectDomainName":"EDEN","winlog.event_data.TargetUserName":"SYSTEM","winlog.event_data.SubjectLogonId":"0x3e7","winlog.event_data.TargetDomainName":"NT AUTHORITY","winlog.event_data.SubjectUserSid":"S-1-5-18","winlog.activity_id":"{ecaf4de9-2833-0001-eb4e-afec3328db01}","event.module":"security","event.type":"['start']","event.category":"['authentication']","event.outcome":"success","related.user":"['SYSTEM', 'DESKTOP-51LB8AD$']","user.domain":"NT AUTHORITY","user.name":"SYSTEM","user.id":"S-1-5-18","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"Service","winlog.event_data.LogonGuid":"{00000000-0000-0000-0000-000000000000}","winlog.event_data.TargetOutboundDomainName":"-","winlog.event_data.VirtualAccount":"%%1843","winlog.event_data.IpPort":"-","winlog.event_data.TransmittedServices":"-","winlog.event_data.LmPackageName":"-","winlog.event_data.RestrictedAdminMode":"-","winlog.event_data.ElevatedToken":"%%1842","winlog.event_data.LogonProcessName":"Advapi  ","winlog.event_data.LogonType":"5","winlog.event_data.TargetOutboundUserName":"-","winlog.event_data.KeyLength":"0","winlog.event_data.TargetLogonId":"0x3e7","winlog.event_data.TargetLinkedLogonId":"0x0","winlog.event_data.IpAddress":"-","winlog.event_data.ImpersonationLevel":"%%1833","winlog.event_data.AuthenticationPackageName":"Negotiate","winlog.event_data.TargetUserSid":"S-1-5-18","winlog.version":"2.0","process.name":"services.exe","process.pid":"676.0","process.executable":"C:\\Windows\\System32\\services.exe","source.domain":"-","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:25:51, account 'SYSTEM' on computer 'DESKTOP-51LB8AD' was successfully logged on via the process 'services.exe'.</t>
+  </si>
+  <si>
+    <t>{"message":"Special privileges assigned to new logon.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\tSYSTEM\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E7\n\nPrivileges:\t\tSeAssignPrimaryTokenPrivilege\n\t\t\tSeTcbPrivilege\n\t\t\tSeSecurityPrivilege\n\t\t\tSeTakeOwnershipPrivilege\n\t\t\tSeLoadDriverPrivilege\n\t\t\tSeBackupPrivilege\n\t\t\tSeRestorePrivilege\n\t\t\tSeDebugPrivilege\n\t\t\tSeAuditPrivilege\n\t\t\tSeSystemEnvironmentPrivilege\n\t\t\tSeImpersonatePrivilege\n\t\t\tSeDelegateSessionUserImpersonatePrivilege","@timestamp":"2024-11-06T02:25:52.847Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"684.0","winlog.process.thread.id":"744.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"26424","winlog.task":"Special Logon","winlog.event_id":"4672","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:26:02.268688082Z","event.code":"4672","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-06T02:25:54.091Z","event.kind":"event","event.action":"logged-in-special","winlog.logon.id":"0x3e7","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"SYSTEM","winlog.event_data.SubjectDomainName":"NT AUTHORITY","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e7","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-18","winlog.activity_id":"{ecaf4de9-2833-0001-eb4e-afec3328db01}","event.module":"security","event.type":"['admin']","event.category":"['iam']","event.outcome":"success","related.user":"['SYSTEM']","user.domain":"NT AUTHORITY","user.name":"SYSTEM","user.id":"S-1-5-18","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"SeAssignPrimaryTokenPrivilege, SeTcbPrivilege, SeSecurityPrivilege, SeTakeOwnershipPrivilege, SeLoadDriverPrivilege, SeBackupPrivilege, SeRestorePrivilege, SeDebugPrivilege, SeAuditPrivilege, SeSystemEnvironmentPrivilege, SeImpersonatePrivilege, SeDelegateSessionUserImpersonatePrivilege","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:25:52, special privileges were assigned to user 'SYSTEM' on computer 'DESKTOP-51LB8AD'. Privileges assigned: SeAssignPrimaryTokenPrivilege, SeTcbPrivilege, SeSecurityPrivilege, SeTakeOwnershipPrivilege, SeLoadDriverPrivilege, SeBackupPrivilege, SeRestorePrivilege, SeDebugPrivilege, SeAuditPrivilege, SeSystemEnvironmentPrivilege, SeImpersonatePrivilege, SeDelegateSessionUserImpersonatePrivilege.</t>
+  </si>
+  <si>
+    <t>{"message":"The system time was changed.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-19\n\tAccount Name:\t\tLOCAL SERVICE\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E5\n\nProcess Information:\n\tProcess ID:\t0x210\n\tName:\t\tC:\\Windows\\System32\\svchost.exe\n\nPrevious Time:\t\t\u200e2024\u200e-\u200e11\u200e-\u200e06T02:52:00.859275000Z\nNew Time:\t\t\u200e2024\u200e-\u200e11\u200e-\u200e06T02:52:00.859407900Z\n\nThis event is generated when the system time is changed. It is normal for the Windows Time Service, which runs with System privilege, to change the system time on a regular basis. Other system time changes may be indicative of attempts to tamper with the computer.","@timestamp":"2024-11-06T02:52:00.859Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"4340.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"26451","winlog.task":"Security State Change","winlog.event_id":"4616","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:52:52.914258860Z","event.code":"4616","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-06T02:52:41.441Z","event.kind":"event","event.action":"system-time-changed","winlog.logon.id":"0x3e5","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"LOCAL SERVICE","winlog.event_data.SubjectDomainName":"NT AUTHORITY","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e5","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-19","winlog.activity_id":"N\/A","event.module":"security","event.type":"['change']","event.category":"['configuration']","event.outcome":"success","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"C:\\Windows\\System32\\svchost.exe","winlog.event_data.PreviousTime":"2024-11-06T02:52:00.8592750Z","winlog.event_data.NewTime":"2024-11-06T02:52:00.8594079Z","winlog.event_data.ProcessId":"0x210","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:52:00, the system time on computer 'DESKTOP-51LB8AD' was changed by 'LOCAL SERVICE' using 'svchost.exe'.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/29/2022-14:44:53.969004"}, "agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.70.32.4", "dstip": "54.65.74.97:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 104, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/29/2022-14:44:53.969004  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.70.32.4:37814 -&gt; 54.65.74.97:443", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:44:53.969004Z", "location": "/var/log/suricata/fast.log", "id": "1688161703.10143549"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:44:53, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.70.32.4 to 54.65.74.97 over TCP. The alert was categorized as "Generic Protocol Command Decode" and triggered 104 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "davey-mail", "program_name": "dovecot", "timestamp": "Jan 21 05:20:18"}, "agent": {"ip": "192.168.231.56", "name": "wazuh-client", "id": "8"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 8, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 21 05:20:18 davey-mail dovecot: imap-login: Login: user=&lt;andrea.moss&gt;, method=PLAIN, rip=192.168.231.56, lip=192.168.231.56, mpid=6305, TLS, session=&lt;47lPxhDWmubAqOc4&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-21T05:20:18.000000Z", "location": "/var/log/mail.info", "id": "1685734450.62002"}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 05:20:18, a Dovecot Authentication Success was recorded on the server davey-mail for the user andrea.moss. The login method was PLAIN, and the connection was established using TLS. The source IP was 192.168.231.56, and this event has been triggered 8 times.</t>
+  </si>
+  <si>
+    <t>{"message":"The system has resumed from sleep.","@timestamp":"2024-11-06T02:52:01.971Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"9044.0","winlog.keywords":"['po:DiagnosticLight', 'po:PerfTrackContext', 'po:Diagnostic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"2560","winlog.task":"PostSleepNotification","winlog.event_id":"107","winlog.provider_guid":"{331c3b3a-2005-44c2-ac5e-77220c37d6b4}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Kernel-Power","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:52:52.915345303Z","event.code":"107","event.provider":"Microsoft-Windows-Kernel-Power","event.created":"2024-11-06T02:52:42.151Z","event.kind":"event","event.action":"PostSleepNotification","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"2","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"2","winlog.event_data.WakeRequesterTypeAc":"0","winlog.event_data.WakeRequesterTypeDc":"0","winlog.event_data.ProgrammedWakeTimeDc":"1601-01-01T00:00:00.0000000Z","winlog.event_data.ProgrammedWakeTimeAc":"1601-01-01T00:00:00.0000000Z","winlog.event_data.WakeFromState":"2","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:52:01, computer 'DESKTOP-51LB8AD' resumed from sleep mode.</t>
+  </si>
+  <si>
+    <t>{"message":"Installation Started: Windows has started installing the following update: 9WZDNCRFHVQM-MICROSOFT.WINDOWSCOMMUNICATIONSAPPS","@timestamp":"2024-11-06T02:40:00.488Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"Artemis-Win10","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"ac40ad71-31a7-4537-b1ac-7dae2a441aea","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-51LB8AD.eden.local","winlog.process.pid":"9576.0","winlog.process.thread.id":"3884.0","winlog.keywords":"['Installation', 'Started']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Installation","winlog.record_id":"2547","winlog.task":"Windows Update Agent","winlog.event_id":"43","winlog.provider_guid":"{945a8954-c147-4acd-923f-40c45405a658}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-WindowsUpdateClient","winlog.user.identifier":"S-1-5-18","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"SYSTEM","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"desktop-51lb8ad","host.os.build":"19045.5011","host.os.kernel":"10.0.19041.5007 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-51lb8ad","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-11-06T02:40:10.215912628Z","event.code":"43","event.provider":"Microsoft-Windows-WindowsUpdateClient","event.created":"2024-11-06T02:40:02.087Z","event.kind":"event","event.action":"Windows Update Agent","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"1","winlog.event_data.updateGuid":"{3d0a47e6-9836-4883-8d5b-19254f81c39c}","winlog.event_data.updateTitle":"9WZDNCRFHVQM-MICROSOFT.WINDOWSCOMMUNICATIONSAPPS","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:40:00, Windows started installing the update '9WZDNCRFHVQM-MICROSOFT.WINDOWSCOMMUNICATIONSAPPS' on computer 'DESKTOP-51LB8AD'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Auditing settings on object were changed.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\tDESKTOP-40LB8AC$\n\tAccount Domain:\t\tWORKGROUP\n\tLogon ID:\t\t0x3E7\n\nObject:\n\tObject Server:\tSecurity\n\tObject Type:\tFile\n\tObject Name:\tC:\\$WinREAgent\\Scratch\\Mount\\Windows\\WinSxS\\amd64_microsoft-windows-w..mof-admin.resources_31bf3856ad364e35_10.0.19041.1_en-us_d9389be11d868c46\\ScrCons.mfl\n\tHandle ID:\t0x8b4\n\nProcess Information:\n\tProcess ID:\t0x1f84\n\tProcess Name:\tC:\\Windows\\System32\\wuauclt.exe\n\nAuditing Settings:\n\tOriginal Security Descriptor:\t\n\tNew Security Descriptor:\t\tS:ARAI(AU;SAFA;DCLCRPCRSDWDWO;;;WD)","@timestamp":"2024-10-07T12:46:19.512Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"9aedba64-174c-401a-b736-593e6bfe3256","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC","winlog.process.pid":"4.0","winlog.process.thread.id":"5912.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"10033","winlog.task":"Audit Policy Change","winlog.event_id":"4907","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-40lb8ac","host.os.build":"19044.1288","host.os.kernel":"10.0.19041.1288 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::1d8d:dc10:ff8d:e26e', '192.168.1.140']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-10-07T12:47:14.678889482Z","event.code":"4907","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-10-07T12:47:05.531Z","event.kind":"event","event.action":"audit-setting-changed","winlog.logon.id":"0x3e7","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"DESKTOP-40LB8AC$","winlog.event_data.SubjectDomainName":"WORKGROUP","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e7","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-18","winlog.activity_id":"N\/A","event.module":"security","event.type":"['admin', 'change']","event.category":"['iam', 'configuration']","event.outcome":"success","related.user":"['DESKTOP-40LB8AC$']","user.domain":"WORKGROUP","user.name":"DESKTOP-40LB8AC$","user.id":"S-1-5-18","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"wuauclt.exe","process.pid":"8068.0","process.executable":"C:\\Windows\\System32\\wuauclt.exe","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"File","winlog.event_data.ObjectServer":"Security","winlog.event_data.HandleId":"0x8b4","winlog.event_data.NewSd":"S:ARAI(AU;SAFA;DCLCRPCRSDWDWO;;;WD)","winlog.event_data.NewSdSacl0":"Everyone :System Audit ([Delete All Child Objects, List Contents, Read All Properties, All Extended Rights, Delete, Modify Permissions, Modify Owner])","winlog.event_data.ObjectName":"C:\\$WinREAgent\\Scratch\\Mount\\Windows\\WinSxS\\amd64_microsoft-windows-w..mof-admin.resources_31bf3856ad364e35_10.0.19041.1_en-us_d9389be11d868c46\\ScrCons.mfl","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}
+</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 12:46:19, auditing settings on file 'ScrCons.mfl' were changed by account 'DESKTOP-40LB8AC$' using process 'wuauclt.exe' on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Restoring network configuration.","@timestamp":"2024-10-07T19:53:56.903Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"b2884dde-6441-4602-a50c-5a7f6c7e991d","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC.eden.local","winlog.process.pid":"N\/A","winlog.process.thread.id":"N\/A","winlog.keywords":"['Classic']","winlog.channel":"Application","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"1589","winlog.task":"None","winlog.event_id":"258","winlog.provider_guid":"N\/A","winlog.api":"wineventlog","winlog.provider_name":"VMUpgradeHelper","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"desktop-40lb8ac","host.os.build":"19045.4894","host.os.kernel":"10.0.19041.4894 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-10-07T19:56:10.890519665Z","event.code":"258","event.provider":"VMUpgradeHelper","event.created":"2024-10-07T19:56:00.966Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}
+</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:53:56, computer 'DESKTOP-40LB8AC' restored network configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Cryptographic operation.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-19\n\tAccount Name:\t\tLOCAL SERVICE\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E5\n\nCryptographic Parameters:\n\tProvider Name:\tMicrosoft Software Key Storage Provider\n\tAlgorithm Name:\tECDSA_P256\n\tKey Name:\tMicrosoft Connected Devices Platform device certificate\n\tKey Type:\tUser key.\n\nCryptographic Operation:\n\tOperation:\tOpen Key.\n\tReturn Code:\t0x0","@timestamp":"2024-10-07T19:55:55.003Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"b2884dde-6441-4602-a50c-5a7f6c7e991d","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC.eden.local","winlog.process.pid":"680.0","winlog.process.thread.id":"744.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"20749","winlog.task":"System Integrity","winlog.event_id":"5061","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-40lb8ac","host.os.build":"19045.4894","host.os.kernel":"10.0.19041.4894 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-10-07T19:56:10.899421249Z","event.code":"5061","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-10-07T19:56:00.968Z","event.kind":"event","event.action":"System Integrity","winlog.logon.id":"0x3e5","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"LOCAL SERVICE","winlog.event_data.SubjectDomainName":"NT AUTHORITY","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e5","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-19","winlog.activity_id":"N\/A","event.module":"security","event.type":"N\/A","event.category":"N\/A","event.outcome":"success","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"0x0","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"%%2500","winlog.event_data.Operation":"%%2480","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"ECDSA_P256","winlog.event_data.KeyName":"Microsoft Connected Devices Platform device certificate","winlog.event_data.ProviderName":"Microsoft Software Key Storage Provider","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}
+</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:55:55, account 'LOCAL SERVICE' performed a cryptographic operation (opened key 'Microsoft Connected Devices Platform device certificate') using algorithm 'ECDSA_P256' on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"Key migration operation.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-19\n\tAccount Name:\t\tLOCAL SERVICE\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E5\n\nProcess Information:\n\tProcess ID:\t\t3648\n\tProcess Creation Time:\t\u200e2024\u200e-\u200e10\u200e-\u200e07T19:55:54.719959200Z\n\nCryptographic Parameters:\n\tProvider Name:\tMicrosoft Software Key Storage Provider\n\tAlgorithm Name:\tECDSA_P256\n\tKey Name:\tMicrosoft Connected Devices Platform device certificate\n\tKey Type:\tUser key.\n\nAdditional Information:\n\tOperation:\tExport of persistent cryptographic key.\n\tReturn Code:\t0x0","@timestamp":"2024-10-07T19:55:55.003Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"b2884dde-6441-4602-a50c-5a7f6c7e991d","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC.eden.local","winlog.process.pid":"680.0","winlog.process.thread.id":"744.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"20750","winlog.task":"Other System Events","winlog.event_id":"5059","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-40lb8ac","host.os.build":"19045.4894","host.os.kernel":"10.0.19041.4894 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-10-07T19:56:10.899888920Z","event.code":"5059","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-10-07T19:56:01.026Z","event.kind":"event","event.action":"Other System Events","winlog.logon.id":"0x3e5","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"LOCAL SERVICE","winlog.event_data.SubjectDomainName":"NT AUTHORITY","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e5","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-19","winlog.activity_id":"N\/A","event.module":"security","event.type":"N\/A","event.category":"N\/A","event.outcome":"success","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"3648","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"0x0","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"%%2500","winlog.event_data.Operation":"%%2464","winlog.event_data.ClientCreationTime":"2024-10-07T19:55:54.7199592Z","winlog.event_data.AlgorithmName":"ECDSA_P256","winlog.event_data.KeyName":"Microsoft Connected Devices Platform device certificate","winlog.event_data.ProviderName":"Microsoft Software Key Storage Provider","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:55:55, account 'LOCAL SERVICE' performed a key migration operation (exported persistent cryptographic key 'Microsoft Connected Devices Platform device certificate') using algorithm 'ECDSA_P256' on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"The Windows Security Center Service has started.","@timestamp":"2024-10-07T19:55:58.410Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"3b00c118-26f1-458e-8c66-7f0618d33a0f","agent.type":"winlogbeat","agent.ephemeral_id":"b2884dde-6441-4602-a50c-5a7f6c7e991d","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC.eden.local","winlog.process.pid":"N\/A","winlog.process.thread.id":"N\/A","winlog.keywords":"['Classic']","winlog.channel":"Application","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"1601","winlog.task":"None","winlog.event_id":"1","winlog.provider_guid":"N\/A","winlog.api":"wineventlog","winlog.provider_name":"SecurityCenter","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"desktop-40lb8ac","host.os.build":"19045.4894","host.os.kernel":"10.0.19041.4894 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::7853:6803:66e4:358c', '192.168.1.140']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-F7-31']","host.architecture":"x86_64","event.ingested":"2024-10-07T19:56:10.904990448Z","event.code":"1","event.provider":"SecurityCenter","event.created":"2024-10-07T19:56:01.030Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:55:58, the Windows Security Center Service has started on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"Boot Configuration Data loaded.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\t-\n\tAccount Domain:\t\t-\n\tLogon ID:\t\t0x3E7\n\nGeneral Settings:\n\tLoad Options:\t\t-\n\tAdvanced Options:\t\tNo\n\tConfiguration Access Policy:\tDefault\n\tSystem Event Logging:\tNo\n\tKernel Debugging:\tNo\n\tVSM Launch Type:\tOff\n\nSignature Settings:\n\tTest Signing:\t\tNo\n\tFlight Signing:\t\tNo\n\tDisable Integrity Checks:\tNo\n\nHyperVisor Settings:\n\tHyperVisor Load Options:\t-\n\tHyperVisor Launch Type:\tOff\n\tHyperVisor Debugging:\tNo","@timestamp":"2024-10-07T19:53:45.161Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"DESKTOP-40LB8AC","agent.id":"ddc97d65-5615-447e-814e-195b4b79c2f7","agent.type":"winlogbeat","agent.ephemeral_id":"2f9a59a6-4f0f-45f5-a6c8-d1458a150f63","agent.version":"8.15.2","winlog.computer_name":"DESKTOP-40LB8AC.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"32.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"19589","winlog.task":"Other Policy Change Events","winlog.event_id":"4826","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"desktop-40lb8ac","host.os.build":"19045.4894","host.os.kernel":"10.0.19041.4894 (WinBuild.160101.0800)","host.os.name":"Windows 10 Pro","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::d201:e8c7:ff45:6ee2', '192.168.1.127']","host.name":"desktop-40lb8ac","host.id":"7bc7fcd6-119a-4cd3-855d-4b3ebda64d54","host.mac":"['00-50-56-97-EA-B8']","host.architecture":"x86_64","event.ingested":"2024-10-07T19:56:06.584971429Z","event.code":"4826","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-10-07T19:55:56.555Z","event.kind":"event","event.action":"Other Policy Change Events","winlog.logon.id":"0x3e7","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"-","winlog.event_data.SubjectDomainName":"-","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e7","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-18","winlog.activity_id":"N\/A","event.module":"security","event.type":"N\/A","event.category":"N\/A","event.outcome":"success","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"-","winlog.event_data.TestSigning":"%%1843","winlog.event_data.RemoteEventLogging":"%%1843","winlog.event_data.VsmLaunchType":"%%1848","winlog.event_data.HypervisorLoadOptions":"-","winlog.event_data.ConfigAccessPolicy":"%%1846","winlog.event_data.FlightSigning":"%%1843","winlog.event_data.AdvancedOptions":"%%1843","winlog.event_data.KernelDebug":"%%1843","winlog.event_data.HypervisorLaunchType":"%%1848","winlog.event_data.DisableIntegrityChecks":"%%1843","winlog.event_data.HypervisorDebug":"%%1843","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:55:58, the Boot Configuration Data was loaded on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"Product: Python Launcher -- Installation completed successfully.","@timestamp":"2024-11-22T00:26:27.893Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"N\/A","winlog.process.thread.id":"N\/A","winlog.keywords":"['Classic']","winlog.channel":"Application","winlog.event_data.param3":"(NULL)","winlog.event_data.param4":"(NULL)","winlog.event_data.param1":"Product: Python Launcher -- Installation completed successfully.","winlog.event_data.param2":"(NULL)","winlog.opcode":"Info","winlog.record_id":"3171","winlog.task":"None","winlog.event_id":"11707","winlog.provider_guid":"N\/A","winlog.api":"wineventlog","winlog.provider_name":"MsiInstaller","winlog.user.identifier":"S-1-5-21-2843347860-584263628-2898511189-500","winlog.user.domain":"EDEN","winlog.user.name":"Administrator","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-22T00:26:37.675946874Z","event.code":"11707","event.provider":"MsiInstaller","event.created":"2024-11-22T00:26:28.592Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"(NULL)","winlog.event_data.param6":"(NULL)","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"7B36393141414141312D464538362D343937332D384441322D3641413242333332373536327D","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:56:05, the Security Audit Policy was changed on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"Product: Python 3.10.4 Add to Path (64-bit) -- Installation completed successfully.","@timestamp":"2024-11-22T00:26:36.444Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"N\/A","winlog.process.thread.id":"N\/A","winlog.keywords":"['Classic']","winlog.channel":"Application","winlog.event_data.param3":"(NULL)","winlog.event_data.param4":"(NULL)","winlog.event_data.param1":"Product: Python 3.10.4 Add to Path (64-bit) -- Installation completed successfully.","winlog.event_data.param2":"(NULL)","winlog.opcode":"Info","winlog.record_id":"3183","winlog.task":"None","winlog.event_id":"11707","winlog.provider_guid":"N\/A","winlog.api":"wineventlog","winlog.provider_name":"MsiInstaller","winlog.user.identifier":"S-1-5-21-2843347860-584263628-2898511189-500","winlog.user.domain":"EDEN","winlog.user.name":"Administrator","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-22T00:26:37.676832993Z","event.code":"11707","event.provider":"MsiInstaller","event.created":"2024-11-22T00:26:36.638Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"(NULL)","winlog.event_data.param6":"(NULL)","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"7B35314438384439432D343745312D343543372D393932432D3341463141443931424635467D","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:57:12, the Windows Security Center Service started on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"Creating Scriptblock text (12 of 21):\nefault')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallApplicationFilter') -and (@('ByAssociatedNetFirewallApplicationFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallApplicationFilter}, 'MSFT_NetFirewallRuleFilterByApplication', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallInterfaceFilter') -and (@('ByAssociatedNetFirewallInterfaceFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallInterfaceFilter}, 'MSFT_NetFirewallRuleFilterByInterface', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallInterfaceTypeFilter') -and (@('ByAssociatedNetFirewallInterfaceTypeFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallInterfaceTypeFilter}, 'MSFT_NetFirewallRuleFilterByInterfaceType', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallPortFilter') -and (@('ByAssociatedNetFirewallPortFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallPortFilter}, 'MSFT_NetFirewallRuleFilterByProtocolPort', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallSecurityFilter') -and (@('ByAssociatedNetFirewallSecurityFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallSecurityFilter}, 'MSFT_NetFirewallRuleFilterBySecurity', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallServiceFilter') -and (@('ByAssociatedNetFirewallServiceFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallServiceFilter}, 'MSFT_NetFirewallRuleFilterByService', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallProfile') -and (@('ByAssociatedNetFirewallProfile') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallProfile}, 'MSFT_NetFirewallRuleInProfile', 'GroupComponent', 'PartComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('All') -and (@('GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('All', ${All})\n    }\n    if ($PSBoundParameters.ContainsKey('PolicyStore') -and (@('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('PolicyStore', ${PolicyStore})\n    }\n    if ($PSBoundParameters.ContainsKey('TracePolicyStore') -and (@('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('TracePolicyStore', ${TracePolicyStore})\n    }\n\n\n    $__cmdletization_methodParameters = [System.Collections.Generic.List[Microsoft.PowerShell.Cmdletization.MethodParameter]]::new()\n    switch -exact ($PSCmdlet.ParameterSetName) { \n        { @('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll', 'InputObject (cdxml)') -contains $_ } {\n      $__cmdletization_returnValue = $null\n      $__cmdletization_methodInvocationInfo = [Microsoft.PowerShell.Cmdletization.MethodInvocationInfo]::new('cim:DeleteInstance', $__cmdletization_methodParameters, $__cmdletization_returnValue)\n      $__cmdletization_passThru = $PSBoundParameters.ContainsKey('PassThru') -and $PassThru\n            if ($PSBoundParameters.ContainsKey('InputObject')) {\n                foreach ($x in $InputObject) { $__cmdletization_objectModelWrapper.ProcessRecord($x, $__cmdletization_methodInvocationInfo, $__cmdletization_PassThru) }\n            } else {\n                $__cmdletization_objectModelWrapper.ProcessRecord($__cmdletization_queryBuilder, $__cmdletization_methodInvocationInfo, $__cmdletization_PassThru)\n            }\n        }\n    }\n\n            }\n        }\n        catch\n        {\n            $__cmdletization_exceptionHasBeenThrown = $true\n            throw\n        }\n    }\n        \n\n    End {\n        try\n        {\n            if (-not $__cmdletization_exceptionHasBeenThrown)\n            {\n                $__cmdletization_objectModelWrapper.EndProcessing()\n            }\n        }\n        catch\n        {\n            throw\n        }\n    }\n\n    # .EXTERNALHELP NetFirewallRule.cmdletDefinition.cdxml-Help.xml\n}\nMicrosoft.PowerShell.Core\\Export-ModuleMember -Function 'Remove-NetFirewallRule' -Alias '*'\n        \n\nfunction Rename-NetFirewallRule\n{\n    [CmdletBinding(DefaultParameterSetName='GetAll', SupportsShouldProcess=$true, ConfirmImpact='Medium', PositionalBinding=$false)]\n    \n    [OutputType([Microsoft.Management.Infrastructure.CimInstance])]\n[OutputType('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetFirewallRule')]\n\n    param(\n    \n    [Parameter(ParameterSetName='ByName', Mandatory=$true, Position=0)]\n    [Alias('ID')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Name},\n\n    [Parameter(ParameterSetName='ByDisplayName', Mandatory=$true)]\n    [ValidateNotNull()]\n    [string[]]\n    ${DisplayName},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Description},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${DisplayGroup},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Group},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Enabled[]]\n    ${Enabled},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Direction[]]\n    ${Direction},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Action[]]\n    ${Action},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.EdgeTraversal[]]\n    ${EdgeTraversalPolicy},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [Alias('LSM')]\n    [ValidateNotNull()]\n    [bool[]]\n    ${LooseSourceMapping},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [bool[]]\n    ${LocalOnlyMapping},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Owner},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.PrimaryStatus[]]\n    ${PrimaryStatus},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Status},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${PolicyStoreSource},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.PolicyStoreType[]]\n    ${PolicyStoreSourceType},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${PolicyAppId},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallAddressFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetAddressFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallAddressFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallApplicationFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetApplicationFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallApplicationFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetInterfaceFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallInterfaceFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceTypeFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetInterfaceTypeFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallInterfaceTypeFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallPortFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetProtocolPortFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallPortFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallSecurityFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetNetworkLayerSecurityFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallSecurityFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallServiceFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetServiceFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallServiceFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallProfile', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetFirewallProfile')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallProfile},\n\n    [Parameter(ParameterSetName='GetAll')]\n    [switch]\n    ${All},\n\n    [Parameter(ParameterSetName='ByName')]\n    [Parameter(ParameterSetName='ByDisplayName')]\n    [Parameter(ParameterSetName='ByQuery')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallAddressFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallApplicationFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceTypeFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallPortFilter')]\n \n\nScriptBlock ID: 5f00df12-6def-479d-9b4f-5e4e084167da\nPath: ","@timestamp":"2024-11-22T00:49:47.709Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"3472.0","winlog.process.thread.id":"1904.0","winlog.keywords":"N\/A","winlog.channel":"Microsoft-Windows-PowerShell\/Operational","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"On create calls","winlog.record_id":"4711","winlog.task":"Execute a Remote Command","winlog.event_id":"4104","winlog.provider_guid":"{a0c1853b-5c40-4b15-8766-3cf1c58f985a}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-PowerShell","winlog.user.identifier":"S-1-5-21-2843347860-584263628-2898511189-500","winlog.user.domain":"EDEN","winlog.user.name":"Administrator","winlog.user.type":"User","log.level":"warning","ecs.version":"1.12.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142', 'fe80::491a:4662:515f:ed3f', '169.254.209.153']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8', '02-00-4C-4F-4F-50']","host.architecture":"x86_64","event.ingested":"2024-11-22T00:49:59.090265241Z","event.code":"4104","event.provider":"Microsoft-Windows-PowerShell","event.created":"2024-11-22T00:49:48.909Z","event.kind":"event","event.action":"Execute a Remote Command","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"{025f7b64-3c6b-0000-defa-61026b3cdb01}","event.module":"powershell","event.type":"info","event.category":"process","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"S-1-5-21-2843347860-584263628-2898511189-500","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"12.0","powershell.total":"21.0","powershell.file.script_block_text":"efault')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallApplicationFilter') -and (@('ByAssociatedNetFirewallApplicationFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallApplicationFilter}, 'MSFT_NetFirewallRuleFilterByApplication', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallInterfaceFilter') -and (@('ByAssociatedNetFirewallInterfaceFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallInterfaceFilter}, 'MSFT_NetFirewallRuleFilterByInterface', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallInterfaceTypeFilter') -and (@('ByAssociatedNetFirewallInterfaceTypeFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallInterfaceTypeFilter}, 'MSFT_NetFirewallRuleFilterByInterfaceType', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallPortFilter') -and (@('ByAssociatedNetFirewallPortFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallPortFilter}, 'MSFT_NetFirewallRuleFilterByProtocolPort', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallSecurityFilter') -and (@('ByAssociatedNetFirewallSecurityFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallSecurityFilter}, 'MSFT_NetFirewallRuleFilterBySecurity', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallServiceFilter') -and (@('ByAssociatedNetFirewallServiceFilter') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallServiceFilter}, 'MSFT_NetFirewallRuleFilterByService', 'PartComponent', 'GroupComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('AssociatedNetFirewallProfile') -and (@('ByAssociatedNetFirewallProfile') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.FilterByAssociatedInstance(${AssociatedNetFirewallProfile}, 'MSFT_NetFirewallRuleInProfile', 'GroupComponent', 'PartComponent', 'Default')\n    }\n    if ($PSBoundParameters.ContainsKey('All') -and (@('GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('All', ${All})\n    }\n    if ($PSBoundParameters.ContainsKey('PolicyStore') -and (@('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('PolicyStore', ${PolicyStore})\n    }\n    if ($PSBoundParameters.ContainsKey('TracePolicyStore') -and (@('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll') -contains $PSCmdlet.ParameterSetName )) {\n    $__cmdletization_queryBuilder.AddQueryOption('TracePolicyStore', ${TracePolicyStore})\n    }\n\n\n    $__cmdletization_methodParameters = [System.Collections.Generic.List[Microsoft.PowerShell.Cmdletization.MethodParameter]]::new()\n    switch -exact ($PSCmdlet.ParameterSetName) { \n        { @('ByName', 'ByDisplayName', 'ByQuery', 'ByAssociatedNetFirewallAddressFilter', 'ByAssociatedNetFirewallApplicationFilter', 'ByAssociatedNetFirewallInterfaceFilter', 'ByAssociatedNetFirewallInterfaceTypeFilter', 'ByAssociatedNetFirewallPortFilter', 'ByAssociatedNetFirewallSecurityFilter', 'ByAssociatedNetFirewallServiceFilter', 'ByAssociatedNetFirewallProfile', 'GetAll', 'InputObject (cdxml)') -contains $_ } {\n      $__cmdletization_returnValue = $null\n      $__cmdletization_methodInvocationInfo = [Microsoft.PowerShell.Cmdletization.MethodInvocationInfo]::new('cim:DeleteInstance', $__cmdletization_methodParameters, $__cmdletization_returnValue)\n      $__cmdletization_passThru = $PSBoundParameters.ContainsKey('PassThru') -and $PassThru\n            if ($PSBoundParameters.ContainsKey('InputObject')) {\n                foreach ($x in $InputObject) { $__cmdletization_objectModelWrapper.ProcessRecord($x, $__cmdletization_methodInvocationInfo, $__cmdletization_PassThru) }\n            } else {\n                $__cmdletization_objectModelWrapper.ProcessRecord($__cmdletization_queryBuilder, $__cmdletization_methodInvocationInfo, $__cmdletization_PassThru)\n            }\n        }\n    }\n\n            }\n        }\n        catch\n        {\n            $__cmdletization_exceptionHasBeenThrown = $true\n            throw\n        }\n    }\n        \n\n    End {\n        try\n        {\n            if (-not $__cmdletization_exceptionHasBeenThrown)\n            {\n                $__cmdletization_objectModelWrapper.EndProcessing()\n            }\n        }\n        catch\n        {\n            throw\n        }\n    }\n\n    # .EXTERNALHELP NetFirewallRule.cmdletDefinition.cdxml-Help.xml\n}\nMicrosoft.PowerShell.Core\\Export-ModuleMember -Function 'Remove-NetFirewallRule' -Alias '*'\n        \n\nfunction Rename-NetFirewallRule\n{\n    [CmdletBinding(DefaultParameterSetName='GetAll', SupportsShouldProcess=$true, ConfirmImpact='Medium', PositionalBinding=$false)]\n    \n    [OutputType([Microsoft.Management.Infrastructure.CimInstance])]\n[OutputType('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetFirewallRule')]\n\n    param(\n    \n    [Parameter(ParameterSetName='ByName', Mandatory=$true, Position=0)]\n    [Alias('ID')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Name},\n\n    [Parameter(ParameterSetName='ByDisplayName', Mandatory=$true)]\n    [ValidateNotNull()]\n    [string[]]\n    ${DisplayName},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Description},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${DisplayGroup},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Group},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Enabled[]]\n    ${Enabled},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Direction[]]\n    ${Direction},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.Action[]]\n    ${Action},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.EdgeTraversal[]]\n    ${EdgeTraversalPolicy},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [Alias('LSM')]\n    [ValidateNotNull()]\n    [bool[]]\n    ${LooseSourceMapping},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [bool[]]\n    ${LocalOnlyMapping},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Owner},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.PrimaryStatus[]]\n    ${PrimaryStatus},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${Status},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${PolicyStoreSource},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [Microsoft.PowerShell.Cmdletization.GeneratedTypes.NetSecurity.PolicyStoreType[]]\n    ${PolicyStoreSourceType},\n\n    [Parameter(ParameterSetName='ByQuery')]\n    [ValidateNotNull()]\n    [string[]]\n    ${PolicyAppId},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallAddressFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetAddressFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallAddressFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallApplicationFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetApplicationFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallApplicationFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetInterfaceFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallInterfaceFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceTypeFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetInterfaceTypeFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallInterfaceTypeFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallPortFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetProtocolPortFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallPortFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallSecurityFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetNetworkLayerSecurityFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallSecurityFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallServiceFilter', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetServiceFilter')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallServiceFilter},\n\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallProfile', Mandatory=$true, ValueFromPipeline=$true)]\n    [PSTypeName('Microsoft.Management.Infrastructure.CimInstance#root\/standardcimv2\/MSFT_NetFirewallProfile')]\n    [ValidateNotNull()]\n    [ciminstance]\n    ${AssociatedNetFirewallProfile},\n\n    [Parameter(ParameterSetName='GetAll')]\n    [switch]\n    ${All},\n\n    [Parameter(ParameterSetName='ByName')]\n    [Parameter(ParameterSetName='ByDisplayName')]\n    [Parameter(ParameterSetName='ByQuery')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallAddressFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallApplicationFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallInterfaceTypeFilter')]\n    [Parameter(ParameterSetName='ByAssociatedNetFirewallPortFilter')]\n ","powershell.file.script_block_id":"5f00df12-6def-479d-9b4f-5e4e084167da","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 7 at 19:58:30, a new logon occurred for user 'JohnDoe' on computer 'DESKTOP-40LB8AC'.</t>
+  </si>
+  <si>
+    <t>{"message":"An account was logged off.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-18\n\tAccount Name:\t\tWIN-1D3611F7FUE$\n\tAccount Domain:\t\tEDEN\n\tLogon ID:\t\t0x15CF29B\n\nLogon Type:\t\t\t3\n\nThis event is generated when a logon session is destroyed. It may be positively correlated with a logon event using the Logon ID value. Logon IDs are only unique between reboots on the same computer.","@timestamp":"2024-11-22T00:49:47.759Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"772.0","winlog.process.thread.id":"5260.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"346234","winlog.task":"Logoff","winlog.event_id":"4634","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142', 'fe80::491a:4662:515f:ed3f', '169.254.209.153']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8', '02-00-4C-4F-4F-50']","host.architecture":"x86_64","event.ingested":"2024-11-22T00:49:59.174064652Z","event.code":"4634","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-22T00:49:49.358Z","event.kind":"event","event.action":"logged-out","winlog.logon.id":"0x15cf29b","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"WIN-1D3611F7FUE$","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"EDEN","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"security","event.type":"['end']","event.category":"['authentication']","event.outcome":"success","related.user":"['WIN-1D3611F7FUE$']","user.domain":"EDEN","user.name":"WIN-1D3611F7FUE$","user.id":"S-1-5-18","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"Network","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"3","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"0x15cf29b","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"S-1-5-18","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 6 at 02:40:00, Windows started installing the update '9WZDNCRFHVQM-MICROSOFT.WINDOWSCOMMUNICATIONSAPPS' on computer 'DESKTOP-51LB8AD'."</t>
+  </si>
+  <si>
+    <t>{"message":"The IPsec Policy Agent service entered the stopped state.","@timestamp":"2024-11-21T23:10:43.110Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"748.0","winlog.process.thread.id":"3556.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"IPsec Policy Agent","winlog.event_data.param2":"stopped","winlog.opcode":"Info","winlog.record_id":"14638","winlog.task":"None","winlog.event_id":"7036","winlog.provider_guid":"{555908d1-a6d7-4695-8e1e-26931d2012f4}","winlog.api":"wineventlog","winlog.provider_name":"Service Control Manager","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.155685371Z","event.code":"7036","event.provider":"Service Control Manager","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"50006F006C006900630079004100670065006E0074002F0031000000","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Dec 3 at 14:25:45, user 'johndoe' attempted to log in to server 'SERVER-01' with an incorrect password."</t>
+  </si>
+  <si>
+    <t>{"message":"DHCPv6 client service is stopped. ShutDown Flag value is 1","@timestamp":"2024-11-21T23:10:43.117Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"1180.0","winlog.process.thread.id":"1360.0","winlog.keywords":"N\/A","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"ServiceStop","winlog.record_id":"14639","winlog.task":"Service State Event","winlog.event_id":"51047","winlog.provider_guid":"{6a1f2b00-6a90-4c38-95a5-5cab3b056778}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-DHCPv6-Client","winlog.user.identifier":"S-1-5-19","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"LOCAL SERVICE","winlog.user.type":"Well Known Group","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.156550687Z","event.code":"51047","event.provider":"Microsoft-Windows-DHCPv6-Client","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"Service State Event","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"1","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Oct 15 at 10:12:30, process 'explorer.exe' on computer 'LAPTOP-9ZX5YTW' requested elevated permissions to access the file 'confidential.docx'."</t>
+  </si>
+  <si>
+    <t>{"message":"DHCPv4 is waiting on DHCPv6 service to stop","@timestamp":"2024-11-21T23:10:43.148Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"1180.0","winlog.process.thread.id":"1224.0","winlog.keywords":"N\/A","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"ServiceShutdown","winlog.record_id":"14642","winlog.task":"Service State Event","winlog.event_id":"50106","winlog.provider_guid":"{15a7a4f8-0072-4eab-abad-f98a4d666aed}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Dhcp-Client","winlog.user.identifier":"S-1-5-19","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"LOCAL SERVICE","winlog.user.type":"Well Known Group","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.158192375Z","event.code":"50106","event.provider":"Microsoft-Windows-Dhcp-Client","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"Service State Event","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Jan 22 at 18:05:10, antivirus software on 'SERVER-A' detected and quarantined the malware 'Trojan.Win32.Generic' in the file 'C:\Temp\malicious.exe'."</t>
+  </si>
+  <si>
+    <t>{"message":"The Cryptographic Services service entered the stopped state.","@timestamp":"2024-11-21T23:10:43.125Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"748.0","winlog.process.thread.id":"3556.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"Cryptographic Services","winlog.event_data.param2":"stopped","winlog.opcode":"Info","winlog.record_id":"14641","winlog.task":"None","winlog.event_id":"7036","winlog.provider_guid":"{555908d1-a6d7-4695-8e1e-26931d2012f4}","winlog.api":"wineventlog","winlog.provider_name":"Service Control Manager","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.157434129Z","event.code":"7036","event.provider":"Service Control Manager","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"430072007900700074005300760063002F0031000000","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:10:43, the Cryptographic Services service entered the stopped state on computer 'WIN-1D3611F7FUE'.</t>
+  </si>
+  <si>
+    <t>{"message":"Special privileges assigned to new logon.\n\nSubject:\n\tSecurity ID:\t\tS-1-5-20\n\tAccount Name:\t\tNETWORK SERVICE\n\tAccount Domain:\t\tNT AUTHORITY\n\tLogon ID:\t\t0x3E4\n\nPrivileges:\t\tSeAssignPrimaryTokenPrivilege\n\t\t\tSeAuditPrivilege\n\t\t\tSeImpersonatePrivilege","@timestamp":"2024-11-21T23:13:54.678Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"772.0","winlog.process.thread.id":"820.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"344756","winlog.task":"Special Logon","winlog.event_id":"4672","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.159083489Z","event.code":"4672","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"logged-in-special","winlog.logon.id":"0x3e4","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"NETWORK SERVICE","winlog.event_data.SubjectDomainName":"NT AUTHORITY","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"0x3e4","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"S-1-5-20","winlog.activity_id":"N\/A","event.module":"security","event.type":"['admin']","event.category":"['iam']","event.outcome":"success","related.user":"['NETWORK SERVICE']","user.domain":"NT AUTHORITY","user.name":"NETWORK SERVICE","user.id":"S-1-5-20","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"SeAssignPrimaryTokenPrivilege, SeAuditPrivilege, SeImpersonatePrivilege","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:54, special privileges (SeAssignPrimaryTokenPrivilege, SeAuditPrivilege, SeImpersonatePrivilege) were assigned to new logon 'NETWORK SERVICE' (Security ID: S-1-5-20, Logon ID: 0x3E4) on computer 'WIN-1D3611F7FUE'.</t>
+  </si>
+  <si>
+    <t>{"message":"The Windows Management Instrumentation service entered the stopped state.","@timestamp":"2024-11-21T23:10:43.141Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"748.0","winlog.process.thread.id":"4476.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"Windows Management Instrumentation","winlog.event_data.param2":"stopped","winlog.opcode":"Info","winlog.record_id":"14644","winlog.task":"None","winlog.event_id":"7036","winlog.provider_guid":"{555908d1-a6d7-4695-8e1e-26931d2012f4}","winlog.api":"wineventlog","winlog.provider_name":"Service Control Manager","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.159683006Z","event.code":"7036","event.provider":"Service Control Manager","event.created":"2024-11-21T23:16:19.717Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"570069006E006D0067006D0074002F0031000000","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:10:43, the Windows Management Instrumentation service entered the stopped state on computer 'WIN-1D3611F7FUE'.</t>
+  </si>
+  <si>
+    <t>{"message":"VMCI: Using capabilities (0x1c).","@timestamp":"2024-11-21T23:13:45.279Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"152.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"VMCI: Using capabilities (0x1c).","winlog.opcode":"Info","winlog.record_id":"14673","winlog.task":"None","winlog.event_id":"3","winlog.provider_guid":"N\/A","winlog.api":"wineventlog","winlog.provider_name":"vmci","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.207546263Z","event.code":"3","event.provider":"vmci","event.created":"2024-11-21T23:16:19.726Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"00000000020028000000000003000840030008400000000000000000000000000000000000000000","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:45, the VMCI service reported using capabilities (0x1c) on computer 'WIN-1D3611F7FUE'.</t>
+  </si>
+  <si>
+    <t>{"message":"The bootmgr spent 0 ms waiting for user input.","@timestamp":"2024-11-21T23:13:43.716Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"8.0","winlog.keywords":"N\/A","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"14670","winlog.task":"UserInputTime","winlog.event_id":"32","winlog.provider_guid":"{15ca44ff-4d7a-4baa-bba5-0998955e531e}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Kernel-Boot","winlog.user.identifier":"S-1-5-18","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"SYSTEM","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.206657556Z","event.code":"32","event.provider":"Microsoft-Windows-Kernel-Boot","event.created":"2024-11-21T23:16:19.726Z","event.kind":"event","event.action":"UserInputTime","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"0","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:43, the boot manager spent 0 ms waiting for user input on computer WIN-1D3611F7FUE.</t>
+  </si>
+  <si>
+    <t>{"message":"The RpcEptMapper service entered the running state.","@timestamp":"2024-11-21T23:13:54.782Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"752.0","winlog.process.thread.id":"864.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"RpcEptMapper","winlog.event_data.param2":"running","winlog.opcode":"Info","winlog.record_id":"14701","winlog.task":"None","winlog.event_id":"7036","winlog.provider_guid":"{555908d1-a6d7-4695-8e1e-26931d2012f4}","winlog.api":"wineventlog","winlog.provider_name":"Service Control Manager","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.209883916Z","event.code":"7036","event.provider":"Service Control Manager","event.created":"2024-11-21T23:16:19.726Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"5200700063004500700074004D00610070007000650072002F0034000000","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:54, the RpcEptMapper service entered the running state on computer WIN-1D3611F7FUE.</t>
+  </si>
+  <si>
+    <t>{"message":"A Kerberos authentication ticket (TGT) was requested.\n\nAccount Information:\n\tAccount Name:\t\tWIN-1D3611F7FUE$\n\tSupplied Realm Name:\tEDEN.LOCAL\n\tUser ID:\t\t\tS-1-5-21-2843347860-584263628-2898511189-1000\n\nService Information:\n\tService Name:\t\tkrbtgt\n\tService ID:\t\tS-1-5-21-2843347860-584263628-2898511189-502\n\nNetwork Information:\n\tClient Address:\t\t::1\n\tClient Port:\t\t0\n\nAdditional Information:\n\tTicket Options:\t\t0x40810010\n\tResult Code:\t\t0x0\n\tTicket Encryption Type:\t0x12\n\tPre-Authentication Type:\t2\n\nCertificate Information:\n\tCertificate Issuer Name:\t\t\n\tCertificate Serial Number:\t\n\tCertificate Thumbprint:\t\t\n\nTicket information\n\tResponse ticket hash:\t\tKhFYlqPVYkRsw422VDtJDuEN3yBuYXVEpI85juW7ADw=\n\n\nCertificate information is only provided if a certificate was used for pre-authentication.\n\nPre-authentication types, ticket options, encryption types and result codes are defined in RFC 4120.","@timestamp":"2024-11-21T23:14:34.504Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"772.0","winlog.process.thread.id":"5100.0","winlog.keywords":"['Audit Success']","winlog.channel":"Security","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"344834","winlog.task":"Kerberos Authentication Service","winlog.event_id":"4768","winlog.provider_guid":"{54849625-5478-4994-a5ba-3e3b0328c30d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-Security-Auditing","winlog.user.identifier":"N\/A","winlog.user.domain":"N\/A","winlog.user.name":"N\/A","winlog.user.type":"N\/A","log.level":"information","ecs.version":"1.12.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.214104728Z","event.code":"4768","event.provider":"Microsoft-Windows-Security-Auditing","event.created":"2024-11-21T23:16:19.825Z","event.kind":"event","event.action":"kerberos-authentication-ticket-requested","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"WIN-1D3611F7FUE$","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"EDEN.LOCAL","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"security","event.type":"['start']","event.category":"['authentication']","event.outcome":"success","related.user":"['WIN-1D3611F7FUE$']","user.domain":"EDEN.LOCAL","user.name":"WIN-1D3611F7FUE$","user.id":"S-1-5-21-2843347860-584263628-2898511189-1000","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"1.0","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"S-1-5-21-2843347860-584263628-2898511189-1000","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"krbtgt","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"0x0","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"['::1']","source.port":"0.0","source.ip":"::1","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"2","winlog.event_data.ResponseTicket":"KhFYlqPVYkRsw422VDtJDuEN3yBuYXVEpI85juW7ADw=","winlog.event_data.TicketEncryptionType":"0x12","winlog.event_data.TicketOptionsDescription":"['Renewable-ok', 'Name-canonicalize', 'Renewable', 'Forwardable']","winlog.event_data.StatusDescription":"KDC_ERR_NONE","winlog.event_data.TicketOptions":"0x40810010","winlog.event_data.ServiceSid":"S-1-5-21-2843347860-584263628-2898511189-502","winlog.event_data.TicketEncryptionTypeDescription":"AES256-CTS-HMAC-SHA1-96","service.name":"krbtgt","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:14:34, a Kerberos authentication ticket (TGT) was requested. The account name was WIN-1D3611F7FUE$, and the supplied realm name was EDEN.LOCAL. The result code was 0x0, and the ticket encryption type was 0x12.</t>
+  </si>
+  <si>
+    <t>{"message":"File System Filter 'CldFlt' (10.0, \u200e2068\u200e-\u200e01\u200e-\u200e07T21:40:27.000000000Z) has successfully loaded and registered with Filter Manager.","@timestamp":"2024-11-21T23:13:55.185Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"4.0","winlog.process.thread.id":"152.0","winlog.keywords":"N\/A","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"14720","winlog.task":"None","winlog.event_id":"6","winlog.provider_guid":"{f3c5e28e-63f6-49c7-a204-e48a1bc4b09d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-FilterManager","winlog.user.identifier":"S-1-5-18","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"SYSTEM","winlog.user.type":"User","log.level":"information","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.322026013Z","event.code":"6","event.provider":"Microsoft-Windows-FilterManager","event.created":"2024-11-21T23:16:20.038Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"0","winlog.event_data.DeviceTime":"2068-01-07T21:40:27.0000000Z","winlog.event_data.DeviceVersionMajor":"10","winlog.event_data.DeviceNameLength":"6","winlog.event_data.FinalStatus":"0x0","winlog.event_data.DeviceName":"CldFlt","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:55, the file system filter CldFlt (version 10.0) successfully loaded and registered with the filter manager on computer WIN-1D3611F7FUE.</t>
+  </si>
+  <si>
+    <t>{"message":"Name resolution for the name wpad timed out after none of the configured DNS servers responded.","@timestamp":"2024-11-21T23:13:55.458Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"1300.0","winlog.process.thread.id":"1384.0","winlog.keywords":"['ut:DnsAutoLogKeyword']","winlog.channel":"System","winlog.event_data.param3":"N\/A","winlog.event_data.param4":"N\/A","winlog.event_data.param1":"N\/A","winlog.event_data.param2":"N\/A","winlog.opcode":"Info","winlog.record_id":"14739","winlog.task":"DnsAllServersTimeoutSystem","winlog.event_id":"1014","winlog.provider_guid":"{1c95126e-7eea-49a9-a3fe-a378b03ddb4d}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-DNS-Client","winlog.user.identifier":"S-1-5-20","winlog.user.domain":"NT AUTHORITY","winlog.user.name":"NETWORK SERVICE","winlog.user.type":"Well Known Group","log.level":"warning","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.323767062Z","event.code":"1014","event.provider":"Microsoft-Windows-DNS-Client","event.created":"2024-11-21T23:16:20.040Z","event.kind":"event","event.action":"DnsAllServersTimeoutSystem","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"N\/A","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"N\/A","winlog.event_data.param8":"N\/A","winlog.event_data.param5":"N\/A","winlog.event_data.param6":"N\/A","winlog.event_data.param9":"N\/A","winlog.event_data.param10":"N\/A","winlog.event_data.param11":"N\/A","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"128","winlog.event_data.Address":"1700000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000","winlog.event_data.QueryName":"wpad","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:13:55, the DNS client on computer WIN-1D3611F7FUE attempted to resolve the name wpad but timed out after none of the configured DNS servers responded.</t>
+  </si>
+  <si>
+    <t>{"message":"The application-specific permission settings do not grant Local Launch permission for the COM Server application with CLSID \n{21B896BF-008D-4D01-A27B-26061B960DD7}\n and APPID \n{03E09F3B-DCE4-44FE-A9CF-82D050827E1C}\n to the user EDEN\\Administrator SID (S-1-5-21-2843347860-584263628-2898511189-500) from address LocalHost (Using LRPC) running in the application container Unavailable SID (Unavailable). This security permission can be modified using the Component Services administrative tool.","@timestamp":"2024-11-21T23:15:06.496Z","related":"N\/A","user":"N\/A","process":"N\/A","source":"N\/A","powershell":"N\/A","group":"N\/A","file":"N\/A","error":"N\/A","service":"N\/A","agent.name":"WIN-1D3611F7FUE","agent.id":"519a9ece-34c8-4444-a06b-095c64fc3e32","agent.type":"winlogbeat","agent.ephemeral_id":"be777336-ad00-4db2-a91a-b000cff7fd4e","agent.version":"8.15.3","winlog.computer_name":"WIN-1D3611F7FUE.eden.local","winlog.process.pid":"340.0","winlog.process.thread.id":"1084.0","winlog.keywords":"['Classic']","winlog.channel":"System","winlog.event_data.param3":"Launch","winlog.event_data.param4":"{21B896BF-008D-4D01-A27B-26061B960DD7}","winlog.event_data.param1":"application-specific","winlog.event_data.param2":"Local","winlog.opcode":"Info","winlog.record_id":"14830","winlog.task":"None","winlog.event_id":"10016","winlog.provider_guid":"{1B562E86-B7AA-4131-BADC-B6F3A001407E}","winlog.api":"wineventlog","winlog.provider_name":"Microsoft-Windows-DistributedCOM","winlog.user.identifier":"S-1-5-21-2843347860-584263628-2898511189-500","winlog.user.domain":"EDEN","winlog.user.name":"Administrator","winlog.user.type":"User","log.level":"warning","ecs.version":"8.0.0","host.hostname":"win-1d3611f7fue","host.os.build":"20348.2762","host.os.kernel":"10.0.20348.2760 (WinBuild.160101.0800)","host.os.name":"Windows Server 2022 Standard","host.os.family":"windows","host.os.type":"windows","host.os.version":"10.0","host.os.platform":"windows","host.ip":"['fe80::fa90:b2bc:9cfa:c7cb', '192.168.1.142']","host.name":"win-1d3611f7fue","host.id":"4f577f76-c7ea-49cd-affa-e54d40a7b153","host.mac":"['00-50-56-97-DE-E8']","host.architecture":"x86_64","event.ingested":"2024-11-21T23:16:30.330587118Z","event.code":"10016","event.provider":"Microsoft-Windows-DistributedCOM","event.created":"2024-11-21T23:16:20.089Z","event.kind":"event","event.action":"None","winlog.logon.id":"N\/A","winlog.event_data.Workstation":"N\/A","winlog.event_data.SubjectUserName":"N\/A","winlog.event_data.SubjectDomainName":"N\/A","winlog.event_data.TargetUserName":"N\/A","winlog.event_data.SubjectLogonId":"N\/A","winlog.event_data.TargetDomainName":"N\/A","winlog.event_data.SubjectUserSid":"N\/A","winlog.activity_id":"{6e8e6f34-288e-4367-88b2-1ed9b6faa2d0}","event.module":"N\/A","event.type":"N\/A","event.category":"N\/A","event.outcome":"N\/A","related.user":"N\/A","user.domain":"N\/A","user.name":"N\/A","user.id":"N\/A","user.target.domain":"N\/A","user.target.name":"N\/A","winlog.event_data.ClientProcessId":"N\/A","winlog.event_data.Type":"N\/A","winlog.event_data.ReadOperation":"N\/A","winlog.event_data.ReturnCode":"N\/A","winlog.event_data.CountOfCredentialsReturned":"N\/A","winlog.event_data.TargetName":"N\/A","winlog.event_data.ProcessCreationTime":"N\/A","winlog.logon.type":"N\/A","winlog.event_data.LogonGuid":"N\/A","winlog.event_data.TargetOutboundDomainName":"N\/A","winlog.event_data.VirtualAccount":"N\/A","winlog.event_data.IpPort":"N\/A","winlog.event_data.TransmittedServices":"N\/A","winlog.event_data.LmPackageName":"N\/A","winlog.event_data.RestrictedAdminMode":"N\/A","winlog.event_data.ElevatedToken":"N\/A","winlog.event_data.LogonProcessName":"N\/A","winlog.event_data.LogonType":"N\/A","winlog.event_data.TargetOutboundUserName":"N\/A","winlog.event_data.KeyLength":"N\/A","winlog.event_data.TargetLogonId":"N\/A","winlog.event_data.TargetLinkedLogonId":"N\/A","winlog.event_data.IpAddress":"N\/A","winlog.event_data.ImpersonationLevel":"N\/A","winlog.event_data.AuthenticationPackageName":"N\/A","winlog.event_data.TargetUserSid":"N\/A","winlog.version":"N\/A","process.name":"N\/A","process.pid":"N\/A","process.executable":"N\/A","source.domain":"N\/A","winlog.event_data.PrivilegeList":"N\/A","winlog.event_data.Schema":"N\/A","winlog.event_data.Resource":"N\/A","winlog.event_data.Flags":"N\/A","winlog.event_data.Identity":"N\/A","winlog.event_data.SchemaFriendlyName":"N\/A","event.sequence":"N\/A","process.args":"N\/A","process.args_count":"N\/A","process.entity_id":"N\/A","process.title":"N\/A","process.command_line":"N\/A","powershell.process.executable_version":"N\/A","powershell.provider.name":"N\/A","powershell.provider.new_state":"N\/A","powershell.engine.previous_state":"N\/A","powershell.engine.new_state":"N\/A","powershell.engine.version":"N\/A","powershell.runspace_id":"N\/A","winlog.event_data.CallerProcessId":"N\/A","winlog.event_data.TargetSid":"N\/A","winlog.event_data.CallerProcessName":"N\/A","group.domain":"N\/A","group.name":"N\/A","group.id":"N\/A","winlog.event_data.HiveNameLength":"N\/A","winlog.event_data.HiveName":"N\/A","winlog.event_data.DirtyPages":"N\/A","winlog.event_data.KeysUpdated":"N\/A","powershell.sequence":"N\/A","powershell.total":"N\/A","powershell.file.script_block_text":"N\/A","powershell.file.script_block_id":"N\/A","file.path":"N\/A","file.extension":"N\/A","file.name":"N\/A","file.directory":"N\/A","winlog.event_data.updateRevisionNumber":"N\/A","winlog.event_data.updateGuid":"N\/A","winlog.event_data.updateTitle":"N\/A","winlog.event_data.param7":"Administrator","winlog.event_data.param8":"S-1-5-21-2843347860-584263628-2898511189-500","winlog.event_data.param5":"{03E09F3B-DCE4-44FE-A9CF-82D050827E1C}","winlog.event_data.param6":"EDEN","winlog.event_data.param9":"LocalHost (Using LRPC)","winlog.event_data.param10":"Unavailable","winlog.event_data.param11":"Unavailable","winlog.event_data.ServiceName":"N\/A","winlog.event_data.ServiceType":"N\/A","winlog.event_data.ImagePath":"N\/A","winlog.event_data.StartType":"N\/A","winlog.event_data.ProcessName":"N\/A","winlog.event_data.PreviousTime":"N\/A","winlog.event_data.NewTime":"N\/A","winlog.event_data.ProcessId":"N\/A","winlog.event_data.CurrentBias":"N\/A","winlog.event_data.CurrentTimeZoneID":"N\/A","winlog.event_data.ExitReason":"N\/A","winlog.event_data.TimeZoneInfoCacheUpdated":"N\/A","winlog.event_data.FirstRefresh":"N\/A","winlog.event_data.OldTime":"N\/A","winlog.event_data.ProcessID":"N\/A","winlog.event_data.Reason":"N\/A","winlog.event_data.TargetState":"N\/A","winlog.event_data.TransitionsToOn":"N\/A","winlog.event_data.EffectiveState":"N\/A","winlog.event_data.WakeRequesterTypeAc":"N\/A","winlog.event_data.WakeRequesterTypeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeDc":"N\/A","winlog.event_data.ProgrammedWakeTimeAc":"N\/A","winlog.event_data.WakeFromState":"N\/A","winlog.event_data.Binary":"N\/A","winlog.event_data.WakeTime":"N\/A","winlog.event_data.BiosInitDuration":"N\/A","winlog.event_data.Attributes":"N\/A","winlog.event_data.WakeTimerOwnerLength":"N\/A","winlog.event_data.WakeSourceType":"N\/A","winlog.event_data.SleepTime":"N\/A","winlog.event_data.DriverInitDuration":"N\/A","winlog.event_data.WakeDuration":"N\/A","winlog.event_data.HiberWriteDuration":"N\/A","winlog.event_data.HiberPagesWritten":"N\/A","winlog.event_data.NoMultiStageResumeReason":"N\/A","winlog.event_data.WakeSourceTextLength":"N\/A","winlog.event_data.HiberReadDuration":"N\/A","winlog.event_data.SleepDuration":"N\/A","winlog.event_data.WakeTimerContextLength":"N\/A","winlog.event_data.CheckpointDuration":"N\/A","winlog.event_data.TimeSource":"N\/A","winlog.logon.failure.reason":"N\/A","winlog.logon.failure.sub_status":"N\/A","winlog.logon.failure.status":"N\/A","winlog.event_data.Status":"N\/A","winlog.event_data.FailureReason":"N\/A","winlog.event_data.SubStatus":"N\/A","related.ip":"N\/A","source.port":"N\/A","source.ip":"N\/A","winlog.event_data.serviceGuid":"N\/A","winlog.event_data.AddressLength":"N\/A","winlog.event_data.Address":"N\/A","winlog.event_data.QueryName":"N\/A","winlog.event_data.TargetLogonGuid":"N\/A","winlog.event_data.TargetInfo":"N\/A","winlog.event_data.TargetServerName":"N\/A","user.effective.domain":"N\/A","user.effective.name":"N\/A","winlog.event_data.DCName":"N\/A","winlog.event_data.ProcessingTimeInMilliseconds":"N\/A","winlog.event_data.SupportInfo2":"N\/A","winlog.event_data.SupportInfo1":"N\/A","winlog.event_data.ProcessingMode":"N\/A","user.target.id":"N\/A","winlog.event_data.AdapterName":"N\/A","winlog.event_data.Sent UpdateServer":"N\/A","winlog.event_data.AdapterSuffixName":"N\/A","winlog.event_data.Ipaddress":"N\/A","winlog.event_data.ErrorCode":"N\/A","winlog.event_data.DnsServerList":"N\/A","winlog.event_data.HostName":"N\/A","winlog.event_data.RetryMinutes":"N\/A","winlog.event_data.ErrorMessage":"N\/A","winlog.event_data.Target":"N\/A","winlog.event_data.Error":"N\/A","winlog.event_data.DomainPeer":"N\/A","winlog.event_data.errorCode":"N\/A","winlog.event_data.MandatoryLabel":"N\/A","winlog.event_data.TokenElevationType":"N\/A","user.effective.id":"N\/A","process.parent.pid":"N\/A","winlog.event_data.param12":"N\/A","winlog.event_data.TargetProcessId":"N\/A","winlog.event_data.TargetProcessName":"N\/A","winlog.event_data.LoadOptions":"N\/A","winlog.event_data.TestSigning":"N\/A","winlog.event_data.RemoteEventLogging":"N\/A","winlog.event_data.VsmLaunchType":"N\/A","winlog.event_data.HypervisorLoadOptions":"N\/A","winlog.event_data.ConfigAccessPolicy":"N\/A","winlog.event_data.FlightSigning":"N\/A","winlog.event_data.AdvancedOptions":"N\/A","winlog.event_data.KernelDebug":"N\/A","winlog.event_data.HypervisorLaunchType":"N\/A","winlog.event_data.DisableIntegrityChecks":"N\/A","winlog.event_data.HypervisorDebug":"N\/A","winlog.event_data.ExtraInfo":"N\/A","process.parent.name":"N\/A","process.parent.executable":"N\/A","winlog.event_data.DwordVal":"N\/A","winlog.event_data.PuaCount":"N\/A","winlog.event_data.PuaPolicyId":"N\/A","winlog.event_data.ShutdownActionType":"N\/A","winlog.event_data.ShutdownEventCode":"N\/A","winlog.event_data.ShutdownReason":"N\/A","winlog.event_data.StopTime":"N\/A","winlog.event_data.MajorVersion":"N\/A","winlog.event_data.BootMode":"N\/A","winlog.event_data.StartTime":"N\/A","winlog.event_data.MinorVersion":"N\/A","winlog.event_data.BuildVersion":"N\/A","winlog.event_data.ServiceVersion":"N\/A","winlog.event_data.QfeVersion":"N\/A","winlog.event_data.EnableDisableReason":"N\/A","winlog.event_data.VsmPolicy":"N\/A","winlog.event_data.LastBootGood":"N\/A","winlog.event_data.LastShutdownGood":"N\/A","winlog.event_data.LastBootId":"N\/A","winlog.event_data.BootStatusPolicy":"N\/A","winlog.event_data.EfiTimeZoneBias":"N\/A","winlog.event_data.EfiDaylightFlags":"N\/A","winlog.event_data.BootMenuPolicy":"N\/A","winlog.event_data.BootType":"N\/A","winlog.event_data.EntryCount":"N\/A","winlog.event_data.BitlockerUserInputTime":"N\/A","winlog.event_data.CountOld":"N\/A","winlog.event_data.CountNew":"N\/A","winlog.event_data.UpdateReason":"N\/A","winlog.event_data.EnabledNew":"N\/A","winlog.event_data.DeviceVersionMinor":"N\/A","winlog.event_data.DeviceTime":"N\/A","winlog.event_data.DeviceVersionMajor":"N\/A","winlog.event_data.DeviceNameLength":"N\/A","winlog.event_data.FinalStatus":"N\/A","winlog.event_data.DeviceName":"N\/A","winlog.event_data.DriveName":"N\/A","winlog.event_data.CorruptionActionState":"N\/A","winlog.event_data.Group":"N\/A","winlog.event_data.Number":"N\/A","winlog.event_data.MaximumPerformancePercent":"N\/A","winlog.event_data.MinimumThrottlePercent":"N\/A","winlog.event_data.MinimumPerformancePercent":"N\/A","winlog.event_data.IdleImplementation":"N\/A","winlog.event_data.IdleStateCount":"N\/A","winlog.event_data.PerformanceImplementation":"N\/A","winlog.event_data.NominalFrequency":"N\/A","winlog.event_data.State":"N\/A","winlog.event_data.NewSize":"N\/A","winlog.event_data.OriginalSize":"N\/A","winlog.event_data.IsTestConfig":"N\/A","winlog.event_data.Config":"N\/A","winlog.event_data.Default SD String:":"N\/A","winlog.event_data.MinimumPasswordLength":"N\/A","winlog.event_data.RelaxMinimumPasswordLengthLimits":"N\/A","winlog.event_data.MinimumPasswordLengthAudit":"N\/A","winlog.event_data.TimeProvider":"N\/A","winlog.event_data.TimeSourceRefId":"N\/A","winlog.event_data.CurrentStratumNumber":"N\/A","winlog.event_data.UserSid":"N\/A","winlog.event_data.TSId":"N\/A","winlog.event_data.KeyType":"N\/A","winlog.event_data.Operation":"N\/A","winlog.event_data.ClientCreationTime":"N\/A","winlog.event_data.AlgorithmName":"N\/A","winlog.event_data.KeyName":"N\/A","winlog.event_data.ProviderName":"N\/A","winlog.event_data.KeyFilePath":"N\/A","winlog.event_data.ErrorDescription":"N\/A","winlog.event_data.AccountName":"N\/A","winlog.user_data.RmSessionId":"N\/A","winlog.user_data.UTCStartTime":"N\/A","winlog.user_data.xml_name":"N\/A","winlog.event_data.NewBias":"N\/A","winlog.event_data.OldBias":"N\/A","winlog.event_data.ObjectType":"N\/A","winlog.event_data.ObjectServer":"N\/A","winlog.event_data.HandleId":"N\/A","winlog.event_data.NewSd":"N\/A","winlog.event_data.NewSdSacl0":"N\/A","winlog.event_data.ObjectName":"N\/A","winlog.event_data.OldSd":"N\/A","winlog.event_data.MemberSid":"N\/A","winlog.event_data.MemberName":"N\/A","user.target.group.domain":"N\/A","user.target.group.name":"N\/A","user.target.group.id":"N\/A","winlog.event_data.NewUACList":"N\/A","winlog.event_data.SidHistory":"N\/A","winlog.event_data.LogonHours":"N\/A","winlog.event_data.ScriptPath":"N\/A","winlog.event_data.DisplayName":"N\/A","winlog.event_data.HomePath":"N\/A","winlog.event_data.AllowedToDelegateTo":"N\/A","winlog.event_data.UserWorkstations":"N\/A","winlog.event_data.SamAccountName":"N\/A","winlog.event_data.OldUacValue":"N\/A","winlog.event_data.HomeDirectory":"N\/A","winlog.event_data.UserParameters":"N\/A","winlog.event_data.NewUacValue":"N\/A","winlog.event_data.PrimaryGroupId":"N\/A","winlog.event_data.AccountExpires":"N\/A","winlog.event_data.ProfilePath":"N\/A","winlog.event_data.UserAccountControl":"N\/A","winlog.event_data.PasswordLastSet":"N\/A","winlog.event_data.UserPrincipalName":"N\/A","winlog.event_data.Dummy":"N\/A","winlog.user_data.DriverFileName":"N\/A","winlog.user_data.UpdateService":"N\/A","winlog.user_data.AddServiceStatus":"N\/A","winlog.user_data.ServiceName":"N\/A","winlog.user_data.DeviceInstanceID":"N\/A","winlog.user_data.PrimaryService":"N\/A","error.message":"N\/A","winlog.user_data.Reason":"N\/A","winlog.event_data.param19":"N\/A","winlog.event_data.param16":"N\/A","winlog.event_data.param21":"N\/A","winlog.event_data.param22":"N\/A","winlog.event_data.param23":"N\/A","winlog.event_data.param20":"N\/A","winlog.event_data.OldSdSacl0":"N\/A","winlog.event_data.NewSdSacl1":"N\/A","winlog.user_data.Namespace":"N\/A","winlog.user_data.Provider":"N\/A","winlog.event_data.Url":"N\/A","winlog.event_data.NewSchemeGuid":"N\/A","winlog.event_data.ProcessPid":"N\/A","winlog.event_data.OldSchemeGuid":"N\/A","winlog.event_data.ProcessPath":"N\/A","winlog.user_data.ChannelPath":"N\/A","winlog.user_data.PublisherGuid":"N\/A","winlog.user_data.ErrorCode":"N\/A","winlog.event_data.DomainName":"N\/A","winlog.event_data.ComputerName":"N\/A","winlog.event_data.NetStatusCode":"N\/A","winlog.event_data.Turn":"N\/A","winlog.event_data.param17":"N\/A","winlog.event_data.Reboot Reason":"N\/A","winlog.event_data.NumberOfGroupPolicyObjects":"N\/A","winlog.event_data.LockoutDuration":"N\/A","winlog.event_data.LockoutThreshold":"N\/A","winlog.event_data.PasswordProperties":"N\/A","winlog.event_data.LockoutObservationWindow":"N\/A","winlog.event_data.PasswordHistoryLength":"N\/A","winlog.event_data.MinPasswordAge":"N\/A","winlog.event_data.DomainSid":"N\/A","winlog.event_data.OemInformation":"N\/A","winlog.event_data.MaxPasswordAge":"N\/A","winlog.event_data.ForceLogoff":"N\/A","winlog.event_data.MachineAccountQuota":"N\/A","winlog.event_data.MixedDomainMode":"N\/A","winlog.event_data.MinPasswordLength":"N\/A","winlog.event_data.DomainBehaviorVersion":"N\/A","winlog.event_data.DomainPolicyChanged":"N\/A","winlog.event_data.AccessGranted":"N\/A","winlog.event_data.AccessRemoved":"N\/A","winlog.event_data.ProcessNameLength":"N\/A","winlog.event_data.DeviceInstance":"N\/A","winlog.event_data.DeviceInstanceLength":"N\/A","winlog.event_data.OldTargetUserName":"N\/A","winlog.event_data.NewTargetUserName":"N\/A","user.changes.name":"N\/A","winlog.event_data.LongPowerButtonPressDetected":"N\/A","winlog.event_data.CheckpointStatus":"N\/A","winlog.event_data.SystemSleepTransitionsToOn":"N\/A","winlog.event_data.PowerButtonTimestamp":"N\/A","winlog.event_data.CsEntryScenarioInstanceId":"N\/A","winlog.event_data.CsEntryScenarioInstanceIdV2":"N\/A","winlog.event_data.BootAppStatus":"N\/A","winlog.event_data.Checkpoint":"N\/A","winlog.event_data.BugcheckParameter4":"N\/A","winlog.event_data.BugcheckCode":"N\/A","winlog.event_data.BugcheckParameter3":"N\/A","winlog.event_data.BugcheckParameter2":"N\/A","winlog.event_data.ConnectedStandbyInProgress":"N\/A","winlog.event_data.BugcheckParameter1":"N\/A","winlog.event_data.SleepInProgress":"N\/A","winlog.event_data.BugcheckInfoFromEFI":"N\/A","winlog.event_data.ObjectCollectionName":"N\/A","winlog.event_data.ObjectIdentifyingProperties":"N\/A","winlog.event_data.SubjectUserDomainName":"N\/A","winlog.event_data.ObjectProperties":"N\/A","winlog.event_data.ApiCallerName":"N\/A","winlog.event_data.SystemAction":"N\/A","winlog.event_data.ApiCallerNameLength":"N\/A","winlog.event_data.LightestSystemState":"N\/A","powershell.pipeline_id":"N\/A","winlog.event_data.param13":"N\/A","winlog.event_data.param14":"N\/A","winlog.event_data.param15":"N\/A","winlog.event_data.AdditionalInfo":"N\/A","winlog.event_data.AccessMask":"N\/A","winlog.event_data.Properties":"N\/A","winlog.event_data.AccessListDescription":"N\/A","winlog.event_data.OperationType":"N\/A","winlog.event_data.AccessMaskDescription":"N\/A","winlog.event_data.AccessList":"N\/A","winlog.event_data.PackageName":"N\/A","winlog.event_data.PreviousEnergyCapacityAtStart":"N\/A","winlog.event_data.PreviousSessionDurationInUs":"N\/A","winlog.event_data.PreviousEnergyCapacityAtEnd":"N\/A","winlog.event_data.NextSessionType":"N\/A","winlog.event_data.PreviousSessionId":"N\/A","winlog.event_data.PowerStateAc":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtEnd":"N\/A","winlog.event_data.PreviousFullEnergyCapacityAtStart":"N\/A","winlog.event_data.NextSessionId":"N\/A","winlog.event_data.MonitorReason":"N\/A","winlog.event_data.PreviousSessionType":"N\/A","winlog.event_data.BootId":"N\/A","winlog.event_data.PreAuthType":"N\/A","winlog.event_data.ResponseTicket":"N\/A","winlog.event_data.TicketEncryptionType":"N\/A","winlog.event_data.TicketOptionsDescription":"N\/A","winlog.event_data.StatusDescription":"N\/A","winlog.event_data.TicketOptions":"N\/A","winlog.event_data.ServiceSid":"N\/A","winlog.event_data.TicketEncryptionTypeDescription":"N\/A","service.name":"N\/A","winlog.event_data.ResponseTicketHash":"N\/A","winlog.event_data.RequestTicketHash":"N\/A","powershell.command.invocation_details":"N\/A","powershell.command.value":"N\/A","powershell.id":"N\/A","powershell.command.name":"N\/A","powershell.command.type":"N\/A","winlog.event_data.Host Version":"N\/A","winlog.event_data.Host Application":"N\/A","winlog.event_data.Host ID":"N\/A","winlog.event_data.Payload":"N\/A","winlog.event_data.Severity":"N\/A","winlog.event_data.Host Name":"N\/A","winlog.event_data.ContextInfo":"N\/A","winlog.event_data.$path":"N\/A","winlog.event_data.$wdApp":"N\/A","winlog.event_data.$passwords":"N\/A","winlog.event_data.$parentpath":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/redcanaryco\/atomic-red-team\/blob\/master\/atomics\/T1047\/bin\/calc.dll?raw":"N\/A","winlog.event_data.Invoke-WebRequesthttps:\/\/github.com\/tevora-threat\/SharpView\/blob\/b60456286b41bb055ee7bc2a14d645410cca9b74\/Compiled\/SharpView.exe?raw":"N\/A","winlog.event_data.Invoke-WebRequest\"https:\/\/github.com\/BloodHoundAD\/BloodHound\/blob\/e062fe73d73c015dccb37fae5089342d009b84b8\/Collectors\/SharpHound.exe?raw":"N\/A","winlog.event_data.$InstallerPath":"N\/A","winlog.event_data.$AutoItURL":"N\/A","winlog.user_data.binaryData":"N\/A","winlog.user_data.binaryDataSize":"N\/A","winlog.user_data.param1":"N\/A","winlog.user_data.param2":"N\/A","winlog.event_data.EfiTime":"N\/A","winlog.event_data.spn2":"N\/A","winlog.event_data.spn1":"N\/A","winlog.event_data.error":"N\/A","winlog.event_data.RunningMode":"N\/A","winlog.event_data.ConfigurationReader":"N\/A","winlog.event_data.[Net.ServicePointManager]::SecurityProtocol":"N\/A","winlog.event_data.Win32Error":"N\/A","winlog.event_data.Library":"N\/A","winlog.event_data.DnsHostName":"N\/A","winlog.event_data.ServicePrincipalNames":"N\/A","winlog.event_data.ComputerAccountChange":"N\/A","winlog.event_data.UnsynchronizedTimeSeconds":"N\/A","winlog.event_data.TimeRemainingToSetLocalClockFreeRunningSeconds":"N\/A"}</t>
+  </si>
+  <si>
+    <t>On Nov 21 at 23:15:06, the application-specific permission settings did not grant Local Launch permission for the COM Server application with CLSID {21B896BF-008D-4D01-A27B-26061B960DD7} and APPID {03E09F3B-DCE4-44FE-A9CF-82D050827E1C} to the user EDEN\Administrator (SID: S-1-5-21-2843347860-584263628-2898511189-500) on computer WIN-1D3611F7FUE.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "previous_output": "10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/role HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/robots HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/robotics HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/robot HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/roaming HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/roam HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/ro HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/roadmap HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/right HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:03 +0000] \"GET /wp-includes/blocks/html/rhtml HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:03 +0000] \"GET /wp-includes/blocks/html/rfid HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/blocks/html/roles"}, "rule": {"firedtimes": 14254, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:42:04 +0000] \"GET /wp-includes/blocks/html/roles HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:42:04.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026382.164046724"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:42:04, multiple web server 404 errors were triggered from the same source IP 10.237.1.238 for GET requests to various paths under /wp-includes/blocks/html/, including /roles. Triggered 14,254 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.35.206", "name": "wazuh-client", "id": "27"}, "previous_output": "172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/consumer HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/consulting HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/constants HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/console HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/constant HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/connectors HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/connector HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/conn HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/connections HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/connect HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/conlib HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.17.130.196", "id": "404", "url": "/wp-includes/js/tinymce/skins/wordpress/images/cont"}, "rule": {"firedtimes": 27434, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.17.130.196 - - [18/Jan/2022:12:37:38 +0000] \"GET /wp-includes/js/tinymce/skins/wordpress/images/cont HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-18T12:37:38.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1686442699.260232224"}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:37:38, multiple web server 404 errors were triggered from the same source IP 172.17.130.196 for GET requests to various paths under /wp-includes/js/tin</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "data": {"srcip": "18.205.169.190", "dstip": "192.168.128.4:33860", "id": "1:2230003:1"}, "rule": {"firedtimes": 195, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/19/2022-12:47:17.745424  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 18.205.169.190:443 -&gt; 192.168.128.4:33860", "id": "1686529678.569981", "predecoder": {"timestamp": "01/19/2022-12:47:17.745424"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-19T12:47:17.745424Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"city_name": "Ashburn", "country_name": "United States", "region_name": "Virginia", "location": {"lon": -77.4728, "lat": 39.0481}}}</t>
+  </si>
+  <si>
+    <t>On Jan 18 at 12:37:38, multiple web server 404 errors were triggered from the same source IP 172.17.130.196 for GET requests to various paths under /wp-includes/js/tinymce/skins/wordpress/images/, including /cont. Triggered 27,434 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.2.114", "name": "wazuh-client", "id": "32"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.38.243.125", "id": "404", "url": "/wp-includes/blocks/embed/vbseocp"}, "rule": {"firedtimes": 159043, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.38.243.125 - - [30/Jan/2022:07:46:36 +0000] \"GET /wp-includes/blocks/embed/vbseocp HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-30T07:46:36.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1689348637.130860293"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 07:46:36, a web server 404 error was triggered for a GET request to /wp-includes/blocks/embed/vbseocp from IP 10.38.243.125. This activity, flagged as a potential attack, was triggered 159,043 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-13:40:03.711122"}, "agent": {"ip": "10.182.194.5", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.182.193.181", "dstip": "10.182.194.5:46422", "id": "1:2230003:1"}, "rule": {"firedtimes": 684, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-13:40:03.711122  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.182.193.181:443 -&gt; 10.182.194.5:46422", "input": {"type": "log"}, "@timestamp": "2022-02-08T13:40:03.711122Z", "location": "/var/log/suricata/fast.log", "id": "1690152493.27273531"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 13:40:03, a Suricata alert was triggered for invalid TLS handshake traffic from IP 10.182.193.181 to IP 10.182.194.5 over TCP. Allowed, triggered 684 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "23.97.225.52", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1518557442010305.000000", "dest_ip": "10.70.32.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28,29-23-24-25-256-257,0", "hash": "029f230ecf557eb57747b5debc47512c"}, "sni": "e3.adpushup.com"}, "dest_port": "60748", "flow": {"pkts_toserver": "12", "start": "2022-01-29T12:36:54.191681+0000", "bytes_toclient": "448", "bytes_toserver": "3670", "pkts_toclient": "3"}, "timestamp": "2022-01-29T12:36:54.267217+0000"}, "rule": {"firedtimes": 550, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T12:36:54.267217Z", "location": "/var/log/suricata/eve.json", "id": "1688154022.5373507"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 12:36:54, a Suricata alert was triggered for a TLS invalid handshake message from IP 23.97.225.52 to IP 10.70.32.4 on port 60748 over TCP. The TLS version was undetermined, and the Server Name Indication (SNI) was "e3.adpushup.com." This event was triggered 550 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "collinsbecker-mail", "program_name": "dovecot", "timestamp": "Jan 30 17:47:02"}, "agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 312, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 17:47:02 collinsbecker-mail dovecot: imap-login: Login: user=&lt;michael.sutton&gt;, method=PLAIN, rip=10.70.34.215, lip=10.70.34.215, mpid=28167, TLS, session=&lt;e8xjQdDWVpwKRiLX&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T17:47:02.000000Z", "location": "/var/log/syslog", "id": "1688259030.276612"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 17:47:02, a successful Dovecot IMAP login for user "michael.sutton" from IP 10.70.34.215 over TLS was recorded on host "collinsbecker-mail." This event was triggered 312 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "47058", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "866723643630536.000000", "dest_ip": "198.47.127.20", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-16-5-51-43-13-28-21,29-23-24-25-256-257,0", "hash": "a75de44db3e351bbd8d38b64c41f444e"}, "sni": "simage4.pubmatic.com"}, "dest_port": "443", "flow": {"pkts_toserver": "9", "start": "2022-01-29T14:44:53.107464+0000", "bytes_toclient": "445", "bytes_toserver": "1777", "pkts_toclient": "5"}, "timestamp": "2022-01-29T14:44:53.176401+0000"}, "rule": {"firedtimes": 111, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T14:44:53.176401Z", "location": "/var/log/suricata/eve.json", "id": "1688161702.10123105"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:44:53, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.70.32.4 to 198.47.127.20 over TCP. The alert was categorized as "Generic Protocol Command Decode" and was triggered 111 times. The destination SNI was identified as "simage4.pubmatic.com".</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.38.243.24", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.38.243.24", "src_port": "41334", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "490732480548603.000000", "dest_ip": "10.38.242.195", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4866-4867-4865-49196-49200-159-52393-52392-52394-49195-49199-158-49188-49192-107-49187-49191-103-49162-49172-57-49161-49171-51-157-156-61-60-53-47-255,0-11-10-35-22-23-49-13-43-45-51-21,29-23-30-25-24,0-1-2", "hash": "e0ff89ed9185dfb09184797a4c3f2e1c"}, "sni": "mail.dmz.flores.wheeler.biz"}, "dest_port": "443", "flow": {"pkts_toserver": "6", "start": "2022-01-30T13:14:22.380667+0000", "bytes_toclient": "496", "bytes_toserver": "1842", "pkts_toclient": "3"}, "timestamp": "2022-01-30T13:14:22.394698+0000"}, "rule": {"firedtimes": 716, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-30T13:14:22.394698Z", "location": "/var/log/suricata/eve.json", "id": "1689368297.317212169"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 13:14:11, a Dovecot Authentication Success event was recorded. User kieran.hughes successfully logged in using the PLAIN method from IP 172.27.183.191. The session was established over TLS. The event has been triggered 657 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  8 13:43:15"}, "agent": {"ip": "10.182.193.181", "name": "wazuh-client", "id": "32"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 969, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 13:43:15 mail dovecot: imap-login: Login: user=&lt;amy.anderson&gt;, method=PLAIN, rip=10.182.193.181, lip=10.182.193.181, mpid=29397, TLS, session=&lt;cvYf5oHXjK0KtsG1&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T13:43:15.000000Z", "location": "/var/log/syslog", "id": "1690152684.27377367"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 13:43:15, a successful Dovecot IMAP login for user "amy.anderson" from IP 10.182.193.181 over TLS was recorded. The event was triggered 969 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-content/themes/go/dist/images/social/hr"}, "rule": {"firedtimes": 373834, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:55:04 +0000] \"GET /wp-content/themes/go/dist/images/social/hr HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:55:04.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687027162.302597606"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:55:04, a web server 404 error was triggered for a GET request to /wp-content/themes/go/dist/images/social/hr from IP 10.237.1.238. The event was categorized as an "Attack" and occurred 373,834 times.</t>
+  </si>
+  <si>
     <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "POST", "srcip": "172.19.131.174", "id": "404", "url": "/sdk"}, "rule": {"firedtimes": 3, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:01 +0000] \"POST /sdk HTTP/1.1\" 404 360 \"-\" \"Mozilla/5.0 (compatible; Nmap Scripting Engine; https://nmap.org/book/nse.html)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:01.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988653.6733986"}</t>
   </si>
   <si>
     <t>On Jan 24 at 03:57:01, a web server alert was triggered for a 404 error during a POST request from IP 172.19.131.174 to "/sdk," indicating potential attack or reconnaissance activity. Triggered 3 times. Potentially Suspicious</t>
   </si>
   <si>
-    <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/admin-console"}, "rule": {"firedtimes": 320, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:27 +0000] \"GET /admin-console HTTP/1.1\" 404 3383 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:27.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988679.7060527"}</t>
-  </si>
-  <si>
-    <t>On Jan 24 at 03:57:27, a web server alert was triggered for a 404 error during a GET request from IP 172.19.131.174 to "/admin-console," indicating potential attack or reconnaissance activity. Triggered 320 times. Potentially Suspicious</t>
-  </si>
-  <si>
     <t>{"agent": {"ip": "10.143.2.4", "name": "wazuh-client", "id": "10"}, "previous_output": "172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boxes HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /box HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boutique HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bot-trap HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bottom HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bots HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bot HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boot HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /boost_stats HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /bookstore HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /books HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.19.131.174", "id": "404", "url": "/br"}, "rule": {"firedtimes": 51, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.19.131.174 - - [24/Jan/2022:03:57:28 +0000] \"GET /br HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-24T03:57:28.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1685988680.7298785"}</t>
   </si>
   <si>
     <t>On Jan 24 at 03:57:28, a web server alert was triggered for multiple 404 errors during GET requests from IP 172.19.131.174, indicating potential web scanning or reconnaissance activity. Triggered 51 times. Potentially Suspicious</t>
   </si>
   <si>
-    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 24 15:28:52"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 302, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 24 15:28:52 mail dovecot: imap-login: Login: user=&lt;toby.white&gt;, method=PLAIN, rip=172.19.130.4, lip=172.19.130.4, mpid=9731, TLS, session=&lt;+386oFXWFOKsE4IE&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-24T15:28:52.000000Z", "location": "/var/log/syslog", "id": "1686030164.3532436"}</t>
-  </si>
-  <si>
-    <t>On Jan 24 at 15:28:52, a Dovecot authentication success was logged for user "toby.white" from IP 172.19.130.4 using the PLAIN method with TLS. Triggered 302 times. Not marked as suspicious.</t>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  8 07:55:11"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 192, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 07:55:11 mail dovecot: imap-login: Login: user=&lt;jeffrey.green&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=23594, TLS, session=&lt;FHFWCX3Xao4K7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:55:11.000000Z", "location": "/var/log/syslog", "id": "1687027170.303850658"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:55:11, a Dovecot authentication success was logged for user jeffrey.green. The login originated from IP 10.237.2.255 using the IMAP protocol over TLS. The event was categorized as "Authentication Success" and has occurred 192 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-content/themes/go/dist/images/social/ssfm"}, "rule": {"firedtimes": 375506, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:55:12 +0000] \"GET /wp-content/themes/go/dist/images/social/ssfm HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:55:12.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687027170.303856166"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:55:12, a web server responded with a 404 error for a GET request to /wp-content/themes/go/dist/images/social/ssfm. The request originated from IP 10.237.1.238. The event was categorized as a "Web server 400 error code" and has been triggered 375,506 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "wilsonahmed-mail", "program_name": "dovecot", "timestamp": "Feb  8 14:28:11"}, "agent": {"ip": "192.168.224.185", "name": "wazuh-client", "id": "31"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 649, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 14:28:11 wilsonahmed-mail dovecot: imap-login: Login: user=&lt;chase.lawrence&gt;, method=PLAIN, rip=192.168.224.185, lip=192.168.224.185, mpid=8187, TLS, session=&lt;363VhoLX5OHAqOC5&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T14:28:11.000000Z", "location": "/var/log/mail.info", "id": "1690155380.29021594"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 14:28:11, a Dovecot authentication success event occurred for the user chase.lawrence. The login was from IP 192.168.224.185 using the PLAIN method over a TLS session. This event has been triggered 649 times and was categorized as "Authentication Success."</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.182.193.78", "name": "wazuh-client", "id": "10"}, "data": {"srcip": "151.101.194.49", "dstip": "10.182.193.78:41932", "id": "1:2230010:1"}, "rule": {"firedtimes": 323, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "02/08/2022-14:35:31.312576  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 151.101.194.49:443 -&gt; 10.182.193.78:41932", "id": "1690155819.29209087", "predecoder": {"timestamp": "02/08/2022-14:35:31.312576"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-02-08T14:35:31.312576Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"country_name": "United States", "location": {"lon": -97.822, "lat": 37.751}}}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 14:35:31, a Suricata alert was triggered for invalid TLS record/traffic from IP 151.101.194.49 to 10.182.193.78 over TCP. The alert was categorized as "Generic Protocol Command Decode" and was triggered 323 times. The source IP is located in the United States.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "37.252.161.190", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1414934596114737.000000", "dest_ip": "10.70.32.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-16-5-51-43-13-28-21,29-23-24-25-256-257,0", "hash": "a75de44db3e351bbd8d38b64c41f444e"}, "sni": "prebid.adnxs.com"}, "dest_port": "41688", "flow": {"pkts_toserver": "11", "start": "2022-01-30T05:28:27.022833+0000", "bytes_toclient": "206", "bytes_toserver": "1866", "pkts_toclient": "3"}, "timestamp": "2022-01-30T05:28:27.112538+0000"}, "rule": {"firedtimes": 280, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-30T05:28:27.112538Z", "location": "/var/log/suricata/eve.json", "id": "1688214715.2418709"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 05:28:27, an alert was triggered for invalid TLS record traffic. The event came from the source IP 37.252.161.190 and was destined for IP 10.70.32.4 on port 41688. This event was triggered 280 times. The alert was caused by a SURICATA TLS invalid record/traffic issue. The server involved was prebid.adnxs.com.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-14:35:31.314913"}, "agent": {"ip": "10.182.193.78", "name": "wazuh-client", "id": "10"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.182.193.78", "dstip": "151.101.194.49:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 324, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-14:35:31.314913  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.182.193.78:41932 -&gt; 151.101.194.49:443", "input": {"type": "log"}, "@timestamp": "2022-02-08T14:35:31.314913Z", "location": "/var/log/suricata/fast.log", "id": "1690155819.29209498"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 14:35:31, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.182.193.78 to 151.101.194.49 over TCP. The alert, categorized as "Generic Protocol Command Decode", was triggered 324 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "fischer-mail", "program_name": "dovecot", "timestamp": "Jan 30 13:14:11"}, "agent": {"ip": "172.27.181.174", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 657, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 13:14:11 fischer-mail dovecot: imap-login: Login: user=&lt;kieran.hughes&gt;, method=PLAIN, rip=172.27.183.191, lip=172.27.183.191, mpid=4109, TLS, session=&lt;asiacczWbsCsG7e/&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T13:14:11.000000Z", "location": "/var/log/syslog", "id": "1689368285.317203903"}</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/30/2022-05:28:27.166331"}, "agent": {"ip": "172.24.249.224", "name": "wazuh-client", "id": "23"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.24.249.224", "dstip": "37.252.161.190:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 261, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/30/2022-05:28:27.166331  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 172.24.249.224:41690 -&gt; 37.252.161.190:443", "input": {"type": "log"}, "@timestamp": "2022-01-30T05:28:27.166331Z", "location": "/var/log/suricata/fast.log", "id": "1688214715.2409213"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 05:28:27, an IDS event was triggered for invalid TLS handshake message. The source IP 172.24.249.224 attempted to connect to 37.252.161.190 on port 443. The event was logged 261 times. The rule triggered is related to a SURICATA TLS invalid handshake message.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.132.56.1", "name": "wazuh-client", "id": "30"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "192.168.96.4", "src_port": "54846", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "400689768129878.000000", "dest_ip": "52.21.178.134", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "pi.pardot.com"}, "dest_port": "443", "flow": {"pkts_toserver": "8", "start": "2022-01-23T13:42:35.812374+0000", "bytes_toclient": "382", "bytes_toserver": "1647", "pkts_toclient": "2"}, "timestamp": "2022-01-23T13:42:36.150464+0000"}, "rule": {"firedtimes": 165, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-23T13:42:36.150464Z", "location": "/var/log/suricata/eve.json", "id": "1688766801.11219876"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 13:42:36, a Suricata alert was triggered for an invalid TLS handshake message from IP 192.168.96.4 to 52.21.178.134 over TCP. The alert was categorized as Generic Protocol Command Decode and has been triggered 165 times. The destination SNI was identified as pi.pardot.com.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/15/2022-10:21:55.876522"}, "agent": {"ip": "192.168.104.218", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.104.218", "dstip": "192.168.104.1:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 152, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/15/2022-10:21:55.876522  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.104.218:49089 -&gt; 192.168.104.1:53", "input": {"type": "log"}, "@timestamp": "2022-01-15T10:21:55.876522Z", "location": "/var/log/suricata/fast.log", "id": "1687299101.43236488"}</t>
+  </si>
+  <si>
+    <t>On Jan 15 at 10:21:55, an IDS event was triggered for a DNS query to a .biz top-level domain (TLD) from the source IP 192.168.104.218 to the destination IP 192.168.104.1 on port 53. The event was logged 152 times, and it was categorized as "Potentially Bad Traffic." This event was triggered by the rule with ID 2027863:4, which is related to observed DNS queries to .biz TLDs.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "hayes-mail", "program_name": "dovecot", "timestamp": "Jan 15 10:24:42"}, "agent": {"ip": "10.229.2.25", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 229, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 15 10:24:42 hayes-mail dovecot: imap-login: Login: user=&lt;katy.martin&gt;, method=PLAIN, rip=10.229.2.25, lip=10.229.2.25, mpid=17210, TLS, session=&lt;8fPgU5zVvskK5QIZ&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-15T10:24:42.000000Z", "location": "/var/log/syslog", "id": "1687299268.43349214"}</t>
+  </si>
+  <si>
+    <t>On Jan 15 at 10:24:42, a successful Dovecot IMAP login was recorded for user "katy.martin" from the IP address 10.229.2.25, using the PLAIN authentication method over TLS. The event, which was triggered 229 times, falls under the "Dovecot Authentication Success" category and complies with various standards like PCI DSS, HIPAA, and GDPR. This event was logged with the rule ID 9701 and includes a session ID &lt;8fPgU5zVvskK5QIZ&gt;.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/21/2022-08:30:05.314665"}, "agent": {"ip": "172.19.128.1", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.230.4", "dstip": "128.59.105.24:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 109, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/21/2022-08:30:05.314665  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 192.168.230.4:34430 -&gt; 128.59.105.24:443", "input": {"type": "log"}, "@timestamp": "2022-01-21T08:30:05.314665Z", "location": "/var/log/suricata/fast.log", "id": "1685745836.1386157"}</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "freshclam", "timestamp": "Jan 24 12:35:11"}, "agent": {"ip": "172.19.130.4", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 3, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Jan 24 12:35:11 mail freshclam[31104]: Mon Jan 24 12:35:11 2022 -&gt; ClamAV update process started at Mon Jan 24 12:35:11 2022", "input": {"type": "log"}, "@timestamp": "2022-01-24T12:35:11.000000Z", "location": "/var/log/syslog", "id": "1686019742.2213766"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 12:35:11, a ClamAV database update process was initiated on the host mail by the program freshclam running on agent IP 172.19.130.4. The update was classified under "ClamAV database update" with a rule level of 3 and no email alerts triggered.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.19.130.68", "name": "wazuh-client", "id": "6"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "172.19.130.4", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "761530431093438.000000", "dest_ip": "172.19.130.68", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4866-4867-4865-49196-49200-159-52393-52392-52394-49195-49199-158-49188-49192-107-49187-49191-103-49162-49172-57-49161-49171-51-157-156-61-60-53-47-255,0-11-10-35-22-23-49-13-43-45-51-21,29-23-30-25-24,0-1-2", "hash": "e0ff89ed9185dfb09184797a4c3f2e1c"}, "sni": "mail.dmz.smith.russellmitchell.com"}, "dest_port": "36874", "flow": {"pkts_toserver": "5", "start": "2022-01-24T12:43:00.834238+0000", "bytes_toclient": "206", "bytes_toserver": "981", "pkts_toclient": "3"}, "timestamp": "2022-01-24T12:43:00.885262+0000"}, "rule": {"firedtimes": 154, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-24T12:43:00.885262Z", "location": "/var/log/suricata/eve.json", "id": "1686020211.2244671"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 12:43:00, a Suricata alert was triggered for invalid TLS record traffic from IP 172.19.130.4 to 172.19.130.68 over TCP. The traffic was allowed, associated with SNI mail.dmz.smith.russellmitchell.com, and triggered 154 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/24/2022-16:50:16.023029"}, "agent": {"ip": "172.19.130.68", "name": "wazuh-client", "id": "6"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.19.130.68", "dstip": "172.19.130.4:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 3, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/24/2022-16:50:16.023029  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 172.19.130.68:41362 -&gt; 172.19.130.4:443", "input": {"type": "log"}, "@timestamp": "2022-01-24T16:50:16.023029Z", "location": "/var/log/suricata/fast.log", "id": "1686035047.4120527"}</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.19.130.68", "name": "wazuh-client", "id": "6"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "172.19.130.68", "src_port": "41362", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "631591462773129.000000", "dest_ip": "172.19.130.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4866-4867-4865-49196-49200-159-52393-52392-52394-49195-49199-158-49188-49192-107-49187-49191-103-49162-49172-57-49161-49171-51-157-156-61-60-53-47-255,0-11-10-35-22-23-49-13-43-45-51-21,29-23-30-25-24,0-1-2", "hash": "e0ff89ed9185dfb09184797a4c3f2e1c"}, "sni": "mail.dmz.smith.russellmitchell.com"}, "dest_port": "443", "flow": {"pkts_toserver": "6", "start": "2022-01-24T16:50:16.008585+0000", "bytes_toclient": "496", "bytes_toserver": "2445", "pkts_toclient": "3"}, "timestamp": "2022-01-24T16:50:16.023029+0000"}, "rule": {"firedtimes": 3, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-24T16:50:16.023029Z", "location": "/var/log/suricata/eve.json", "id": "1686035047.4115486"}</t>
+  </si>
+  <si>
+    <t>On Jan 24 at 16:50:16, a Suricata alert was triggered for invalid TLS record traffic from IP 172.19.130.68 to 172.19.130.4 over TCP. The event was classified as "Generic Protocol Command Decode" and triggered 3 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.104.218", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.403-.oDfw7ItO0RO98DUlRsRHn0rOZjegNNXOvT4duG3Vmr53p4ZKhDUH7vqwrtma-.88enY4xDX8xadCkQ1APF*dMS45rbezp16cyVaFLLxdVn5sXMoJ/H20xzsjBF-.4rWoMxkBvl1gLxqoyaozJbq/A*CxXkqJXGPJdpD2azHWMBibga5uI7TRDgFs-.customers_2013.xlsx.kiirjekuimkpcrcioastvkeodpnimx.biz", "id": 6066, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.104.218", "src_port": "43444", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1979227182999773.000000", "dest_ip": "192.168.104.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-01-14T00:00:44.796893+0000", "bytes_toclient": "0", "bytes_toserver": "310", "pkts_toclient": "0"}, "timestamp": "2022-01-14T00:00:44.796893+0000"}, "rule": {"firedtimes": 20, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-14T00:00:44.796893Z", "location": "/var/log/suricata/eve.json", "id": "1687175430.86731"}</t>
+  </si>
+  <si>
+    <t>On Jan 14 at 00:00:44, a Suricata alert was triggered for a DNS query from IP 192.168.104.218 to a .biz TLD domain. The event was categorized as "Potentially Bad Traffic" and triggered 20 times. The domain queried was identified as customers_2013.xlsx.kiirjekuimkpcrcioastvkeodpnimx.biz.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 16 15:12:11"}, "agent": {"ip": "172.21.131.50", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 33, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 16 15:12:11 mail dovecot: imap-login: Login: user=&lt;brian.thomas&gt;, method=PLAIN, rip=172.21.131.50, lip=172.21.131.50, mpid=11665, TLS, session=&lt;z2/VdbTVwrCsFYMy&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-16T15:12:11.000000Z", "location": "/var/log/syslog", "id": "1687402917.3218039"}</t>
+  </si>
+  <si>
+    <t>On Jan 16 at 15:12:11, a successful Dovecot IMAP login for user "brian.thomas" from IP 172.21.131.50 over TLS was recorded. The event was triggered 33 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.229.0.4", "name": "wazuh-client", "id": "30"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.229.0.4", "src_port": "49426", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1703853155796643.000000", "dest_ip": "194.0.59.30", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "www.bloglovin.com"}, "dest_port": "443", "flow": {"pkts_toserver": "8", "start": "2022-01-16T15:30:33.050851+0000", "bytes_toclient": "464", "bytes_toserver": "1544", "pkts_toclient": "3"}, "timestamp": "2022-01-16T15:30:33.232551+0000"}, "rule": {"firedtimes": 115, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-16T15:30:33.232551Z", "location": "/var/log/suricata/eve.json", "id": "1687404020.3525328"}</t>
+  </si>
+  <si>
+    <t>On Jan 16 at 15:30:33, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.229.0.4 to 194.0.59.30 over TCP. The destination SNI was identified as "www.bloglovin.com," and the event was triggered 115 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.229.0.4", "name": "wazuh-client", "id": "30"}, "data": {"srcip": "194.0.59.42", "dstip": "10.229.0.4:40470", "id": "1:2230010:1"}, "rule": {"firedtimes": 115, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/16/2022-15:30:33.520083  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 194.0.59.42:443 -&gt; 10.229.0.4:40470", "id": "1687404020.3555941", "predecoder": {"timestamp": "01/16/2022-15:30:33.520083"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-16T15:30:33.520083Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"country_name": "Sweden", "location": {"lon": 18.056, "lat": 59.3247}}}</t>
+  </si>
+  <si>
+    <t>On Jan 16 at 15:30:33, a Suricata alert was triggered for invalid TLS record traffic from IP 194.0.59.42 to 10.229.0.4 over TCP. The event was categorized as "Generic Protocol Command Decode" and triggered 115 times. The source IP geolocates to Sweden.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/29/2022-14:44:59.227055"}, "agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.70.32.4", "dstip": "75.2.13.80:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 115, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/29/2022-14:44:59.227055  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.70.32.4:49618 -&gt; 75.2.13.80:443", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:44:59.227055Z", "location": "/var/log/suricata/fast.log", "id": "1688161707.10164839"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:44:59, a Suricata alert was triggered for invalid TLS record traffic from IP 10.70.32.4 to 75.2.13.80 over TCP. The event was categorized as "Generic Protocol Command Decode" and triggered 115 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.132.56.81", "name": "wazuh-client", "id": "24"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.132.56.81", "src_port": "58320", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "929419569690200.000000", "dest_ip": "52.223.40.198", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "insight.adsrvr.org"}, "dest_port": "443", "flow": {"pkts_toserver": "11", "start": "2022-01-23T13:42:36.030296+0000", "bytes_toclient": "1083", "bytes_toserver": "1920", "pkts_toclient": "8"}, "timestamp": "2022-01-23T13:42:36.167040+0000"}, "rule": {"firedtimes": 176, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-23T13:42:36.167040Z", "location": "/var/log/suricata/eve.json", "id": "1688766801.11249545"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 13:42:36, a Suricata alert was triggered for invalid TLS record traffic from IP 10.132.56.81 to 52.223.40.198 over TCP. The event was categorized as "Generic Protocol Command Decode," with 176 occurrences. The destination SNI was identified as "insight.adsrvr.org."</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "williams-mail", "program_name": "dovecot", "timestamp": "Jan 30 13:13:51"}, "agent": {"ip": "172.27.181.253", "name": "wazuh-client", "id": "26"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 649, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 13:13:51 williams-mail dovecot: imap-login: Login: user=&lt;nicole.white&gt;, method=PLAIN, rip=172.27.182.4, lip=172.27.182.4, mpid=13989, TLS, session=&lt;a89scMzWQOysG7YE&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T13:13:51.000000Z", "location": "/var/log/mail.info", "id": "1689368265.317199850"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 13:13:51, a successful Dovecot IMAP login was recorded for user "nicole.white" from IP 172.27.182.4 over TLS. The event was triggered 649 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.132.56.1", "name": "wazuh-client", "id": "30"}, "data": {"srcip": "35.163.112.241", "dstip": "192.168.96.4:36470", "id": "1:2230010:1"}, "rule": {"firedtimes": 60, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/21/2022-12:09:45.169973  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 35.163.112.241:443 -&gt; 192.168.96.4:36470", "id": "1688588428.12045308", "predecoder": {"timestamp": "01/21/2022-12:09:45.169973"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-21T12:09:45.169973Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"city_name": "Boardman", "country_name": "United States", "region_name": "Oregon", "location": {"lon": -119.7143, "lat": 45.8491}}}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 12:09:45, an IDS event was triggered for outbound traffic from IP 35.163.112.241 to IP 192.168.96.4:36470. The event detected an invalid TLS record/traffic, classified as a "Generic Protocol Command Decode." The event was triggered 60 times. The traffic originated from Boardman, Oregon, United States.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 23 15:58:14"}, "agent": {"ip": "10.132.56.171", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 121, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 23 15:58:14 mail dovecot: imap-login: Login: user=&lt;deborah.hunt&gt;, method=PLAIN, rip=10.132.56.171, lip=10.132.56.171, mpid=8644, TLS, session=&lt;9RVx60HW3L4KhDir&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-23T15:58:14.000000Z", "location": "/var/log/mail.info", "id": "1688774938.525041"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 15:58:14, a successful Dovecot IMAP login for user "deborah.hunt" was recorded from IP 10.132.56.171 over TLS. The event was triggered 121 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/30/2022-13:14:22.394475"}, "agent": {"ip": "10.38.243.24", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.38.242.195", "dstip": "10.38.243.24:41334", "id": "1:2230010:1"}, "rule": {"firedtimes": 650, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/30/2022-13:14:22.394475  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.38.242.195:443 -&gt; 10.38.243.24:41334", "input": {"type": "log"}, "@timestamp": "2022-01-30T13:14:22.394475Z", "location": "/var/log/suricata/fast.log", "id": "1689368297.317215514"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 13:14:22, a Suricata alert was triggered for invalid TLS record traffic from IP 10.38.242.195 to 10.38.243.24 over TCP. The event was labeled as "Generic Protocol Command Decode" and was triggered 650 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/30/2022-13:07:55.046363"}, "agent": {"ip": "10.38.243.24", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.38.242.195", "dstip": "10.38.243.24:41230", "id": "1:2230003:1"}, "rule": {"firedtimes": 592, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/30/2022-13:07:55.046363  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.38.242.195:443 -&gt; 10.38.243.24:41230", "input": {"type": "log"}, "@timestamp": "2022-01-30T13:07:55.046363Z", "location": "/var/log/suricata/fast.log", "id": "1689367910.317011112"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 13:07:55, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.38.242.195 to 10.38.243.24 over TCP. The event was labeled as "Generic Protocol Command Decode" and was triggered 592 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "lane-mail", "program_name": "dovecot", "timestamp": "Feb  8 14:37:20"}, "agent": {"ip": "192.168.226.198", "name": "wazuh-client", "id": "15"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 800, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 14:37:20 lane-mail dovecot: imap-login: Login: user=&lt;jasmine.anderson&gt;, method=PLAIN, rip=192.168.226.198, lip=192.168.226.198, mpid=12362, TLS, session=&lt;IJuVp4LXosbAqOLG&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T14:37:20.000000Z", "location": "/var/log/mail.log", "id": "1690155929.29298583"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 14:37:20, a successful Dovecot IMAP login for user "jasmine.anderson" from IP 192.168.226.198 over TLS was recorded. The event was triggered 800 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-14:38:01.617842"}, "agent": {"ip": "10.182.194.5", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.182.194.5", "dstip": "10.182.193.181:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 352, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-14:38:01.617842  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.182.194.5:48886 -&gt; 10.182.193.181:443", "input": {"type": "log"}, "@timestamp": "2022-02-08T14:38:01.617842Z", "location": "/var/log/suricata/fast.log", "id": "1690155969.29310322"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 14:38:01, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.182.194.5 to 10.182.193.181 over TCP. The event was triggered 352 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "previous_output": "10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web1 HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web_users HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web.xml HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web.config HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/weather HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/wdav HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/wcs HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/wc HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/wbsadmin HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/wbboard HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-content/themes/go/dist/images/social/web2"}, "rule": {"firedtimes": 28965, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:55:14 +0000] \"GET /wp-content/themes/go/dist/images/social/web2 HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:55:14.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687027172.304229059"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 07:55:14, a vulnerability scanning attempt was detected from IP 10.237.1.238. Multiple 404 error codes were logged for various GET requests targeting paths such as /wp-content/themes/go/dist/images/social/web2. The event was triggered 28,965 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "34804", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "716764890770101.000000", "dest_ip": "114.179.184.144", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "tvtopic.goo.ne.jp"}, "dest_port": "443", "flow": {"pkts_toserver": "7", "start": "2022-01-29T14:52:35.633525+0000", "bytes_toclient": "389", "bytes_toserver": "1109", "pkts_toclient": "5"}, "timestamp": "2022-01-29T14:52:36.403213+0000"}, "rule": {"firedtimes": 181, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T14:52:36.403213Z", "location": "/var/log/suricata/eve.json", "id": "1688162164.10320310"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:52:36, a Suricata alert was triggered for invalid TLS handshake message from IP 10.70.32.4 to 114.179.184.144 (Japan) over TCP. The event was categorized as "Generic Protocol Command Decode" and was triggered 181 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "34808", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "2039967005256458.000000", "dest_ip": "114.179.184.144", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "tvtopic.goo.ne.jp"}, "dest_port": "443", "flow": {"pkts_toserver": "7", "start": "2022-01-29T14:52:35.633610+0000", "bytes_toclient": "389", "bytes_toserver": "1109", "pkts_toclient": "5"}, "timestamp": "2022-01-29T14:52:36.381429+0000"}, "rule": {"firedtimes": 176, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T14:52:36.381429Z", "location": "/var/log/suricata/eve.json", "id": "1688162164.10310429"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:52:36, an alert was triggered for invalid TLS record/traffic from IP 10.70.32.4 to IP 114.179.184.144 over port 443. The event, identified by Suricata, was marked as "allowed" and triggered 176 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "freshclam", "timestamp": "Feb  8 21:46:44"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 8, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Feb  8 21:46:44 mail freshclam[30381]: Tue Feb  8 21:46:44 2022 -&gt; ClamAV update process started at Tue Feb  8 21:46:44 2022", "input": {"type": "log"}, "@timestamp": "2022-02-08T21:46:44.000000Z", "location": "/var/log/syslog", "id": "1687077062.4134446"}</t>
+  </si>
+  <si>
+    <t>On Feb 8 at 21:46:44, a ClamAV database update process was started on the system with hostname "mail" and IP 10.237.2.255. This event has been triggered 8 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "data": {"srcip": "114.179.184.144", "dstip": "10.70.32.4:34808", "id": "1:2230010:1"}, "rule": {"firedtimes": 159, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/29/2022-14:52:36.380167  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 114.179.184.144:443 -&gt; 10.70.32.4:34808", "id": "1688162164.10259323", "predecoder": {"timestamp": "01/29/2022-14:52:36.380167"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T14:52:36.380167Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"country_name": "Japan", "location": {"lon": 139.69, "lat": 35.69}}}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:52:36, a Suricata alert was triggered for invalid TLS record traffic from IP 114.179.184.144 (Japan) to 10.70.32.4 over TCP. The event was categorized as "Generic Protocol Command Decode" and was triggered 159 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "whittaker-mail", "program_name": "dovecot", "timestamp": "Jan 19 16:25:06"}, "agent": {"ip": "192.168.128.195", "name": "wazuh-client", "id": "8"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 37, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 19 16:25:06 whittaker-mail dovecot: imap-login: Login: user=&lt;vanessa.mcneil&gt;, method=PLAIN, rip=192.168.131.228, lip=192.168.131.228, mpid=9502, TLS, session=&lt;lSol1PHVgq7AqIPk&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-19T16:25:06.000000Z", "location": "/var/log/mail.info", "id": "1686542746.3903462"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 16:25:06, a successful Dovecot IMAP login for user "vanessa.mcneil" from IP 192.168.131.228 over TLS was recorded. This event has been triggered 37 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "44.236.160.188", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "2231043068204996.000000", "dest_ip": "192.168.128.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-16-5-51-43-13-28-21,29-23-24-25-256-257,0", "hash": "a75de44db3e351bbd8d38b64c41f444e"}, "sni": "api.segment.io"}, "dest_port": "32914", "flow": {"pkts_toserver": "14", "start": "2022-01-19T15:43:11.333764+0000", "bytes_toclient": "257", "bytes_toserver": "8022", "pkts_toclient": "3"}, "timestamp": "2022-01-19T15:43:11.916279+0000"}, "rule": {"firedtimes": 110, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-19T15:43:11.916279Z", "location": "/var/log/suricata/eve.json", "id": "1686540232.3418396"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 15:43:11, a Suricata alert was triggered for invalid TLS record/traffic from IP 44.236.160.188 to 192.168.128.4 over TCP. The alert was categorized as "Generic Protocol Command Decode" and was triggered 110 times. The destination SNI was identified as "api.segment.io".</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/29/2022-14:52:36.654662"}, "agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.70.32.4", "dstip": "54.178.33.56:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 179, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/29/2022-14:52:36.654662  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.70.32.4:47212 -&gt; 54.178.33.56:443", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:52:36.654662Z", "location": "/var/log/suricata/fast.log", "id": "1688162164.10268466"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:52:36, an alert was triggered for invalid TLS record/traffic from IP 10.70.32.4 to IP 54.178.33.56 over port 443. The event, identified by Suricata, was classified as "Generic Protocol Command Decode" with a severity of 3 and triggered 179 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/19/2022-15:31:26.540879"}, "agent": {"ip": "172.17.130.196", "name": "wazuh-client", "id": "19"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.17.130.196", "dstip": "104.16.51.111:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 52, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/19/2022-15:31:26.540879  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 172.17.130.196:34336 -&gt; 104.16.51.111:443", "input": {"type": "log"}, "@timestamp": "2022-01-19T15:31:26.540879Z", "location": "/var/log/suricata/fast.log", "id": "1686539526.3250246"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 15:31:26, a Suricata alert was triggered for invalid TLS record traffic from IP 172.17.130.196 to 104.16.51.111 over TCP. The alert was categorized as "Generic Protocol Command Decode" and triggered 52 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.35.32.1", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "13.107.21.200", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "107505960507001.000000", "dest_ip": "192.168.128.4", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "bat.bing.com"}, "dest_port": "38690", "flow": {"pkts_toserver": "10", "start": "2022-01-19T15:30:30.611961+0000", "bytes_toclient": "174", "bytes_toserver": "1235", "pkts_toclient": "3"}, "timestamp": "2022-01-19T15:30:30.632951+0000"}, "rule": {"firedtimes": 22, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-19T15:30:30.632951Z", "location": "/var/log/suricata/eve.json", "id": "1686539470.3165937"}</t>
+  </si>
+  <si>
+    <t>On Jan 19 at 15:30:30, a Suricata alert was triggered for invalid TLS record traffic from IP 13.107.21.200 to 192.168.128.4 over TCP. The alert was categorized as "Generic Protocol Command Decode" and triggered 22 times. The destination SNI was identified as "bat.bing.com".</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "watkins-mail", "program_name": "dovecot", "timestamp": "Jan 21 12:08:29"}, "agent": {"ip": "192.168.96.99", "name": "wazuh-client", "id": "8"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 82, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 21 12:08:29 watkins-mail dovecot: imap-login: Login: user=&lt;emily.frost&gt;, method=PLAIN, rip=192.168.96.99, lip=192.168.96.99, mpid=23962, TLS, session=&lt;LjcbehbWXoLAqGBj&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-21T12:08:29.000000Z", "location": "/var/log/mail.log", "id": "1688588352.12038917"}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 12:08:29, a successful Dovecot IMAP login was recorded for user "emily.frost" from IP 192.168.96.99 over TLS. The event was triggered 82 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 29 14:57:29"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 12, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 29 14:57:29 mail dovecot: imap-login: Login: user=&lt;jonathan.owen&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=24671, TLS, session=&lt;K5kxxbnW0JGsGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:57:29.000000Z", "location": "/var/log/syslog", "id": "1688162457.10377054"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:57:29, a successful IMAP login was recorded for user "jonathan.owen" using the PLAIN authentication method from IP 172.24.251.90. The login was secured with TLS, and the event was triggered 12 times.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "45222", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1086933074954844.000000", "dest_ip": "99.83.181.31", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "signal-metrics-collector-beta.s-onetag.com"}, "dest_port": "443", "flow": {"pkts_toserver": "6", "start": "2022-01-29T14:48:51.903772+0000", "bytes_toclient": "174", "bytes_toserver": "1160", "pkts_toclient": "3"}, "timestamp": "2022-01-29T14:48:51.976359+0000"}, "rule": {"firedtimes": 136, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-29T14:48:51.976359Z", "location": "/var/log/suricata/eve.json", "id": "1688161939.10197137"}</t>
+  </si>
+  <si>
+    <t>On Jan 29 at 14:48:51, a Suricata alert was triggered for invalid TLS record traffic from IP 10.70.32.4 to 99.83.181.31 over TCP. The event was categorized as "Generic Protocol Command Decode" and was triggered 136 times. The destination SNI was identified as "signal-metrics-collector-beta.s-onetag.com".</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/16/2022-15:30:33.232551"}, "agent": {"ip": "10.229.0.4", "name": "wazuh-client", "id": "30"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.229.0.4", "dstip": "194.0.59.30:443", "id": "1:2230010:1"}, "rule": {"firedtimes": 105, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/16/2022-15:30:33.232551  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.229.0.4:49426 -&gt; 194.0.59.30:443", "input": {"type": "log"}, "@timestamp": "2022-01-16T15:30:33.232551Z", "location": "/var/log/suricata/fast.log", "id": "1687404020.3551852"}</t>
+  </si>
+  <si>
+    <t>On Jan 16 at 15:30:33, a Suricata alert was triggered for invalid TLS record traffic from IP 10.229.0.4 to 194.0.59.30 over TCP. The event was categorized as "Generic Protocol Command Decode" and was triggered 105 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "freshclam", "timestamp": "Jan 25 00:54:01"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 5, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Jan 25 00:54:01 mail freshclam[29593]: Tue Jan 25 00:54:01 2022 -&gt; ClamAV update process started at Tue Jan 25 00:54:01 2022", "input": {"type": "log"}, "@timestamp": "2022-01-25T00:54:01.000000Z", "location": "/var/log/syslog", "id": "1687766249.22361"}</t>
+  </si>
+  <si>
+    <t>On Jan 25 at 00:54:01, the ClamAV database update process was started on the system with the IP address 10.38.242.195. This event was triggered 5 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/21/2022-12:07:22.013655"}, "agent": {"ip": "10.132.57.136", "name": "wazuh-client", "id": "17"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.132.56.171", "dstip": "10.132.57.136:48832", "id": "1:2230010:1"}, "rule": {"firedtimes": 52, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/21/2022-12:07:22.013655  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.132.56.171:443 -&gt; 10.132.57.136:48832", "input": {"type": "log"}, "@timestamp": "2022-01-21T12:07:22.013655Z", "location": "/var/log/suricata/fast.log", "id": "1688588286.12034503"}</t>
+  </si>
+  <si>
+    <t>On Jan 21 at 12:07:22, an IDS event was triggered for outbound traffic from IP 10.132.56.171 to 10.132.57.136 over TCP. The event was related to a "TLS invalid record/traffic" and was triggered 52 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/23/2022-13:43:29.430638"}, "agent": {"ip": "10.132.57.136", "name": "wazuh-client", "id": "17"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.132.56.171", "dstip": "10.132.57.136:36258", "id": "1:2230010:1"}, "rule": {"firedtimes": 199, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/23/2022-13:43:29.430638  [**] [1:2230010:1] SURICATA TLS invalid record/traffic [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.132.56.171:443 -&gt; 10.132.57.136:36258", "input": {"type": "log"}, "@timestamp": "2022-01-23T13:43:29.430638Z", "location": "/var/log/suricata/fast.log", "id": "1688766853.11356925"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 13:43:29, a Suricata alert was triggered for invalid TLS record traffic from IP 10.132.56.171 to 10.132.57.136 over TCP. The event was categorized as "Generic Protocol Command Decode" and was triggered 199 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "khanwood-mail", "program_name": "dovecot", "timestamp": "Jan 30 13:07:40"}, "agent": {"ip": "172.27.182.4", "name": "wazuh-client", "id": "29"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 540, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 13:07:40 khanwood-mail dovecot: imap-login: Login: user=&lt;megan.stone&gt;, method=PLAIN, rip=172.27.181.253, lip=172.27.181.253, mpid=24615, TLS, session=&lt;JilPWszWBOasG7X9&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T13:07:40.000000Z", "location": "/var/log/syslog", "id": "1689367894.316982341"}</t>
+  </si>
+  <si>
+    <t>On Jan 30 at 13:07:40, a successful Dovecot IMAP login for user "megan.stone" from IP 172.27.181.253 over TLS was recorded. The event was triggered 540 times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.209-.g/0hE2xfiFxdbNYZmIS2h6HT*Ssr09Y0cocOaaU/cm6*9FMV9xkYjRrdkMvuYZ-.ucyOFX0hGwIguMtVsQlVsXqc8sJWU9O*EA68fm2ZdPhA0sTiJTGKL6I5pFVfVX-.customers_2016.xlsx.db-21.greer.biz", "id": 32963, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "58284", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1984603670742948.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:36:16.034724+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:36:16.034724+0000"}, "rule": {"firedtimes": 192, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:36:16.034724Z", "location": "/var/log/suricata/eve.json", "id": "1686759633.29133995"}
+</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:36:16, a Suricata alert detected a DNS query to the .biz TLD from source IP 172.28.192.4 to destination IP 172.28.255.254 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  5 05:36:18"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 57, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  5 05:36:18 mail dovecot: imap-login: Login: user=&lt;hunter.smith&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=19905, TLS, session=&lt;GLoqvz7X9NMK7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:36:18.000000Z", "location": "/var/log/syslog", "id": "1686759635.29137751"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:36:18, a Dovecot authentication success event was logged for user hunter.smith from IP 10.237.2.255 using the PLAIN method with a TLS session.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.210-.gOqvGqq/ikvAIT8MqXO7K7OQRIagV2W2KvIlKOn0MDjd/kXLSbxmBNLQuM00Uf-.rrLRnp4SEZH3SPCOtdjcjI3gdMrDnaWgipfSIpQxNtEq5tQ41FurEpwLqNRxgX-.customers_2016.xlsx.db-21.greer.biz", "id": 7627, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "46386", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1043529092977322.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:36:38.086698+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:36:38.086698+0000"}, "rule": {"firedtimes": 194, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:36:38.086698Z", "location": "/var/log/suricata/eve.json", "id": "1686759655.29140592"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:36:38, a Suricata alert detected a DNS query to the .biz TLD from source IP 192.168.131.109 to destination IP 192.168.128.1 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.212-.jMdGOhKNx0bYSNpPhMQsrSr3K0Dur5dW77x/6ic8fETuz4IuPhJsvnCbwueigK-.sqIfDj5i9azlrz/MeqiIkYiFg*EsZ5*ZYT50xJIp2REC2ZW0lhAwMC/hWl0hjB-.customers_2016.xlsx.db-21.greer.biz", "id": 55424, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "172.28.192.4", "src_port": "64031", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1154395086186336.000000", "dest_ip": "172.28.255.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:37:14.190304+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:37:14.190304+0000"}, "rule": {"firedtimes": 197, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:37:14.190304Z", "location": "/var/log/suricata/eve.json", "id": "1686759691.29149299"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:37:14, a Suricata alert detected a DNS query to the .biz TLD from source IP 172.28.192.4 to destination IP 172.28.255.254 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:37:14.190304"}, "agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.28.192.4", "dstip": "172.28.255.254:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 179, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:37:14.190304  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:64031 -&gt; 172.28.255.254:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:37:14.190304Z", "location": "/var/log/suricata/fast.log", "id": "1686759691.29151650"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:37:14, a Snort IDS alert flagged a DNS query to the .biz TLD from source IP 172.28.192.4 to destination IP 172.28.255.254 on port 53 via UDP. The event was classified as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  5 05:37:34"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 60, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  5 05:37:34 mail dovecot: imap-login: Login: user=&lt;hunter.smith&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=19920, TLS, session=&lt;fFuywz7X+tMK7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:37:34.000000Z", "location": "/var/log/syslog", "id": "1686759711.29155814"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:37:34, a Dovecot authentication success event was logged for user hunter.smith from IP 10.237.2.255 using the PLAIN method with a TLS session.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:37:37.244996"}, "agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.131.109", "dstip": "192.168.128.1:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 16, "mail": false, "level": 10, "pci_dss": ["10.6.1", "11.4"], "hipaa": ["164.312.b"], "tsc": ["CC7.2", "CC7.3", "CC6.1", "CC6.8"], "description": "Multiple IDS alerts for same id.", "groups": ["ids"], "id": "20152", "nist_800_53": ["AU.6", "SI.4"], "frequency": 10, "gdpr": ["IV_35.7.d"]}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:37:37.244996  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:57220 -&gt; 192.168.128.1:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:37:37.244996Z", "location": "/var/log/suricata/fast.log", "id": "1686759715.29161421"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:37:37, a Snort IDS alert flagged multiple DNS queries to the .biz TLD from source IP 192.168.131.109 to destination IP 192.168.128.1 on port 53 via UDP. The event was classified as "Potentially Bad Traffic" with a high alert frequency.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.213-.lXa70*axEtIBJAEQQl8t0sBU9kuZ/XVV4deAwl/Pc9R5/xTk8IP2hVBXKZhup4-.tx3V25Bt2IHkZuZ3tUZq3Vy*aPZdCskGYOBtzfHfH5Y4/HfXJ/f3xEhufHtwSO-.customers_2016.xlsx.db-21.greer.biz", "id": 14981, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "57220", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1844160392969476.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:37:37.244996+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:37:37.244996+0000"}, "rule": {"firedtimes": 200, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:37:37.244996Z", "location": "/var/log/suricata/eve.json", "id": "1686759715.29159065"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:37:37, a Suricata alert detected a DNS query to the .biz TLD from source IP 192.168.131.109 to destination IP 192.168.128.1 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.217-.*rB8gVDjRQoPURcjj7NikQayFiPo5vGVlYvWc/6YP*0zsIeUV6St/sitm1Yxf8-.ncWSBjZ9fkYnQ4IlcX/SG5CqTOAEZ87/Yr585ppX15*4bCj3TkAwo/0kIsIzuC-.customers_2016.xlsx.db-21.greer.biz", "id": 18910, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "172.28.192.4", "src_port": "57941", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1150203204912139.000000", "dest_ip": "172.28.255.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:38:58.443403+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:38:58.443403+0000"}, "rule": {"firedtimes": 207, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:38:58.443403Z", "location": "/var/log/suricata/eve.json", "id": "1686759796.29181527"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:38:58, a Suricata alert detected a DNS query to the .biz TLD from source IP 172.28.192.4 to destination IP 172.28.255.254 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:38:58.443403"}, "agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.28.192.4", "dstip": "172.28.255.254:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 188, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:38:58.443403  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:57941 -&gt; 172.28.255.254:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:38:58.443403Z", "location": "/var/log/suricata/fast.log", "id": "1686759796.29183878"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:38:58, a Snort IDS alert flagged a DNS query to the .biz TLD from source IP 172.28.192.4 to destination IP 172.28.255.254 on port 53 via UDP. The event was classified as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "data": {"srcip": "192.168.131.109", "dstip": "192.168.128.1:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 3, "mail": false, "level": 11, "pci_dss": ["10.6.1", "11.4"], "description": "Multiple IDS alerts for same id (ignoring now this id).", "groups": ["ids"], "id": "20162", "frequency": 5, "gdpr": ["IV_35.7.d"]}, "full_log": "02/05/2022-05:39:06.481749  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:40747 -&gt; 192.168.128.1:53", "id": "1686759804.29192174", "predecoder": {"timestamp": "02/05/2022-05:39:06.481749"}, "previous_output": "02/05/2022-05:39:06.482789  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:58951 -&gt; 172.28.255.254:53\n02/05/2022-05:38:58.441291  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:36554 -&gt; 192.168.128.1:53\n02/05/2022-05:38:58.443403  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:57941 -&gt; 172.28.255.254:53\n02/05/2022-05:38:41.398401  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:47530 -&gt; 192.168.128.1:53\n02/05/2022-05:38:41.399867  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:48980 -&gt; 172.28.255.254:53\n02/05/2022-05:38:18.344713  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:44826 -&gt; 192.168.128.1:53\n02/05/2022-05:38:18.346938  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:1325 -&gt; 172.28.255.254:53\n02/05/2022-05:37:58.287679  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:36002 -&gt; 192.168.128.1:53\n02/05/2022-05:37:58.289294  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:14216 -&gt; 172.28.255.254:53", "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:06.481749Z", "location": "/var/log/suricata/fast.log"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:39:06, a Snort IDS alert flagged multiple DNS queries to the .biz TLD from source IP 192.168.131.109 to destination IP 192.168.128.1 on port 53 via UDP. The alert noted repeated occurrences of the same event.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.218-.tkfjqLVVBX4NCPz1SIDO*6c*rGUg1PgxAytzdTHwIP*eb/MluIPvYfBm*hct89-.bT9Lkol*FIDKStwyO3pbw7vTwn46ujC3LaH52R*7PeHTm7uYEtDZD7qXDLCxNu-.customers_2016.xlsx.db-21.greer.biz", "id": 45614, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "40747", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1892545352849877.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:39:06.481749+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:39:06.481749+0000"}, "rule": {"firedtimes": 210, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:06.481749Z", "location": "/var/log/suricata/eve.json", "id": "1686759804.29189818"}</t>
+  </si>
+  <si>
+    <t>On Feb 5 at 05:39:06, a Suricata alert detected a DNS query to the .biz TLD from source IP 192.168.131.109 to destination IP 192.168.128.1 on port 53 via UDP. The query was flagged as "Potentially Bad Traffic."</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.218-.tkfjqLVVBX4NCPz1SIDO*6c*rGUg1PgxAytzdTHwIP*eb/MluIPvYfBm*hct89-.bT9Lkol*FIDKStwyO3pbw7vTwn46ujC3LaH52R*7PeHTm7uYEtDZD7qXDLCxNu-.customers_2016.xlsx.db-21.greer.biz", "id": 36726, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "172.28.192.4", "src_port": "58951", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1390644064574949.000000", "dest_ip": "172.28.255.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:39:06.482789+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:39:06.482789+0000"}, "rule": {"firedtimes": 209, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:06.482789Z", "location": "/var/log/suricata/eve.json", "id": "1686759804.29187057"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:06.482789, a DNS query to the domain 3x6-.218-.tkfjqLVVBX4NCPz1SIDO*6c*rGUg1PgxAytzdTHwIP*eb/MluIPvYfBm*hct89-.bT9Lkol*FIDKStwyO3pbw7vTwn46ujC3LaH52R*7PeHTm7uYEtDZD7qXDLCxNu-.customers_2016.xlsx.db-21.greer.biz was observed from 172.28.192.4 to 172.28.255.254 over UDP port 53. This traffic was classified as potentially bad by Suricata with signature ID 2027863.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:39:06.482789"}, "agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.28.192.4", "dstip": "172.28.255.254:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 190, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:39:06.482789  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:58951 -&gt; 172.28.255.254:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:06.482789Z", "location": "/var/log/suricata/fast.log", "id": "1686759804.29189408"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:06.482789, a DNS query from 172.28.192.4 to 172.28.255.254 over UDP port 53 was logged, flagged as an IDS event under signature ID 2027863. The event indicates potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.219-.dhP1pJgDrAM/d4KJNHb6f/9PEVA2EBLZb*qq/q8B/V839H/9Of0fwTrFJA9kmk-.XI9npW5t*zFErl08PgSfoXLb99oJIv0trg2hhimdWEW8OJ3zwS65x9Io3z6igL-.customers_2016.xlsx.db-21.greer.biz", "id": 1167, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "37521", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1299923618754695.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:39:19.520327+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:39:19.520327+0000"}, "rule": {"firedtimes": 212, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:19.520327Z", "location": "/var/log/suricata/eve.json", "id": "1686759817.29197187"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:19.520327, a DNS query to the domain 3x6-.219-.dhP1pJgDrAM/d4KJNHb6f/9PEVA2EBLZb*qq/q8B/V839H/9Of0fwTrFJA9kmk-.XI9npW5t*zFErl08PgSfoXLb99oJIv0trg2hhimdWEW8OJ3zwS65x9Io3z6igL-.customers_2016.xlsx.db-21.greer.biz was observed from 192.168.131.109 to 192.168.128.1 over UDP port 53. This traffic was classified as potentially bad by Suricata with signature ID 2027863.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:39:19.520327"}, "agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.131.109", "dstip": "192.168.128.1:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 192, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:39:19.520327  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:37521 -&gt; 192.168.128.1:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:19.520327Z", "location": "/var/log/suricata/fast.log", "id": "1686759817.29199541"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:19.520327, a DNS query from 192.168.131.109 to 192.168.128.1 over UDP port 53 was logged, flagged as an IDS event under signature ID 2027863. The event indicates potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.219-.dhP1pJgDrAM/d4KJNHb6f/9PEVA2EBLZb*qq/q8B/V839H/9Of0fwTrFJA9kmk-.XI9npW5t*zFErl08PgSfoXLb99oJIv0trg2hhimdWEW8OJ3zwS65x9Io3z6igL-.customers_2016.xlsx.db-21.greer.biz", "id": 39808, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "172.28.192.4", "src_port": "26990", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1678851403413590.000000", "dest_ip": "172.28.255.254", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-05T05:39:19.522326+0000", "bytes_toclient": "0", "bytes_toserver": "233", "pkts_toclient": "0"}, "timestamp": "2022-02-05T05:39:19.522326+0000"}, "rule": {"firedtimes": 211, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:19.522326Z", "location": "/var/log/suricata/eve.json", "id": "1686759817.29194422"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:19.522326, a DNS query to the domain 3x6-.219-.dhP1pJgDrAM/d4KJNHb6f/9PEVA2EBLZb*qq/q8B/V839H/9Of0fwTrFJA9kmk-.XI9npW5t*zFErl08PgSfoXLb99oJIv0trg2hhimdWEW8OJ3zwS65x9Io3z6igL-.customers_2016.xlsx.db-21.greer.biz was observed from 172.28.192.4 to 172.28.255.254 over UDP port 53. This traffic was classified as potentially bad by Suricata with signature ID 2027863.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:39:19.522326"}, "agent": {"ip": "192.168.128.1", "name": "wazuh-client", "id": "27"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "172.28.192.4", "dstip": "172.28.255.254:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 191, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:39:19.522326  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 172.28.192.4:26990 -&gt; 172.28.255.254:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:19.522326Z", "location": "/var/log/suricata/fast.log", "id": "1686759817.29196777"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:19.522326, a DNS query from 172.28.192.4 to 172.28.255.254 over UDP port 53 was logged, flagged as an IDS event under signature ID 2027863. The event indicates potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/05/2022-05:39:29.556569"}, "agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "192.168.131.109", "dstip": "192.168.128.1:53", "id": "1:2027863:4"}, "rule": {"firedtimes": 194, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/05/2022-05:39:29.556569  [**] [1:2027863:4] ET INFO Observed DNS Query to .biz TLD [**] [Classification: Potentially Bad Traffic] [Priority: 2] {UDP} 192.168.131.109:52225 -&gt; 192.168.128.1:53", "input": {"type": "log"}, "@timestamp": "2022-02-05T05:39:29.556569Z", "location": "/var/log/suricata/fast.log", "id": "1686759827.29205069"}</t>
+  </si>
+  <si>
+    <t>On Feb 5, 2022, at 05:39:29.556569, a DNS query from 192.168.131.109 to 192.168.128.1 over UDP port 53 was logged, flagged as an IDS event under signature ID 2027863. The event indicates potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "freshclam", "timestamp": "Feb  8 21:46:44"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 7, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Feb  8 21:46:44 mail freshclam[30381]: Tue Feb  8 21:46:44 2022 -&gt; ClamAV update process started at Tue Feb  8 21:46:44 2022", "input": {"type": "log"}, "@timestamp": "2022-02-08T21:46:44.000000Z", "location": "/var/log/syslog", "id": "1687077062.4134079"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 21:46:44, the ClamAV database update process started on the host mail (IP: 10.237.2.255) as reported by the program freshclam. This event was classified under ClamAV updates.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "smith-mail", "program_name": "freshclam", "timestamp": "Feb  8 22:26:13"}, "agent": {"ip": "172.28.192.7", "name": "wazuh-client", "id": "11"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 2, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Feb  8 22:26:13 smith-mail freshclam[29544]: Tue Feb  8 22:26:13 2022 -&gt; ClamAV update process started at Tue Feb  8 22:26:13 2022", "input": {"type": "log"}, "@timestamp": "2022-02-08T22:26:13.000000Z", "location": "/var/log/syslog", "id": "1687079430.4135188"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 22:26:13, the ClamAV database update process started on the host smith-mail (IP: 172.28.192.7) as reported by the program freshclam. This event was classified under ClamAV updates.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  8 20:15:14"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 15, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 20:15:14 mail dovecot: imap-login: Login: user=&lt;ryan.chambers&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=31415, TLS, session=&lt;mJb2X4fXBpoK7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T20:15:14.000000Z", "location": "/var/log/syslog", "id": "1687071573.3998104"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 20:15:14, user ryan.chambers successfully logged in to the mail server (10.237.2.255) using PLAIN authentication over IMAP with TLS. Event reported by Dovecot.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.237.0.166", "name": "wazuh-client", "id": "24"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.237.0.166", "src_port": "40772", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "22547738148645.000000", "dest_ip": "10.237.2.255", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4866-4867-4865-49196-49200-159-52393-52392-52394-49195-49199-158-49188-49192-107-49187-49191-103-49162-49172-57-49161-49171-51-157-156-61-60-53-47-255,0-11-10-35-22-23-49-13-43-45-51-21,29-23-30-25-24,0-1-2", "hash": "e0ff89ed9185dfb09184797a4c3f2e1c"}, "sni": "mail.dmz.mannsmith.harrison.com"}, "dest_port": "443", "flow": {"pkts_toserver": "6", "start": "2022-02-08T20:09:16.081701+0000", "bytes_toclient": "496", "bytes_toserver": "2445", "pkts_toclient": "3"}, "timestamp": "2022-02-08T20:09:16.100033+0000"}, "rule": {"firedtimes": 76, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-08T20:09:16.100033Z", "location": "/var/log/suricata/eve.json", "id": "1687071214.3971830"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 20:09:16, a Suricata alert was triggered for invalid TLS record/traffic between 10.237.0.166 and 10.237.2.255 over TCP port 443. This indicates a potential anomaly in TLS communication.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-20:09:16.099643"}, "agent": {"ip": "10.237.0.166", "name": "wazuh-client", "id": "24"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.237.2.255", "dstip": "10.237.0.166:40772", "id": "1:2230003:1"}, "rule": {"firedtimes": 69, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-20:09:16.099643  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.237.2.255:443 -&gt; 10.237.0.166:40772", "input": {"type": "log"}, "@timestamp": "2022-02-08T20:09:16.099643Z", "location": "/var/log/suricata/fast.log", "id": "1687071214.3973922"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 20:09:16, an IDS event flagged an invalid TLS handshake message between 10.237.2.255 and 10.237.0.166 over TCP port 443. Suricata classified it as a generic protocol command decode issue.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  8 20:08:04"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 2, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  8 20:08:04 mail dovecot: imap-login: Login: user=&lt;ryan.chambers&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=31309, TLS, session=&lt;6FVfRofX8JkK7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-08T20:08:04.000000Z", "location": "/var/log/mail.log", "id": "1687071142.3951568"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 20:08:04, user ryan.chambers successfully logged in to the mail server (10.237.2.255) using PLAIN authentication over IMAP with TLS. Event reported by Dovecot.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-20:02:13.340445"}, "agent": {"ip": "10.237.1.238", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.237.1.238", "dstip": "13.36.105.189:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 55, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-20:02:13.340445  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.237.1.238:47070 -&gt; 13.36.105.189:443", "input": {"type": "log"}, "@timestamp": "2022-02-08T20:02:13.340445Z", "location": "/var/log/suricata/fast.log", "id": "1687070791.3923434"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 20:02:13, an IDS event flagged an invalid TLS handshake message between 10.237.1.238 and an external IP 13.36.105.189 over TCP port 443. Suricata classified it as a generic protocol command decode issue.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/08/2022-19:57:47.634403"}, "agent": {"ip": "10.237.1.238", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.237.1.238", "dstip": "13.36.105.189:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 39, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/08/2022-19:57:47.634403  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.237.1.238:47062 -&gt; 13.36.105.189:443", "input": {"type": "log"}, "@timestamp": "2022-02-08T19:57:47.634403Z", "location": "/var/log/suricata/fast.log", "id": "1687070525.3893528"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 19:57:47, an IDS event flagged an invalid TLS handshake message between 10.237.1.238 and an external IP 13.36.105.189 over TCP port 443. Suricata classified it as a generic protocol command decode issue.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.237.1.238", "name": "wazuh-client", "id": "12"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "2"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "15.236.57.174", "src_port": "443", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "940412245105974.000000", "dest_ip": "10.237.1.238", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "privacy.trustcommander.net"}, "dest_port": "55656", "flow": {"pkts_toserver": "9", "start": "2022-02-08T19:51:43.843062+0000", "bytes_toclient": "206", "bytes_toserver": "1993", "pkts_toclient": "3"}, "timestamp": "2022-02-08T19:51:43.917699+0000"}, "rule": {"firedtimes": 33, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-08T19:51:43.917699Z", "location": "/var/log/suricata/eve.json", "id": "1687070162.3865922"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 19:51:43, a Suricata alert was triggered for an invalid TLS handshake message between 15.236.57.174 and 10.237.1.238 over TCP port 55656. The event flagged an anomaly in the TLS handshake process.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-content/themes/go/dist/hard"}, "rule": {"firedtimes": 270483, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:47:54 +0000] \"GET /wp-content/themes/go/dist/hard HTTP/1.1\" 404 3377 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:47:54.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026733.226044229"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:47:54, a 404 error was detected from a web server when 10.237.1.238 attempted to access /wp-content/themes/go/dist/hard via a GET request. This was flagged as a potential issue in web server access logs.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "previous_output": "10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/compat HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/comparison_list HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/comparison HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/compare_product HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/compare HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/company HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/companies HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/compact HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/comp HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/community HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/communities HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/blocks/audio/compiled"}, "rule": {"firedtimes": 9948, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:38:15 +0000] \"GET /wp-includes/blocks/audio/compiled HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:38:15.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026154.123391230"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:38:15, a series of 404 errors were flagged from the web server for multiple GET requests by 10.237.1.238. The requested paths were related to /wp-includes/blocks/audio/..., and this was flagged as part of vulnerability scanning activity.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/javascript/jquery/sections"}, "rule": {"firedtimes": 28282, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:31:22 +0000] \"GET /javascript/jquery/sections HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:31:22.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687025740.51202682"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:31:22, a 404 error was flagged when 10.237.1.238 attempted to access /javascript/jquery/sections via a GET request. This was classified as a potential attack in the web server logs.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.98-.5vmW0ifR5lnL8y*b6ShpqFTSkFJJww5KOizMp8dVFuG/s9ayD7wd09rgp9Da5X-.g*GgxVWqsra9qgrCmBskZKZY0olTV6HsoaPg9lGWpmrNTMmFIz4*ehmdFT1YyX-.FreemanGroup.docx.db-21.greer.biz", "id": 2208, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "58152", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "1247116086967686.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-08T02:37:15.425350+0000", "bytes_toclient": "0", "bytes_toserver": "230", "pkts_toclient": "0"}, "timestamp": "2022-02-08T02:37:15.425350+0000"}, "rule": {"firedtimes": 162, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-08T02:37:15.425350Z", "location": "/var/log/suricata/eve.json", "id": "1687008092.22653521"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 02:37:15, a Suricata alert was triggered for a DNS query to a .biz TLD domain from 192.168.131.109 to 192.168.128.1 over UDP port 53. The event was classified as potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/23/2022-13:42:36.150104"}, "agent": {"ip": "10.132.56.81", "name": "wazuh-client", "id": "24"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.132.56.81", "dstip": "52.21.178.134:443", "id": "1:2230003:1"}, "rule": {"firedtimes": 169, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/23/2022-13:42:36.150104  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.132.56.81:54846 -&gt; 52.21.178.134:443", "input": {"type": "log"}, "@timestamp": "2022-01-23T13:42:36.150104Z", "location": "/var/log/suricata/fast.log", "id": "1688766801.11276312"}</t>
+  </si>
+  <si>
+    <t>On Jan 23 at 13:42:36, a Suricata alert was triggered for an invalid TLS handshake message from IP 10.132.56.81 to 52.21.178.134 over TCP. The alert was categorized as Generic Protocol Command Decode and has been triggered 169 times.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Feb  6 16:02:07"}, "agent": {"ip": "10.237.2.255", "name": "wazuh-client", "id": "22"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 319, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Feb  6 16:02:07 mail dovecot: imap-login: Login: user=&lt;joann.moreno&gt;, method=PLAIN, rip=10.237.2.255, lip=10.237.2.255, mpid=5825, TLS, session=&lt;ftAOm1vX8ugK7QL/&gt;", "input": {"type": "log"}, "@timestamp": "2022-02-06T16:02:07.000000Z", "location": "/var/log/mail.info", "id": "1686883585.5818491"}</t>
+  </si>
+  <si>
+    <t>On Feb 6, 2022, at 16:02:07, a successful Dovecot authentication occurred for user joann.moreno from IP 10.237.2.255. The session was established using TLS and flagged as an authentication success event.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/el"}, "rule": {"firedtimes": 22255, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:30:57 +0000] \"GET /wp-includes/el HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:30:57.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687025715.46950648"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:30:57, a 404 error was flagged from the web server when 10.237.1.238 attempted to access /wp-includes/el via a GET request. This was logged as a potential web server issue.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "previous_output": "10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/ptopic HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/pt_BR HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/pt HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/psql HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/psp HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/psd HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/ps HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/prv_download HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/prv HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/pruebas HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"\n10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/prueba HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/blocks/image/pub"}, "rule": {"firedtimes": 14556, "mail": false, "level": 10, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Multiple web server 400 error codes from same source ip.", "groups": ["web", "accesslog", "web_scan", "recon"], "mitre": {"technique": ["Vulnerability Scanning"], "id": ["T1595.002"], "tactic": ["Reconnaissance"]}, "id": "31151", "nist_800_53": ["SA.11", "SI.4"], "frequency": 14, "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:42:19 +0000] \"GET /wp-includes/blocks/image/pub HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:42:19.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687026397.166893815"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:42:19, multiple 404 errors were flagged for repeated GET requests by 10.237.1.238 to /wp-includes/blocks/image/... paths. This activity was flagged as part of a vulnerability scanning event.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-content/themes/go/dist/images/social/attach_mod"}, "rule": {"firedtimes": 372551, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:54:59 +0000] \"GET /wp-content/themes/go/dist/images/social/attach_mod HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:54:59.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687027157.301628408"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:54:59, a 404 error was flagged when 10.237.1.238 accessed /wp-content/themes/go/dist/images/social/attach_mod via a GET request. This was categorized as a web server issue.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "02/07/2022-11:08:34.457093"}, "agent": {"ip": "10.237.0.166", "name": "wazuh-client", "id": "24"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.237.2.255", "dstip": "10.237.0.166:45052", "id": "1:2230003:1"}, "rule": {"firedtimes": 589, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "02/07/2022-11:08:34.457093  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 10.237.2.255:443 -&gt; 10.237.0.166:45052", "input": {"type": "log"}, "@timestamp": "2022-02-07T11:08:34.457093Z", "location": "/var/log/suricata/fast.log", "id": "1686952372.37925461"}</t>
+  </si>
+  <si>
+    <t>On Feb 7, 2022, at 11:08:34, an IDS event flagged an invalid TLS handshake message between 10.237.2.255 and 10.237.0.166 over TCP port 45052. The event was classified as a generic protocol command decode issue by Suricata.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.109", "name": "wazuh-client", "id": "16"}, "manager": {"name": "wazuh.manager"}, "data": {"dns": {"query": [{"rrname": "3x6-.270-.wbGRZx7dwmLWztJ3sR9Gsn3DPM1kR/E3/YUFehc9N6B*v31HD5M7i1o3gym1u5-.0rulS2cEHmjFgZaeN/6bMHh9o9cAeOMAxrtvGuyylDZUcBlZ0KVHYQEdVQGwBl-.payroll_2017.xlsx.db-21.greer.biz", "id": 32090, "type": "query", "tx_id": 0, "rrtype": "A"}]}, "tx_id": "0", "app_proto": "dns", "in_iface": "ens3", "src_ip": "192.168.131.109", "src_port": "49106", "event_type": "alert", "alert": {"severity": "2", "signature_id": "2027863", "rev": "4", "metadata": {"affected_product": ["Any"], "attack_target": ["Client_Endpoint"], "updated_at": ["2020_09_17"], "former_category": ["INFO"], "created_at": ["2019_08_13"], "signature_severity": ["Major"], "deployment": ["Perimeter"]}, "gid": "1", "signature": "ET INFO Observed DNS Query to .biz TLD", "action": "allowed", "category": "Potentially Bad Traffic"}, "flow_id": "2143450132845546.000000", "dest_ip": "192.168.128.1", "proto": "UDP", "dest_port": "53", "flow": {"pkts_toserver": "1", "start": "2022-02-06T14:48:35.267242+0000", "bytes_toclient": "0", "bytes_toserver": "231", "pkts_toclient": "0"}, "timestamp": "2022-02-06T14:48:35.267242+0000"}, "rule": {"firedtimes": 342, "mail": false, "level": 3, "description": "Suricata: Alert - ET INFO Observed DNS Query to .biz TLD", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-02-06T14:48:35.267242Z", "location": "/var/log/suricata/eve.json", "id": "1686879173.3066257"}</t>
+  </si>
+  <si>
+    <t>On Feb 6, 2022, at 14:48:35, a Suricata alert was triggered for a DNS query to a .biz TLD domain from 192.168.131.109 to 192.168.128.1 over UDP port 53. This event was classified as potentially bad traffic.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.131.215", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "10.237.1.238", "id": "404", "url": "/wp-includes/js/tinymce/plugins/media/webalizer"}, "rule": {"firedtimes": 355348, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "10.237.1.238 - - [08/Feb/2022:07:53:47 +0000] \"GET /wp-includes/js/tinymce/plugins/media/webalizer HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-02-08T07:53:47.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1687027086.288658796"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 07:53:47, a 404 error occurred when 10.237.1.238 attempted to access /wp-includes/js/tinymce/plugins/media/webalizer via a GET request. This was classified as a potential attack.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "taylor-mail", "program_name": "freshclam", "timestamp": "Feb  8 22:25:40"}, "agent": {"ip": "172.28.192.97", "name": "wazuh-client", "id": "6"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 1, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Feb  8 22:25:40 taylor-mail freshclam[30082]: Tue Feb  8 22:25:40 2022 -&gt; ClamAV update process started at Tue Feb  8 22:25:40 2022", "input": {"type": "log"}, "@timestamp": "2022-02-08T22:25:40.000000Z", "location": "/var/log/syslog", "id": "1687079398.4134813"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 22:25:40, the ClamAV database update process started on taylor-mail. This event was flagged as a database update by Freshclam.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 30 08:45:34"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 408, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 08:45:34 mail dovecot: imap-login: Login: user=&lt;susan.wallace&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=32678, TLS, session=&lt;n2r7sMjWsJqsGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T08:45:34.000000Z", "location": "/var/log/syslog", "id": "1688226542.5533505"}</t>
+  </si>
+  <si>
+    <t>On Feb 8, 2022, at 22:25:40, the ClamAV database update process started on the host taylor-mail (IP: 172.28.192.97) as reported by the program freshclam. This event was classified under ClamAV updates.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.188.179", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "GET", "srcip": "172.24.249.224", "id": "404", "url": "/notifier"}, "rule": {"firedtimes": 3093, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.24.249.224 - - [29/Jan/2022:14:39:21 +0000] \"GET /notifier HTTP/1.1\" 404 363 \"-\" \"Mozilla/4.0 (compatible; MSIE 6.0; Windows NT 5.1)\"", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:39:21.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1688161370.8702815"}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 08:45:34, a successful Dovecot authentication occurred for user susan.wallace from IP 172.24.251.90 via TLS on the mail server.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.24.249.224", "name": "wazuh-client", "id": "23"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "172.24.249.224", "src_port": "34022", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "2104415389882239.000000", "dest_ip": "195.214.233.128", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4866-4867-49195-49199-49196-49200-52393-52392-49171-49172-156-157-47-53,0-23-65281-10-11-35-16-5-13-18-51-45-43-27-17513-21,29-23-24,0", "hash": "cd08e31494f9531f560d64c695473da9"}, "sni": "plesk.com"}, "dest_port": "443", "flow": {"pkts_toserver": "11", "start": "2022-01-27T09:20:06.071551+0000", "bytes_toclient": "257", "bytes_toserver": "1920", "pkts_toclient": "3"}, "timestamp": "2022-01-27T09:20:06.142465+0000"}, "rule": {"firedtimes": 28, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-27T09:20:06.142465Z", "location": "/var/log/suricata/eve.json", "id": "1687969415.2818740"}</t>
+  </si>
+  <si>
+    <t>On Jan 29, 2022, at 14:39:21, a web server logged a 404 error when 172.24.249.224 attempted to access /notifier via a GET request. This was categorized as a web server issue.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "data": {"srcuser": "michael.sutton", "uid": "0", "srcip": "10.70.34.215", "euid": "0", "dstuser": "michael.sutton", "tty": "dovecot"}, "rule": {"mail": false, "level": 10, "pci_dss": ["10.2.4", "10.2.5", "11.4"], "hipaa": ["164.312.b"], "tsc": ["CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "PAM: Multiple failed logins in a small period of time.", "groups": ["pam", "syslog", "authentication_failures"], "nist_800_53": ["AU.14", "AC.7", "SI.4"], "frequency": 8, "gdpr": ["IV_35.7.d", "IV_32.2"], "firedtimes": 5, "mitre": {"technique": ["Brute Force"], "id": ["T1110"], "tactic": ["Credential Access"]}, "id": "5551", "gpg13": ["7.8"]}, "full_log": "Jan 27 15:28:18 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton", "id": "1687991506.6419875", "predecoder": {"hostname": "collinsbecker-mail", "program_name": "auth", "timestamp": "Jan 27 15:28:18"}, "previous_output": "Jan 27 15:28:15 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:28:07 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:27:59 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:27:12 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:27:09 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:27:02 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton\nJan 27 15:26:54 collinsbecker-mail auth: pam_unix(dovecot:auth): authentication failure; logname= uid=0 euid=0 tty=dovecot ruser=michael.sutton rhost=10.70.34.215  user=michael.sutton", "manager": {"name": "wazuh.manager"}, "decoder": {"name": "pam"}, "input": {"type": "log"}, "@timestamp": "2022-01-27T15:28:18.000000Z", "location": "/var/log/auth.log"}</t>
+  </si>
+  <si>
+    <t>On Jan 27, 2022, at 09:20:06, an invalid TLS record/traffic alert was triggered by Suricata for a connection from 172.24.249.224 to 195.214.233.128 over TCP port 443. The domain involved was plesk.com.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.24.249.224", "name": "wazuh-client", "id": "23"}, "data": {"srcip": "104.96.141.102", "dstip": "172.24.249.224:60594", "id": "1:2230003:1"}, "rule": {"firedtimes": 5, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/28/2022-17:10:16.875514  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 104.96.141.102:443 -&gt; 172.24.249.224:60594", "id": "1688084025.62439", "predecoder": {"timestamp": "01/28/2022-17:10:16.875514"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-28T17:10:16.875514Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"country_name": "Netherlands", "location": {"lon": 4.8995, "lat": 52.3824}}}</t>
+  </si>
+  <si>
+    <t>On Jan 27, 2022, at 15:28:18, multiple failed authentication attempts occurred for user michael.sutton from IP 10.70.34.215. The events were flagged as a potential brute force attack involving Dovecot.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "collinsbecker-mail", "program_name": "dovecot", "timestamp": "Jan 29 10:10:20"}, "agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 88, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 29 10:10:20 collinsbecker-mail dovecot: imap-login: Login: user=&lt;michael.sutton&gt;, method=PLAIN, rip=10.70.34.215, lip=10.70.34.215, mpid=13802, TLS, session=&lt;JAZPwrXWGI8KRiLX&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-29T10:10:20.000000Z", "location": "/var/log/mail.info", "id": "1688145228.2885407"}</t>
+  </si>
+  <si>
+    <t>On Jan 28, 2022, at 17:10:16, Suricata flagged an invalid TLS handshake message between 104.96.141.102 (Netherlands) and 172.24.249.224 over TCP port 443. The event was classified as a generic protocol decode issue.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "192.168.188.179", "name": "wazuh-client", "id": "21"}, "manager": {"name": "wazuh.manager"}, "data": {"protocol": "HEAD", "srcip": "172.24.249.224", "id": "404", "url": "/?attachment_id=12"}, "rule": {"firedtimes": 587, "mail": false, "level": 5, "pci_dss": ["6.5", "11.4"], "tsc": ["CC6.6", "CC7.1", "CC8.1", "CC6.1", "CC6.8", "CC7.2", "CC7.3"], "description": "Web server 400 error code.", "groups": ["web", "accesslog", "attack"], "id": "31101", "nist_800_53": ["SA.11", "SI.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "web-accesslog"}, "full_log": "172.24.249.224 - - [29/Jan/2022:14:39:00 +0000] \"HEAD /?attachment_id=12 HTTP/1.1\" 404 332 \"https://intranet.thomasmurray.shaw.info\" \"WPScan v3.8.20 (https://wpscan.com/wordpress-security-scanner)\"", "input": {"type": "log"}, "@timestamp": "2022-01-29T14:39:00.000000Z", "location": "/var/log/apache2/intranet-access.log", "id": "1688161348.6990263"}</t>
+  </si>
+  <si>
+    <t>On Jan 29, 2022, at 10:10:20, a successful Dovecot authentication occurred for user michael.sutton from IP 10.70.34.215 using TLS on the collinsbecker-mail server.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 29 16:53:52"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 466, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 29 16:53:52 mail dovecot: imap-login: Login: user=&lt;jonathan.owen&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=26130, TLS, session=&lt;wTxzZbvW2JSsGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-29T16:53:52.000000Z", "location": "/var/log/mail.info", "id": "1688169440.10963266"}</t>
+  </si>
+  <si>
+    <t>On Jan 29, 2022, at 16:53:52, a successful Dovecot authentication occurred for user jonathan.owen from IP 172.24.251.90 via TLS on the mail server.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "42376", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "1582550551917567.000000", "dest_ip": "52.224.31.34", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "h.clarity.ms"}, "dest_port": "443", "flow": {"pkts_toserver": "12", "start": "2022-01-30T07:51:24.226303+0000", "bytes_toclient": "294", "bytes_toserver": "1743", "pkts_toclient": "3"}, "timestamp": "2022-01-30T07:51:24.738334+0000"}, "rule": {"firedtimes": 357, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-30T07:51:24.738334Z", "location": "/var/log/suricata/eve.json", "id": "1688223293.3776513"}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 07:51:24, Suricata flagged an invalid TLS handshake message between 10.70.32.4 and 52.224.31.34 over TCP port 443. The server domain was identified as h.clarity.ms.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 30 09:23:11"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 134, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 30 09:23:11 mail dovecot: imap-login: Login: user=&lt;samantha.hayes&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=602, TLS, session=&lt;KE2EN8nWQJusGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-30T09:23:11.000000Z", "location": "/var/log/mail.log", "id": "1688228800.8611226"}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 09:23:11, a successful Dovecot authentication occurred for user samantha.hayes from IP 172.24.251.90 via TLS on the mail server.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "44260", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230003", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid handshake message", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "2241523757582633.000000", "dest_ip": "52.45.61.27", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-16-5-51-43-13-28-21,29-23-24-25-256-257,0", "hash": "a75de44db3e351bbd8d38b64c41f444e"}, "sni": "ping.chartbeat.net"}, "dest_port": "443", "flow": {"pkts_toserver": "8", "start": "2022-01-30T10:41:23.362793+0000", "bytes_toclient": "392", "bytes_toserver": "1807", "pkts_toclient": "4"}, "timestamp": "2022-01-30T10:41:23.697601+0000"}, "rule": {"firedtimes": 706, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid handshake message", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-30T10:41:23.697601Z", "location": "/var/log/suricata/eve.json", "id": "1688233492.11175172"}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 10:41:23, Suricata flagged another invalid TLS handshake message between 10.70.32.4 and 52.45.61.27 over TCP port 443. The server domain was identified as ping.chartbeat.net.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "data": {"srcip": "3.142.161.60", "dstip": "10.70.32.4:36222", "id": "1:2230003:1"}, "rule": {"firedtimes": 86, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "full_log": "01/30/2022-13:28:17.424681  [**] [1:2230003:1] SURICATA TLS invalid handshake message [**] [Classification: Generic Protocol Command Decode] [Priority: 3] {TCP} 3.142.161.60:443 -&gt; 10.70.32.4:36222", "id": "1688243507.13317580", "predecoder": {"timestamp": "01/30/2022-13:28:17.424681"}, "manager": {"name": "wazuh.manager"}, "decoder": {"parent": "snort", "name": "snort"}, "input": {"type": "log"}, "@timestamp": "2022-01-30T13:28:17.424681Z", "location": "/var/log/suricata/fast.log", "GeoLocation": {"city_name": "Columbus", "country_name": "United States", "region_name": "Ohio", "location": {"lon": -83.0235, "lat": 39.9653}}}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 13:28:17, an IDS event was triggered for an invalid TLS handshake message between 3.142.161.60 (Columbus, Ohio, USA) and 10.70.32.4 over TCP port 443.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "collinsbecker-mail", "program_name": "dovecot", "timestamp": "Jan 26 13:43:51"}, "agent": {"ip": "10.70.33.128", "name": "wazuh-client", "id": "2"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 378, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 26 13:43:51 collinsbecker-mail dovecot: imap-login: Login: user=&lt;diana.delgado&gt;, method=PLAIN, rip=10.70.34.215, lip=10.70.34.215, mpid=18614, TLS, session=&lt;zrNbZHzWiOgKRiLX&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-26T13:43:51.000000Z", "location": "/var/log/syslog", "id": "1687898838.7544892"}</t>
+  </si>
+  <si>
+    <t>On Jan 26, 2022, at 13:43:51, a successful Dovecot authentication occurred for user diana.delgado from IP 10.70.34.215 via TLS on the collinsbecker-mail server.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 26 10:23:24"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 222, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 26 10:23:24 mail dovecot: imap-login: Login: user=&lt;frank.rios&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=20792, TLS, session=&lt;5Mt3l3nWItasGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-26T10:23:24.000000Z", "location": "/var/log/syslog", "id": "1687886813.4889935"}</t>
+  </si>
+  <si>
+    <t>On Jan 26, 2022, at 10:23:24, a successful Dovecot authentication occurred for user frank.rios from IP 172.24.251.90 via TLS on the mail server.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"timestamp": "01/25/2022-00:20:02.333436"}, "agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"srcip": "10.70.32.4", "dstip": "91.189.88.142:80", "id": "1:2013504:6"}, "rule": {"firedtimes": 3, "mail": false, "level": 6, "description": "IDS event.", "groups": ["ids"], "id": "20101"}, "decoder": {"parent": "snort", "name": "snort"}, "full_log": "01/25/2022-00:20:02.333436  [**] [1:2013504:6] ET POLICY GNU/Linux APT User-Agent Outbound likely related to package management [**] [Classification: Not Suspicious Traffic] [Priority: 3] {TCP} 10.70.32.4:50106 -&gt; 91.189.88.142:80", "input": {"type": "log"}, "@timestamp": "2022-01-25T00:20:02.333436Z", "location": "/var/log/suricata/fast.log", "id": "1687764211.1920"}</t>
+  </si>
+  <si>
+    <t>On Jan 25, 2022, at 00:20:02, an IDS event flagged outbound traffic from 10.70.32.4 to 91.189.88.142 over TCP port 80, related to GNU/Linux APT User-Agent activity likely tied to package management.</t>
+  </si>
+  <si>
+    <t>{"agent": {"ip": "172.27.180.4", "name": "wazuh-client", "id": "25"}, "manager": {"name": "wazuh.manager"}, "data": {"metadata": {"flowints": {"tls": {"anomaly": {"count": "4"}}}}, "tx_id": "0", "app_proto": "tls", "in_iface": "ens3", "src_ip": "10.70.32.4", "src_port": "37492", "event_type": "alert", "alert": {"severity": "3", "signature_id": "2230010", "rev": "1", "gid": "1", "signature": "SURICATA TLS invalid record/traffic", "action": "allowed", "category": "Generic Protocol Command Decode"}, "flow_id": "640121366455076.000000", "dest_ip": "52.167.85.21", "proto": "TCP", "tls": {"version": "UNDETERMINED", "ja3": {"string": "771,4865-4867-4866-49195-49199-52393-52392-49196-49200-49162-49161-49171-49172-156-157-47-53-10,0-23-65281-10-11-35-16-5-51-43-13-45-28-21,29-23-24-25-256-257,0", "hash": "aa7744226c695c0b2e440419848cf700"}, "sni": "i.clarity.ms"}, "dest_port": "443", "flow": {"pkts_toserver": "12", "start": "2022-01-25T11:27:37.729892+0000", "bytes_toclient": "348", "bytes_toserver": "1730", "pkts_toclient": "4"}, "timestamp": "2022-01-25T11:27:38.080208+0000"}, "rule": {"firedtimes": 32, "mail": false, "level": 3, "description": "Suricata: Alert - SURICATA TLS invalid record/traffic", "groups": ["ids", "suricata"], "id": "86601"}, "decoder": {"name": "json"}, "input": {"type": "log"}, "@timestamp": "2022-01-25T11:27:38.080208Z", "location": "/var/log/suricata/eve.json", "id": "1687804267.2106165"}</t>
+  </si>
+  <si>
+    <t>On Jan 25, 2022, at 11:27:38, Suricata flagged an invalid TLS handshake message between 10.70.32.4 and 52.167.85.21 over TCP port 443. The server domain was identified as i.clarity.ms.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "butcherrowe-mail", "program_name": "freshclam", "timestamp": "Jan 25 08:54:52"}, "agent": {"ip": "10.70.32.243", "name": "wazuh-client", "id": "4"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 3, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Jan 25 08:54:52 butcherrowe-mail freshclam[28323]: Tue Jan 25 08:54:52 2022 -&gt; ClamAV update process started at Tue Jan 25 08:54:52 2022", "input": {"type": "log"}, "@timestamp": "2022-01-25T08:54:52.000000Z", "location": "/var/log/syslog", "id": "1687795100.1003842"}</t>
+  </si>
+  <si>
+    <t>On Jan 25, 2022, at 08:54:52, a ClamAV database update was initiated on the butcherrowe-mail server by the freshclam service.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "mail", "program_name": "dovecot", "timestamp": "Jan 26 07:00:42"}, "agent": {"ip": "10.38.242.195", "name": "wazuh-client", "id": "20"}, "manager": {"name": "wazuh.manager"}, "rule": {"mail": false, "level": 3, "pci_dss": ["10.2.5"], "hipaa": ["164.312.b"], "tsc": ["CC6.8", "CC7.2", "CC7.3"], "description": "Dovecot Authentication Success.", "groups": ["dovecot", "authentication_success"], "nist_800_53": ["AU.14", "AC.7"], "gdpr": ["IV_32.2"], "firedtimes": 20, "mitre": {"technique": ["Valid Accounts"], "id": ["T1078"], "tactic": ["Defense Evasion", "Persistence", "Privilege Escalation", "Initial Access"]}, "id": "9701", "gpg13": ["7.1", "7.2"]}, "decoder": {"parent": "dovecot", "name": "dovecot"}, "full_log": "Jan 26 07:00:42 mail dovecot: imap-login: Login: user=&lt;samantha.hayes&gt;, method=PLAIN, rip=172.24.251.90, lip=172.24.251.90, mpid=19033, TLS, session=&lt;yZaXwnbWttOsGPta&gt;", "input": {"type": "log"}, "@timestamp": "2022-01-26T07:00:42.000000Z", "location": "/var/log/mail.log", "id": "1687874650.2144290"}</t>
+  </si>
+  <si>
+    <t>On Jan 26, 2022, at 07:00:42, a successful Dovecot authentication occurred for user samantha.hayes from IP 172.24.251.90 via TLS on the mail server.</t>
+  </si>
+  <si>
+    <t>{"predecoder": {"hostname": "butcherrowe-mail", "program_name": "freshclam", "timestamp": "Jan 30 22:25:36"}, "agent": {"ip": "10.70.32.243", "name": "wazuh-client", "id": "4"}, "manager": {"name": "wazuh.manager"}, "rule": {"firedtimes": 3, "mail": false, "level": 3, "pci_dss": ["5.2"], "tsc": ["A1.2"], "description": "ClamAV database update", "groups": ["clamd", "freshclam", "virus"], "id": "52507", "nist_800_53": ["SI.3"], "gpg13": ["4.4"], "gdpr": ["IV_35.7.d"]}, "decoder": {"name": "freshclam"}, "full_log": "Jan 30 22:25:36 butcherrowe-mail freshclam[28323]: Sun Jan 30 22:25:36 2022 -&gt; ClamAV update process started at Sun Jan 30 22:25:36 2022", "input": {"type": "log"}, "@timestamp": "2022-01-30T22:25:36.000000Z", "location": "/var/log/syslog", "id": "1688275744.1251036"}</t>
+  </si>
+  <si>
+    <t>On Jan 30, 2022, at 22:25:36, a ClamAV database update was initiated on the butcherrowe-mail server by the freshclam service.</t>
   </si>
 </sst>
 </file>
@@ -567,8 +1463,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="79.13"/>
-    <col customWidth="1" min="2" max="2" width="43.88"/>
+    <col customWidth="1" min="1" max="1" width="45.0"/>
+    <col customWidth="1" min="2" max="2" width="49.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -971,6 +1867,1206 @@
         <v>99</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
